--- a/data_fishing.xlsx
+++ b/data_fishing.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIBER\Desktop\Projects\Fishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33358C8E-7C1F-4AC3-ADCF-4B7AF8A4217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF618324-6969-487B-B407-5B3720346489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{FBF81EBF-3A87-4B26-B45B-0131BB65FD05}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="49">
   <si>
     <t>Species_Name</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Nombre de Overfishing_Risk</t>
   </si>
   <si>
-    <t>Nombre de Average_Size(cm)</t>
-  </si>
-  <si>
     <t>Overfishing</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
   </si>
   <si>
     <t>Average size (cm)</t>
+  </si>
+  <si>
+    <t>Moyenne de Average_Size(cm)</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -304,6 +304,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,65 +690,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$B$6:$B$14</c:f>
+              <c:f>CALCULS!$B$6:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Herring</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Mackerel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Salmon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sardine</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Shark</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snapper</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Tuna</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$C$6:$C$14</c:f>
+              <c:f>CALCULS!$C$6:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>61.911666666666662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,7 +788,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1356,10 +1315,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,6 +1877,63 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2009,10 +2025,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$H$7:$H$8</c:f>
+              <c:f>CALCULS!$H$7:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Low</c:v>
                 </c:pt>
               </c:strCache>
@@ -2020,12 +2042,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$I$7:$I$8</c:f>
+              <c:f>CALCULS!$I$7:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,10 +2145,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$H$7:$H$8</c:f>
+              <c:f>CALCULS!$H$7:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Low</c:v>
                 </c:pt>
               </c:strCache>
@@ -2131,19 +2162,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$J$7:$J$8</c:f>
+              <c:f>CALCULS!$J$7:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0562-4DE0-B86F-C358954B97B1}"/>
+              <c16:uniqueId val="{00000006-1086-4A6C-8BA0-BCDFE9BF3D50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2242,8 +2276,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.85046319156548456"/>
           <c:y val="0.48186197538441577"/>
-          <c:w val="8.8882415304197673E-2"/>
-          <c:h val="0.17126799679468654"/>
+          <c:w val="7.3915572911406102E-2"/>
+          <c:h val="0.1984565212586531"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2811,6 +2845,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2844,64 +2934,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$M$7:$M$15</c:f>
+              <c:f>CALCULS!$M$7:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Herring</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Mackerel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Salmon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sardine</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Shark</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snapper</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Tuna</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$N$7:$N$15</c:f>
+              <c:f>CALCULS!$N$7:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2939,66 +2987,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$M$7:$M$15</c:f>
+              <c:f>CALCULS!$M$7:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Herring</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Mackerel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Salmon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sardine</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Shark</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snapper</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Tuna</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$O$7:$O$15</c:f>
+              <c:f>CALCULS!$O$7:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-478F-4FAC-AF43-84BB735AAA52}"/>
+              <c16:uniqueId val="{00000011-7DD6-4169-AB77-98095CAC7785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3028,66 +3040,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CALCULS!$M$7:$M$15</c:f>
+              <c:f>CALCULS!$M$7:$M$8</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cod</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Herring</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>Mackerel</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Salmon</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Sardine</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Shark</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snapper</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Tuna</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CALCULS!$P$7:$P$15</c:f>
+              <c:f>CALCULS!$P$7:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-478F-4FAC-AF43-84BB735AAA52}"/>
+              <c16:uniqueId val="{00000013-7DD6-4169-AB77-98095CAC7785}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3912,6 +3888,62 @@
           </a:effectLst>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3947,21 +3979,11 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="A0D9F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow>
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8980-42AA-9B48-5F99749BE7F4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3979,7 +4001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pacific Ocean</c:v>
+                  <c:v>Indian Ocean</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3991,7 +4013,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3999,6 +4021,112 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B7E6-49CC-8F16-7250E560C1EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CALCULS!$U$5:$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Medium</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFB84D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CALCULS!$S$7:$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indian Ocean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CALCULS!$U$7:$U$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8980-42AA-9B48-5F99749BE7F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CALCULS!$V$5:$V$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>High</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D9534F"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CALCULS!$S$7:$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indian Ocean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CALCULS!$V$7:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8980-42AA-9B48-5F99749BE7F4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7062,8 +7190,8 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21849</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>178781</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -7100,8 +7228,8 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>122564</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>178781</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
@@ -7147,8 +7275,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>174314</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Species_Name 1">
@@ -7171,7 +7299,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7225,8 +7353,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>174314</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Region 1">
@@ -7249,7 +7377,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7303,8 +7431,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>107626</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="10" name="Breeding_Season 1">
@@ -7327,7 +7455,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7381,8 +7509,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="11" name="Fishing_Method 1">
@@ -7405,7 +7533,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7459,8 +7587,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>35244</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Water_Pollution_Level">
@@ -7483,7 +7611,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14008,28 +14136,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08DFE286-359C-4373-955E-AB5C3F6E86D7}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="species">
-  <location ref="B5:C14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453BCABE-285E-4317-A9E8-F4D8EAEF6939}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Region" colHeaderCaption="pollution">
+  <location ref="S5:W8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="9">
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -14043,1034 +14171,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="479">
-        <item x="184"/>
-        <item x="274"/>
-        <item x="246"/>
-        <item x="230"/>
-        <item x="339"/>
-        <item x="96"/>
-        <item x="240"/>
-        <item x="115"/>
-        <item x="359"/>
-        <item x="201"/>
-        <item x="170"/>
-        <item x="70"/>
-        <item x="389"/>
-        <item x="393"/>
-        <item x="460"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="149"/>
-        <item x="113"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="237"/>
-        <item x="58"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="148"/>
-        <item x="309"/>
-        <item x="363"/>
-        <item x="97"/>
-        <item x="48"/>
-        <item x="421"/>
-        <item x="76"/>
-        <item x="364"/>
-        <item x="81"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="450"/>
-        <item x="262"/>
-        <item x="235"/>
-        <item x="122"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="178"/>
-        <item x="353"/>
-        <item x="356"/>
-        <item x="330"/>
-        <item x="419"/>
-        <item x="365"/>
-        <item x="205"/>
-        <item x="279"/>
-        <item x="60"/>
-        <item x="381"/>
-        <item x="275"/>
-        <item x="368"/>
-        <item x="175"/>
-        <item x="197"/>
-        <item x="75"/>
-        <item x="95"/>
-        <item x="273"/>
-        <item x="352"/>
-        <item x="447"/>
-        <item x="325"/>
-        <item x="8"/>
-        <item x="196"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="370"/>
-        <item x="49"/>
-        <item x="316"/>
-        <item x="62"/>
-        <item x="159"/>
-        <item x="471"/>
-        <item x="207"/>
-        <item x="403"/>
-        <item x="371"/>
-        <item x="293"/>
-        <item x="433"/>
-        <item x="257"/>
-        <item x="271"/>
-        <item x="326"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="378"/>
-        <item x="110"/>
-        <item x="152"/>
-        <item x="397"/>
-        <item x="50"/>
-        <item x="477"/>
-        <item x="466"/>
-        <item x="396"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="231"/>
-        <item x="347"/>
-        <item x="375"/>
-        <item x="310"/>
-        <item x="65"/>
-        <item x="10"/>
-        <item x="294"/>
-        <item x="369"/>
-        <item x="191"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="106"/>
-        <item x="226"/>
-        <item x="391"/>
-        <item x="22"/>
-        <item x="108"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="432"/>
-        <item x="354"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="114"/>
-        <item x="74"/>
-        <item x="423"/>
-        <item x="109"/>
-        <item x="395"/>
-        <item x="71"/>
-        <item x="349"/>
-        <item x="415"/>
-        <item x="51"/>
-        <item x="141"/>
-        <item x="404"/>
-        <item x="119"/>
-        <item x="405"/>
-        <item x="374"/>
-        <item x="297"/>
-        <item x="265"/>
-        <item x="177"/>
-        <item x="42"/>
-        <item x="449"/>
-        <item x="176"/>
-        <item x="23"/>
-        <item x="228"/>
-        <item x="373"/>
-        <item x="313"/>
-        <item x="420"/>
-        <item x="61"/>
-        <item x="458"/>
-        <item x="223"/>
-        <item x="436"/>
-        <item x="154"/>
-        <item x="346"/>
-        <item x="212"/>
-        <item x="168"/>
-        <item x="462"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="409"/>
-        <item x="17"/>
-        <item x="203"/>
-        <item x="214"/>
-        <item x="306"/>
-        <item x="173"/>
-        <item x="67"/>
-        <item x="464"/>
-        <item x="459"/>
-        <item x="232"/>
-        <item x="267"/>
-        <item x="362"/>
-        <item x="88"/>
-        <item x="183"/>
-        <item x="412"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="222"/>
-        <item x="284"/>
-        <item x="377"/>
-        <item x="54"/>
-        <item x="64"/>
-        <item x="307"/>
-        <item x="90"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="204"/>
-        <item x="406"/>
-        <item x="34"/>
-        <item x="158"/>
-        <item x="476"/>
-        <item x="26"/>
-        <item x="448"/>
-        <item x="430"/>
-        <item x="281"/>
-        <item x="337"/>
-        <item x="72"/>
-        <item x="161"/>
-        <item x="382"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="348"/>
-        <item x="4"/>
-        <item x="407"/>
-        <item x="312"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="304"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="69"/>
-        <item x="268"/>
-        <item x="332"/>
-        <item x="399"/>
-        <item x="145"/>
-        <item x="156"/>
-        <item x="385"/>
-        <item x="410"/>
-        <item x="470"/>
-        <item x="276"/>
-        <item x="213"/>
-        <item x="117"/>
-        <item x="253"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="125"/>
-        <item x="86"/>
-        <item x="386"/>
-        <item x="179"/>
-        <item x="19"/>
-        <item x="472"/>
-        <item x="336"/>
-        <item x="233"/>
-        <item x="248"/>
-        <item x="328"/>
-        <item x="318"/>
-        <item x="417"/>
-        <item x="116"/>
-        <item x="227"/>
-        <item x="334"/>
-        <item x="434"/>
-        <item x="263"/>
-        <item x="181"/>
-        <item x="473"/>
-        <item x="9"/>
-        <item x="163"/>
-        <item x="142"/>
-        <item x="425"/>
-        <item x="416"/>
-        <item x="37"/>
-        <item x="259"/>
-        <item x="193"/>
-        <item x="308"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="252"/>
-        <item x="402"/>
-        <item x="211"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="155"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="311"/>
-        <item x="138"/>
-        <item x="269"/>
-        <item x="171"/>
-        <item x="270"/>
-        <item x="83"/>
-        <item x="431"/>
-        <item x="135"/>
-        <item x="41"/>
-        <item x="439"/>
-        <item x="400"/>
-        <item x="219"/>
-        <item x="208"/>
-        <item x="221"/>
-        <item x="341"/>
-        <item x="469"/>
-        <item x="92"/>
-        <item x="437"/>
-        <item x="27"/>
-        <item x="320"/>
-        <item x="244"/>
-        <item x="305"/>
-        <item x="392"/>
-        <item x="153"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="217"/>
-        <item x="157"/>
-        <item x="102"/>
-        <item x="220"/>
-        <item x="388"/>
-        <item x="414"/>
-        <item x="298"/>
-        <item x="124"/>
-        <item x="16"/>
-        <item x="355"/>
-        <item x="266"/>
-        <item x="435"/>
-        <item x="187"/>
-        <item x="340"/>
-        <item x="343"/>
-        <item x="165"/>
-        <item x="73"/>
-        <item x="443"/>
-        <item x="380"/>
-        <item x="333"/>
-        <item x="277"/>
-        <item x="225"/>
-        <item x="376"/>
-        <item x="133"/>
-        <item x="350"/>
-        <item x="131"/>
-        <item x="150"/>
-        <item x="302"/>
-        <item x="457"/>
-        <item x="411"/>
-        <item x="451"/>
-        <item x="295"/>
-        <item x="134"/>
-        <item x="128"/>
-        <item x="455"/>
-        <item x="63"/>
-        <item x="215"/>
-        <item x="360"/>
-        <item x="32"/>
-        <item x="299"/>
-        <item x="272"/>
-        <item x="198"/>
-        <item x="180"/>
-        <item x="0"/>
-        <item x="98"/>
-        <item x="315"/>
-        <item x="47"/>
-        <item x="160"/>
-        <item x="53"/>
-        <item x="241"/>
-        <item x="143"/>
-        <item x="475"/>
-        <item x="456"/>
-        <item x="21"/>
-        <item x="323"/>
-        <item x="260"/>
-        <item x="18"/>
-        <item x="256"/>
-        <item x="301"/>
-        <item x="327"/>
-        <item x="342"/>
-        <item x="251"/>
-        <item x="194"/>
-        <item x="440"/>
-        <item x="286"/>
-        <item x="249"/>
-        <item x="103"/>
-        <item x="137"/>
-        <item x="314"/>
-        <item x="452"/>
-        <item x="258"/>
-        <item x="218"/>
-        <item x="55"/>
-        <item x="206"/>
-        <item x="28"/>
-        <item x="319"/>
-        <item x="474"/>
-        <item x="31"/>
-        <item x="280"/>
-        <item x="89"/>
-        <item x="200"/>
-        <item x="100"/>
-        <item x="290"/>
-        <item x="322"/>
-        <item x="422"/>
-        <item x="329"/>
-        <item x="112"/>
-        <item x="104"/>
-        <item x="192"/>
-        <item x="418"/>
-        <item x="29"/>
-        <item x="261"/>
-        <item x="147"/>
-        <item x="361"/>
-        <item x="338"/>
-        <item x="463"/>
-        <item x="85"/>
-        <item x="324"/>
-        <item x="468"/>
-        <item x="394"/>
-        <item x="288"/>
-        <item x="127"/>
-        <item x="379"/>
-        <item x="358"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="144"/>
-        <item x="291"/>
-        <item x="408"/>
-        <item x="426"/>
-        <item x="39"/>
-        <item x="129"/>
-        <item x="441"/>
-        <item x="236"/>
-        <item x="444"/>
-        <item x="120"/>
-        <item x="250"/>
-        <item x="167"/>
-        <item x="30"/>
-        <item x="292"/>
-        <item x="344"/>
-        <item x="289"/>
-        <item x="91"/>
-        <item x="461"/>
-        <item x="118"/>
-        <item x="413"/>
-        <item x="1"/>
-        <item x="372"/>
-        <item x="3"/>
-        <item x="254"/>
-        <item x="428"/>
-        <item x="366"/>
-        <item x="209"/>
-        <item x="146"/>
-        <item x="238"/>
-        <item x="199"/>
-        <item x="453"/>
-        <item x="234"/>
-        <item x="401"/>
-        <item x="465"/>
-        <item x="12"/>
-        <item x="383"/>
-        <item x="2"/>
-        <item x="429"/>
-        <item x="202"/>
-        <item x="185"/>
-        <item x="162"/>
-        <item x="454"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="317"/>
-        <item x="13"/>
-        <item x="438"/>
-        <item x="7"/>
-        <item x="174"/>
-        <item x="243"/>
-        <item x="424"/>
-        <item x="224"/>
-        <item x="130"/>
-        <item x="15"/>
-        <item x="296"/>
-        <item x="140"/>
-        <item x="367"/>
-        <item x="351"/>
-        <item x="390"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="245"/>
-        <item x="387"/>
-        <item x="357"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="384"/>
-        <item x="190"/>
-        <item x="44"/>
-        <item x="285"/>
-        <item x="264"/>
-        <item x="282"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="446"/>
-        <item x="57"/>
-        <item x="345"/>
-        <item x="445"/>
-        <item x="121"/>
-        <item x="164"/>
-        <item x="467"/>
-        <item x="247"/>
-        <item x="398"/>
-        <item x="40"/>
-        <item x="427"/>
-        <item x="132"/>
-        <item x="87"/>
-        <item x="188"/>
-        <item x="442"/>
-        <item x="283"/>
-        <item x="52"/>
-        <item x="242"/>
-        <item x="321"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="425">
-        <item x="115"/>
-        <item x="218"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="60"/>
-        <item x="120"/>
-        <item x="420"/>
-        <item x="283"/>
-        <item x="229"/>
-        <item x="349"/>
-        <item x="367"/>
-        <item x="262"/>
-        <item x="408"/>
-        <item x="174"/>
-        <item x="182"/>
-        <item x="157"/>
-        <item x="123"/>
-        <item x="339"/>
-        <item x="323"/>
-        <item x="348"/>
-        <item x="81"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="189"/>
-        <item x="79"/>
-        <item x="412"/>
-        <item x="121"/>
-        <item x="93"/>
-        <item x="240"/>
-        <item x="192"/>
-        <item x="152"/>
-        <item x="248"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="382"/>
-        <item x="119"/>
-        <item x="316"/>
-        <item x="241"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="354"/>
-        <item x="318"/>
-        <item x="221"/>
-        <item x="68"/>
-        <item x="122"/>
-        <item x="29"/>
-        <item x="279"/>
-        <item x="128"/>
-        <item x="387"/>
-        <item x="383"/>
-        <item x="254"/>
-        <item x="309"/>
-        <item x="61"/>
-        <item x="208"/>
-        <item x="14"/>
-        <item x="139"/>
-        <item x="90"/>
-        <item x="224"/>
-        <item x="87"/>
-        <item x="410"/>
-        <item x="326"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="260"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="308"/>
-        <item x="297"/>
-        <item x="280"/>
-        <item x="47"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="277"/>
-        <item x="204"/>
-        <item x="43"/>
-        <item x="340"/>
-        <item x="238"/>
-        <item x="236"/>
-        <item x="233"/>
-        <item x="415"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="210"/>
-        <item x="89"/>
-        <item x="220"/>
-        <item x="272"/>
-        <item x="358"/>
-        <item x="278"/>
-        <item x="312"/>
-        <item x="162"/>
-        <item x="356"/>
-        <item x="414"/>
-        <item x="291"/>
-        <item x="216"/>
-        <item x="259"/>
-        <item x="154"/>
-        <item x="411"/>
-        <item x="393"/>
-        <item x="376"/>
-        <item x="392"/>
-        <item x="206"/>
-        <item x="202"/>
-        <item x="289"/>
-        <item x="19"/>
-        <item x="187"/>
-        <item x="144"/>
-        <item x="166"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="126"/>
-        <item x="178"/>
-        <item x="136"/>
-        <item x="186"/>
-        <item x="228"/>
-        <item x="372"/>
-        <item x="285"/>
-        <item x="132"/>
-        <item x="257"/>
-        <item x="268"/>
-        <item x="86"/>
-        <item x="62"/>
-        <item x="269"/>
-        <item x="321"/>
-        <item x="421"/>
-        <item x="293"/>
-        <item x="222"/>
-        <item x="183"/>
-        <item x="394"/>
-        <item x="351"/>
-        <item x="205"/>
-        <item x="129"/>
-        <item x="50"/>
-        <item x="313"/>
-        <item x="51"/>
-        <item x="26"/>
-        <item x="401"/>
-        <item x="320"/>
-        <item x="373"/>
-        <item x="98"/>
-        <item x="250"/>
-        <item x="379"/>
-        <item x="225"/>
-        <item x="399"/>
-        <item x="247"/>
-        <item x="117"/>
-        <item x="140"/>
-        <item x="232"/>
-        <item x="300"/>
-        <item x="37"/>
-        <item x="418"/>
-        <item x="127"/>
-        <item x="389"/>
-        <item x="153"/>
-        <item x="355"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="381"/>
-        <item x="361"/>
-        <item x="112"/>
-        <item x="357"/>
-        <item x="1"/>
-        <item x="110"/>
-        <item x="230"/>
-        <item x="295"/>
-        <item x="32"/>
-        <item x="341"/>
-        <item x="103"/>
-        <item x="267"/>
-        <item x="244"/>
-        <item x="405"/>
-        <item x="395"/>
-        <item x="397"/>
-        <item x="281"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="171"/>
-        <item x="298"/>
-        <item x="213"/>
-        <item x="374"/>
-        <item x="131"/>
-        <item x="252"/>
-        <item x="345"/>
-        <item x="275"/>
-        <item x="85"/>
-        <item x="49"/>
-        <item x="179"/>
-        <item x="343"/>
-        <item x="124"/>
-        <item x="338"/>
-        <item x="100"/>
-        <item x="311"/>
-        <item x="40"/>
-        <item x="334"/>
-        <item x="168"/>
-        <item x="353"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="365"/>
-        <item x="380"/>
-        <item x="366"/>
-        <item x="167"/>
-        <item x="194"/>
-        <item x="163"/>
-        <item x="109"/>
-        <item x="67"/>
-        <item x="95"/>
-        <item x="165"/>
-        <item x="256"/>
-        <item x="7"/>
-        <item x="102"/>
-        <item x="282"/>
-        <item x="190"/>
-        <item x="402"/>
-        <item x="317"/>
-        <item x="106"/>
-        <item x="42"/>
-        <item x="352"/>
-        <item x="276"/>
-        <item x="198"/>
-        <item x="336"/>
-        <item x="84"/>
-        <item x="407"/>
-        <item x="290"/>
-        <item x="223"/>
-        <item x="99"/>
-        <item x="274"/>
-        <item x="310"/>
-        <item x="196"/>
-        <item x="104"/>
-        <item x="22"/>
-        <item x="385"/>
-        <item x="423"/>
-        <item x="125"/>
-        <item x="416"/>
-        <item x="82"/>
-        <item x="145"/>
-        <item x="135"/>
-        <item x="294"/>
-        <item x="384"/>
-        <item x="342"/>
-        <item x="246"/>
-        <item x="164"/>
-        <item x="54"/>
-        <item x="391"/>
-        <item x="148"/>
-        <item x="377"/>
-        <item x="400"/>
-        <item x="368"/>
-        <item x="288"/>
-        <item x="35"/>
-        <item x="333"/>
-        <item x="329"/>
-        <item x="344"/>
-        <item x="328"/>
-        <item x="172"/>
-        <item x="48"/>
-        <item x="331"/>
-        <item x="363"/>
-        <item x="161"/>
-        <item x="378"/>
-        <item x="20"/>
-        <item x="74"/>
-        <item x="71"/>
-        <item x="413"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="77"/>
-        <item x="245"/>
-        <item x="97"/>
-        <item x="292"/>
-        <item x="388"/>
-        <item x="350"/>
-        <item x="370"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="107"/>
-        <item x="197"/>
-        <item x="386"/>
-        <item x="396"/>
-        <item x="80"/>
-        <item x="324"/>
-        <item x="243"/>
-        <item x="299"/>
-        <item x="5"/>
-        <item x="419"/>
-        <item x="417"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="404"/>
-        <item x="239"/>
-        <item x="273"/>
-        <item x="134"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="302"/>
-        <item x="73"/>
-        <item x="270"/>
-        <item x="88"/>
-        <item x="18"/>
-        <item x="200"/>
-        <item x="185"/>
-        <item x="108"/>
-        <item x="151"/>
-        <item x="346"/>
-        <item x="92"/>
-        <item x="271"/>
-        <item x="173"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="219"/>
-        <item x="304"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="266"/>
-        <item x="364"/>
-        <item x="25"/>
-        <item x="258"/>
-        <item x="314"/>
-        <item x="403"/>
-        <item x="332"/>
-        <item x="337"/>
-        <item x="235"/>
-        <item x="65"/>
-        <item x="369"/>
-        <item x="91"/>
-        <item x="284"/>
-        <item x="143"/>
-        <item x="160"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="8"/>
-        <item x="226"/>
-        <item x="215"/>
-        <item x="249"/>
-        <item x="6"/>
-        <item x="319"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="375"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="231"/>
-        <item x="359"/>
-        <item x="44"/>
-        <item x="362"/>
-        <item x="45"/>
-        <item x="181"/>
-        <item x="133"/>
-        <item x="255"/>
-        <item x="264"/>
-        <item x="390"/>
-        <item x="176"/>
-        <item x="406"/>
-        <item x="199"/>
-        <item x="201"/>
-        <item x="347"/>
-        <item x="111"/>
-        <item x="214"/>
-        <item x="211"/>
-        <item x="193"/>
-        <item x="147"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="327"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="76"/>
-        <item x="149"/>
-        <item x="195"/>
-        <item x="306"/>
-        <item x="217"/>
-        <item x="263"/>
-        <item x="137"/>
-        <item x="286"/>
-        <item x="33"/>
-        <item x="207"/>
-        <item x="184"/>
-        <item x="118"/>
-        <item x="330"/>
-        <item x="315"/>
-        <item x="253"/>
-        <item x="237"/>
-        <item x="398"/>
-        <item x="36"/>
-        <item x="325"/>
-        <item x="305"/>
-        <item x="38"/>
-        <item x="46"/>
-        <item x="142"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="27"/>
-        <item x="360"/>
-        <item x="212"/>
-        <item x="64"/>
-        <item x="261"/>
-        <item x="265"/>
-        <item x="287"/>
-        <item x="59"/>
-        <item x="422"/>
-        <item x="301"/>
-        <item x="322"/>
-        <item x="75"/>
-        <item x="146"/>
-        <item x="296"/>
-        <item x="409"/>
-        <item x="150"/>
-        <item x="242"/>
-        <item x="114"/>
-        <item x="191"/>
-        <item x="371"/>
-        <item x="169"/>
-        <item x="83"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
+        <item h="1" x="1"/>
         <item h="1" x="0"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Average_Size(cm)" fld="5" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453BCABE-285E-4317-A9E8-F4D8EAEF6939}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Region" colHeaderCaption="pollution">
-  <location ref="S5:U8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -15997,8 +15099,8 @@
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="4">
         <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16008,7 +15110,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="3"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -16017,9 +15119,15 @@
   <colFields count="1">
     <field x="8"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -16028,7 +15136,7 @@
   <dataFields count="1">
     <dataField name="Nombre de Water_Pollution_Level" fld="8" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="19" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -16080,6 +15188,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="19" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -16093,29 +15210,29 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F50AC2A-A4D9-4E89-B36A-6E1EDB010CCA}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="breeding" colHeaderCaption="species">
-  <location ref="M5:Q15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="M5:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="9">
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -16129,8 +15246,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -17056,8 +16173,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -17066,30 +16183,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -17115,7 +16211,7 @@
   <dataFields count="1">
     <dataField name="Nombre de Species_Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="16" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -17152,6 +16248,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="16" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -17165,29 +16270,29 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{400B5A10-9DCA-4044-B460-84AF54F1464A}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Pollution">
-  <location ref="H5:K8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="9">
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17201,8 +16306,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -18128,8 +17233,8 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -18138,7 +17243,13 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -18163,7 +17274,7 @@
   <dataFields count="1">
     <dataField name="Nombre de Overfishing_Risk" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="9" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -18212,6 +17323,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="12" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -18225,29 +17345,29 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35434A93-E946-4D88-96D0-150860630915}" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Overfishing">
   <location ref="E5:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="9">
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item x="4"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item h="1" x="3"/>
+        <item x="3"/>
         <item h="1" x="2"/>
         <item h="1" x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18261,8 +17381,8 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -19189,9 +18309,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19263,6 +18383,1011 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08DFE286-359C-4373-955E-AB5C3F6E86D7}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="species">
+  <location ref="B5:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="479">
+        <item x="184"/>
+        <item x="274"/>
+        <item x="246"/>
+        <item x="230"/>
+        <item x="339"/>
+        <item x="96"/>
+        <item x="240"/>
+        <item x="115"/>
+        <item x="359"/>
+        <item x="201"/>
+        <item x="170"/>
+        <item x="70"/>
+        <item x="389"/>
+        <item x="393"/>
+        <item x="460"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="149"/>
+        <item x="113"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="237"/>
+        <item x="58"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="148"/>
+        <item x="309"/>
+        <item x="363"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="421"/>
+        <item x="76"/>
+        <item x="364"/>
+        <item x="81"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="235"/>
+        <item x="122"/>
+        <item x="210"/>
+        <item x="136"/>
+        <item x="178"/>
+        <item x="353"/>
+        <item x="356"/>
+        <item x="330"/>
+        <item x="419"/>
+        <item x="365"/>
+        <item x="205"/>
+        <item x="279"/>
+        <item x="60"/>
+        <item x="381"/>
+        <item x="275"/>
+        <item x="368"/>
+        <item x="175"/>
+        <item x="197"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="273"/>
+        <item x="352"/>
+        <item x="447"/>
+        <item x="325"/>
+        <item x="8"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="370"/>
+        <item x="49"/>
+        <item x="316"/>
+        <item x="62"/>
+        <item x="159"/>
+        <item x="471"/>
+        <item x="207"/>
+        <item x="403"/>
+        <item x="371"/>
+        <item x="293"/>
+        <item x="433"/>
+        <item x="257"/>
+        <item x="271"/>
+        <item x="326"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="378"/>
+        <item x="110"/>
+        <item x="152"/>
+        <item x="397"/>
+        <item x="50"/>
+        <item x="477"/>
+        <item x="466"/>
+        <item x="396"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="231"/>
+        <item x="347"/>
+        <item x="375"/>
+        <item x="310"/>
+        <item x="65"/>
+        <item x="10"/>
+        <item x="294"/>
+        <item x="369"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="106"/>
+        <item x="226"/>
+        <item x="391"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="432"/>
+        <item x="354"/>
+        <item x="68"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="423"/>
+        <item x="109"/>
+        <item x="395"/>
+        <item x="71"/>
+        <item x="349"/>
+        <item x="415"/>
+        <item x="51"/>
+        <item x="141"/>
+        <item x="404"/>
+        <item x="119"/>
+        <item x="405"/>
+        <item x="374"/>
+        <item x="297"/>
+        <item x="265"/>
+        <item x="177"/>
+        <item x="42"/>
+        <item x="449"/>
+        <item x="176"/>
+        <item x="23"/>
+        <item x="228"/>
+        <item x="373"/>
+        <item x="313"/>
+        <item x="420"/>
+        <item x="61"/>
+        <item x="458"/>
+        <item x="223"/>
+        <item x="436"/>
+        <item x="154"/>
+        <item x="346"/>
+        <item x="212"/>
+        <item x="168"/>
+        <item x="462"/>
+        <item x="151"/>
+        <item x="169"/>
+        <item x="409"/>
+        <item x="17"/>
+        <item x="203"/>
+        <item x="214"/>
+        <item x="306"/>
+        <item x="173"/>
+        <item x="67"/>
+        <item x="464"/>
+        <item x="459"/>
+        <item x="232"/>
+        <item x="267"/>
+        <item x="362"/>
+        <item x="88"/>
+        <item x="183"/>
+        <item x="412"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="222"/>
+        <item x="284"/>
+        <item x="377"/>
+        <item x="54"/>
+        <item x="64"/>
+        <item x="307"/>
+        <item x="90"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="204"/>
+        <item x="406"/>
+        <item x="34"/>
+        <item x="158"/>
+        <item x="476"/>
+        <item x="26"/>
+        <item x="448"/>
+        <item x="430"/>
+        <item x="281"/>
+        <item x="337"/>
+        <item x="72"/>
+        <item x="161"/>
+        <item x="382"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="348"/>
+        <item x="4"/>
+        <item x="407"/>
+        <item x="312"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="304"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="69"/>
+        <item x="268"/>
+        <item x="332"/>
+        <item x="399"/>
+        <item x="145"/>
+        <item x="156"/>
+        <item x="385"/>
+        <item x="410"/>
+        <item x="470"/>
+        <item x="276"/>
+        <item x="213"/>
+        <item x="117"/>
+        <item x="253"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="386"/>
+        <item x="179"/>
+        <item x="19"/>
+        <item x="472"/>
+        <item x="336"/>
+        <item x="233"/>
+        <item x="248"/>
+        <item x="328"/>
+        <item x="318"/>
+        <item x="417"/>
+        <item x="116"/>
+        <item x="227"/>
+        <item x="334"/>
+        <item x="434"/>
+        <item x="263"/>
+        <item x="181"/>
+        <item x="473"/>
+        <item x="9"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="425"/>
+        <item x="416"/>
+        <item x="37"/>
+        <item x="259"/>
+        <item x="193"/>
+        <item x="308"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="252"/>
+        <item x="402"/>
+        <item x="211"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="155"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="311"/>
+        <item x="138"/>
+        <item x="269"/>
+        <item x="171"/>
+        <item x="270"/>
+        <item x="83"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="41"/>
+        <item x="439"/>
+        <item x="400"/>
+        <item x="219"/>
+        <item x="208"/>
+        <item x="221"/>
+        <item x="341"/>
+        <item x="469"/>
+        <item x="92"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="320"/>
+        <item x="244"/>
+        <item x="305"/>
+        <item x="392"/>
+        <item x="153"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="217"/>
+        <item x="157"/>
+        <item x="102"/>
+        <item x="220"/>
+        <item x="388"/>
+        <item x="414"/>
+        <item x="298"/>
+        <item x="124"/>
+        <item x="16"/>
+        <item x="355"/>
+        <item x="266"/>
+        <item x="435"/>
+        <item x="187"/>
+        <item x="340"/>
+        <item x="343"/>
+        <item x="165"/>
+        <item x="73"/>
+        <item x="443"/>
+        <item x="380"/>
+        <item x="333"/>
+        <item x="277"/>
+        <item x="225"/>
+        <item x="376"/>
+        <item x="133"/>
+        <item x="350"/>
+        <item x="131"/>
+        <item x="150"/>
+        <item x="302"/>
+        <item x="457"/>
+        <item x="411"/>
+        <item x="451"/>
+        <item x="295"/>
+        <item x="134"/>
+        <item x="128"/>
+        <item x="455"/>
+        <item x="63"/>
+        <item x="215"/>
+        <item x="360"/>
+        <item x="32"/>
+        <item x="299"/>
+        <item x="272"/>
+        <item x="198"/>
+        <item x="180"/>
+        <item x="0"/>
+        <item x="98"/>
+        <item x="315"/>
+        <item x="47"/>
+        <item x="160"/>
+        <item x="53"/>
+        <item x="241"/>
+        <item x="143"/>
+        <item x="475"/>
+        <item x="456"/>
+        <item x="21"/>
+        <item x="323"/>
+        <item x="260"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="301"/>
+        <item x="327"/>
+        <item x="342"/>
+        <item x="251"/>
+        <item x="194"/>
+        <item x="440"/>
+        <item x="286"/>
+        <item x="249"/>
+        <item x="103"/>
+        <item x="137"/>
+        <item x="314"/>
+        <item x="452"/>
+        <item x="258"/>
+        <item x="218"/>
+        <item x="55"/>
+        <item x="206"/>
+        <item x="28"/>
+        <item x="319"/>
+        <item x="474"/>
+        <item x="31"/>
+        <item x="280"/>
+        <item x="89"/>
+        <item x="200"/>
+        <item x="100"/>
+        <item x="290"/>
+        <item x="322"/>
+        <item x="422"/>
+        <item x="329"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="192"/>
+        <item x="418"/>
+        <item x="29"/>
+        <item x="261"/>
+        <item x="147"/>
+        <item x="361"/>
+        <item x="338"/>
+        <item x="463"/>
+        <item x="85"/>
+        <item x="324"/>
+        <item x="468"/>
+        <item x="394"/>
+        <item x="288"/>
+        <item x="127"/>
+        <item x="379"/>
+        <item x="358"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="144"/>
+        <item x="291"/>
+        <item x="408"/>
+        <item x="426"/>
+        <item x="39"/>
+        <item x="129"/>
+        <item x="441"/>
+        <item x="236"/>
+        <item x="444"/>
+        <item x="120"/>
+        <item x="250"/>
+        <item x="167"/>
+        <item x="30"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="289"/>
+        <item x="91"/>
+        <item x="461"/>
+        <item x="118"/>
+        <item x="413"/>
+        <item x="1"/>
+        <item x="372"/>
+        <item x="3"/>
+        <item x="254"/>
+        <item x="428"/>
+        <item x="366"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="238"/>
+        <item x="199"/>
+        <item x="453"/>
+        <item x="234"/>
+        <item x="401"/>
+        <item x="465"/>
+        <item x="12"/>
+        <item x="383"/>
+        <item x="2"/>
+        <item x="429"/>
+        <item x="202"/>
+        <item x="185"/>
+        <item x="162"/>
+        <item x="454"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="317"/>
+        <item x="13"/>
+        <item x="438"/>
+        <item x="7"/>
+        <item x="174"/>
+        <item x="243"/>
+        <item x="424"/>
+        <item x="224"/>
+        <item x="130"/>
+        <item x="15"/>
+        <item x="296"/>
+        <item x="140"/>
+        <item x="367"/>
+        <item x="351"/>
+        <item x="390"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="245"/>
+        <item x="387"/>
+        <item x="357"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="384"/>
+        <item x="190"/>
+        <item x="44"/>
+        <item x="285"/>
+        <item x="264"/>
+        <item x="282"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="446"/>
+        <item x="57"/>
+        <item x="345"/>
+        <item x="445"/>
+        <item x="121"/>
+        <item x="164"/>
+        <item x="467"/>
+        <item x="247"/>
+        <item x="398"/>
+        <item x="40"/>
+        <item x="427"/>
+        <item x="132"/>
+        <item x="87"/>
+        <item x="188"/>
+        <item x="442"/>
+        <item x="283"/>
+        <item x="52"/>
+        <item x="242"/>
+        <item x="321"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="425">
+        <item x="115"/>
+        <item x="218"/>
+        <item x="58"/>
+        <item x="130"/>
+        <item x="60"/>
+        <item x="120"/>
+        <item x="420"/>
+        <item x="283"/>
+        <item x="229"/>
+        <item x="349"/>
+        <item x="367"/>
+        <item x="262"/>
+        <item x="408"/>
+        <item x="174"/>
+        <item x="182"/>
+        <item x="157"/>
+        <item x="123"/>
+        <item x="339"/>
+        <item x="323"/>
+        <item x="348"/>
+        <item x="81"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="189"/>
+        <item x="79"/>
+        <item x="412"/>
+        <item x="121"/>
+        <item x="93"/>
+        <item x="240"/>
+        <item x="192"/>
+        <item x="152"/>
+        <item x="248"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="382"/>
+        <item x="119"/>
+        <item x="316"/>
+        <item x="241"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="354"/>
+        <item x="318"/>
+        <item x="221"/>
+        <item x="68"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="279"/>
+        <item x="128"/>
+        <item x="387"/>
+        <item x="383"/>
+        <item x="254"/>
+        <item x="309"/>
+        <item x="61"/>
+        <item x="208"/>
+        <item x="14"/>
+        <item x="139"/>
+        <item x="90"/>
+        <item x="224"/>
+        <item x="87"/>
+        <item x="410"/>
+        <item x="326"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="260"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="308"/>
+        <item x="297"/>
+        <item x="280"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="277"/>
+        <item x="204"/>
+        <item x="43"/>
+        <item x="340"/>
+        <item x="238"/>
+        <item x="236"/>
+        <item x="233"/>
+        <item x="415"/>
+        <item x="28"/>
+        <item x="116"/>
+        <item x="210"/>
+        <item x="89"/>
+        <item x="220"/>
+        <item x="272"/>
+        <item x="358"/>
+        <item x="278"/>
+        <item x="312"/>
+        <item x="162"/>
+        <item x="356"/>
+        <item x="414"/>
+        <item x="291"/>
+        <item x="216"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="411"/>
+        <item x="393"/>
+        <item x="376"/>
+        <item x="392"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="289"/>
+        <item x="19"/>
+        <item x="187"/>
+        <item x="144"/>
+        <item x="166"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="126"/>
+        <item x="178"/>
+        <item x="136"/>
+        <item x="186"/>
+        <item x="228"/>
+        <item x="372"/>
+        <item x="285"/>
+        <item x="132"/>
+        <item x="257"/>
+        <item x="268"/>
+        <item x="86"/>
+        <item x="62"/>
+        <item x="269"/>
+        <item x="321"/>
+        <item x="421"/>
+        <item x="293"/>
+        <item x="222"/>
+        <item x="183"/>
+        <item x="394"/>
+        <item x="351"/>
+        <item x="205"/>
+        <item x="129"/>
+        <item x="50"/>
+        <item x="313"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="401"/>
+        <item x="320"/>
+        <item x="373"/>
+        <item x="98"/>
+        <item x="250"/>
+        <item x="379"/>
+        <item x="225"/>
+        <item x="399"/>
+        <item x="247"/>
+        <item x="117"/>
+        <item x="140"/>
+        <item x="232"/>
+        <item x="300"/>
+        <item x="37"/>
+        <item x="418"/>
+        <item x="127"/>
+        <item x="389"/>
+        <item x="153"/>
+        <item x="355"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="381"/>
+        <item x="361"/>
+        <item x="112"/>
+        <item x="357"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="230"/>
+        <item x="295"/>
+        <item x="32"/>
+        <item x="341"/>
+        <item x="103"/>
+        <item x="267"/>
+        <item x="244"/>
+        <item x="405"/>
+        <item x="395"/>
+        <item x="397"/>
+        <item x="281"/>
+        <item x="94"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="171"/>
+        <item x="298"/>
+        <item x="213"/>
+        <item x="374"/>
+        <item x="131"/>
+        <item x="252"/>
+        <item x="345"/>
+        <item x="275"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="179"/>
+        <item x="343"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="100"/>
+        <item x="311"/>
+        <item x="40"/>
+        <item x="334"/>
+        <item x="168"/>
+        <item x="353"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="365"/>
+        <item x="380"/>
+        <item x="366"/>
+        <item x="167"/>
+        <item x="194"/>
+        <item x="163"/>
+        <item x="109"/>
+        <item x="67"/>
+        <item x="95"/>
+        <item x="165"/>
+        <item x="256"/>
+        <item x="7"/>
+        <item x="102"/>
+        <item x="282"/>
+        <item x="190"/>
+        <item x="402"/>
+        <item x="317"/>
+        <item x="106"/>
+        <item x="42"/>
+        <item x="352"/>
+        <item x="276"/>
+        <item x="198"/>
+        <item x="336"/>
+        <item x="84"/>
+        <item x="407"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="310"/>
+        <item x="196"/>
+        <item x="104"/>
+        <item x="22"/>
+        <item x="385"/>
+        <item x="423"/>
+        <item x="125"/>
+        <item x="416"/>
+        <item x="82"/>
+        <item x="145"/>
+        <item x="135"/>
+        <item x="294"/>
+        <item x="384"/>
+        <item x="342"/>
+        <item x="246"/>
+        <item x="164"/>
+        <item x="54"/>
+        <item x="391"/>
+        <item x="148"/>
+        <item x="377"/>
+        <item x="400"/>
+        <item x="368"/>
+        <item x="288"/>
+        <item x="35"/>
+        <item x="333"/>
+        <item x="329"/>
+        <item x="344"/>
+        <item x="328"/>
+        <item x="172"/>
+        <item x="48"/>
+        <item x="331"/>
+        <item x="363"/>
+        <item x="161"/>
+        <item x="378"/>
+        <item x="20"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="413"/>
+        <item x="96"/>
+        <item x="0"/>
+        <item x="77"/>
+        <item x="245"/>
+        <item x="97"/>
+        <item x="292"/>
+        <item x="388"/>
+        <item x="350"/>
+        <item x="370"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="107"/>
+        <item x="197"/>
+        <item x="386"/>
+        <item x="396"/>
+        <item x="80"/>
+        <item x="324"/>
+        <item x="243"/>
+        <item x="299"/>
+        <item x="5"/>
+        <item x="419"/>
+        <item x="417"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="404"/>
+        <item x="239"/>
+        <item x="273"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="302"/>
+        <item x="73"/>
+        <item x="270"/>
+        <item x="88"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="185"/>
+        <item x="108"/>
+        <item x="151"/>
+        <item x="346"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="173"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="219"/>
+        <item x="304"/>
+        <item x="70"/>
+        <item x="72"/>
+        <item x="266"/>
+        <item x="364"/>
+        <item x="25"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="403"/>
+        <item x="332"/>
+        <item x="337"/>
+        <item x="235"/>
+        <item x="65"/>
+        <item x="369"/>
+        <item x="91"/>
+        <item x="284"/>
+        <item x="143"/>
+        <item x="160"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="8"/>
+        <item x="226"/>
+        <item x="215"/>
+        <item x="249"/>
+        <item x="6"/>
+        <item x="319"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="375"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="231"/>
+        <item x="359"/>
+        <item x="44"/>
+        <item x="362"/>
+        <item x="45"/>
+        <item x="181"/>
+        <item x="133"/>
+        <item x="255"/>
+        <item x="264"/>
+        <item x="390"/>
+        <item x="176"/>
+        <item x="406"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="347"/>
+        <item x="111"/>
+        <item x="214"/>
+        <item x="211"/>
+        <item x="193"/>
+        <item x="147"/>
+        <item x="101"/>
+        <item x="175"/>
+        <item x="327"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="76"/>
+        <item x="149"/>
+        <item x="195"/>
+        <item x="306"/>
+        <item x="217"/>
+        <item x="263"/>
+        <item x="137"/>
+        <item x="286"/>
+        <item x="33"/>
+        <item x="207"/>
+        <item x="184"/>
+        <item x="118"/>
+        <item x="330"/>
+        <item x="315"/>
+        <item x="253"/>
+        <item x="237"/>
+        <item x="398"/>
+        <item x="36"/>
+        <item x="325"/>
+        <item x="305"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="69"/>
+        <item x="27"/>
+        <item x="360"/>
+        <item x="212"/>
+        <item x="64"/>
+        <item x="261"/>
+        <item x="265"/>
+        <item x="287"/>
+        <item x="59"/>
+        <item x="422"/>
+        <item x="301"/>
+        <item x="322"/>
+        <item x="75"/>
+        <item x="146"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="150"/>
+        <item x="242"/>
+        <item x="114"/>
+        <item x="191"/>
+        <item x="371"/>
+        <item x="169"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Moyenne de Average_Size(cm)" fld="5" subtotal="average" baseField="0" baseItem="5" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Segment_Species_Name" xr10:uid="{DB425433-3BFC-4BBA-BC96-7B8392E65BFB}" sourceName="Species_Name">
   <pivotTables>
@@ -19275,14 +19400,14 @@
   <data>
     <tabular pivotCacheId="2143251508">
       <items count="8">
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
+        <i x="2"/>
+        <i x="3"/>
         <i x="4" s="1"/>
-        <i x="0" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="5"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -19301,10 +19426,10 @@
   <data>
     <tabular pivotCacheId="2143251508">
       <items count="4">
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="2"/>
         <i x="0"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -19344,8 +19469,8 @@
   <data>
     <tabular pivotCacheId="2143251508">
       <items count="3">
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="0"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -19365,9 +19490,9 @@
   <data>
     <tabular pivotCacheId="2143251508">
       <items count="3">
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
-        <i x="1"/>
+        <i x="1" s="1"/>
       </items>
     </tabular>
   </data>
@@ -19724,8 +19849,8 @@
   </sheetPr>
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34283,17 +34408,17 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B5:U41"/>
+  <dimension ref="B5:W41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="43" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.6328125" customWidth="1"/>
     <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6328125" customWidth="1"/>
     <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.54296875" bestFit="1" customWidth="1"/>
@@ -34311,7 +34436,7 @@
     <col min="18" max="18" width="2.6328125" customWidth="1"/>
     <col min="19" max="19" width="29.1796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.6328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="29.1796875" bestFit="1" customWidth="1"/>
@@ -34427,15 +34552,15 @@
     <col min="500" max="500" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -34444,36 +34569,36 @@
         <v>33</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="12">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>61.911666666666662</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="12">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -34485,7 +34610,7 @@
         <v>32</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -34506,254 +34631,143 @@
         <v>25</v>
       </c>
       <c r="U6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="12">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="C7" s="13">
+        <v>61.911666666666662</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="12">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I7" s="12">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J7" s="12">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="K7" s="12">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N7" s="12">
+        <v>2</v>
+      </c>
+      <c r="O7" s="12">
         <v>1</v>
       </c>
-      <c r="O7" s="12">
+      <c r="P7" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>6</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="12">
+        <v>1</v>
+      </c>
+      <c r="U7" s="12">
+        <v>3</v>
+      </c>
+      <c r="V7" s="12">
         <v>2</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12">
-        <v>3</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="12">
-        <v>46</v>
-      </c>
-      <c r="U7" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2</v>
-      </c>
+      <c r="W7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="12">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
+        <v>3</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="12">
-        <v>18</v>
-      </c>
-      <c r="J8" s="12">
-        <v>28</v>
-      </c>
-      <c r="K8" s="12">
-        <v>46</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="N8" s="12">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12">
+        <v>1</v>
+      </c>
+      <c r="P8" s="12">
         <v>3</v>
       </c>
-      <c r="O8" s="12">
-        <v>3</v>
-      </c>
-      <c r="P8" s="12">
-        <v>1</v>
-      </c>
       <c r="Q8" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="T8" s="12">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="U8" s="12">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12">
-        <v>8</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="12">
+        <v>3</v>
+      </c>
+      <c r="V8" s="12">
         <v>2</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12">
+      <c r="W8" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12">
-        <v>8</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="12">
-        <v>2</v>
-      </c>
-      <c r="O10" s="12">
-        <v>5</v>
-      </c>
-      <c r="P10" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12">
-        <v>9</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="12">
-        <v>5</v>
-      </c>
-      <c r="O11" s="12">
-        <v>1</v>
-      </c>
-      <c r="P11" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="J10" s="12">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12">
         <v>6</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="12">
-        <v>5</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="12">
-        <v>3</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="12">
-        <v>2</v>
-      </c>
-      <c r="O13" s="12">
-        <v>3</v>
-      </c>
-      <c r="P13" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="12">
-        <v>46</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="12">
-        <v>2</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="M15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="12">
-        <v>22</v>
-      </c>
-      <c r="O15" s="12">
-        <v>15</v>
-      </c>
-      <c r="P15" s="12">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="19:21" x14ac:dyDescent="0.35">
@@ -34829,8 +34843,8 @@
   </sheetPr>
   <dimension ref="A1:BE161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="51" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34956,46 +34970,46 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="8">
         <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5,"Water_Pollution_Level","Low")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5),0)</f>
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="9">
         <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5,"Water_Pollution_Level","Medium")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5),0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O3" s="9">
         <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5,"Water_Pollution_Level","High")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5),0)</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S3" s="10">
         <f>AVERAGE(CALCULS!C6:C13)</f>
-        <v>5.75</v>
+        <v>61.911666666666662</v>
       </c>
       <c r="V3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="9">
+        <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$E$5,"Overfishing_Risk","Yes")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$E$5),0%)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="W3" s="9">
-        <f>GETPIVOTDATA("Overfishing_Risk",CALCULS!$E$5,"Overfishing_Risk","Yes")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$E$5)</f>
-        <v>0.60869565217391308</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="AA3" s="11">
         <f>GETPIVOTDATA("Species_Name",CALCULS!$M$5)</f>
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>

--- a/data_fishing.xlsx
+++ b/data_fishing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIBER\Desktop\Projects\Fishing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF618324-6969-487B-B407-5B3720346489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{873C1F33-BCD9-419C-A4D7-39C62C0777D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{FBF81EBF-3A87-4B26-B45B-0131BB65FD05}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -303,8 +303,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,7 +694,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mackerel</c:v>
+                  <c:v>Shark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -706,7 +706,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61.911666666666662</c:v>
+                  <c:v>58.42833333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,7 +2170,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2938,7 +2941,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mackerel</c:v>
+                  <c:v>Shark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2991,7 +2994,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mackerel</c:v>
+                  <c:v>Shark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3044,7 +3047,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mackerel</c:v>
+                  <c:v>Shark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,7 +3066,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-7DD6-4169-AB77-98095CAC7785}"/>
+              <c16:uniqueId val="{00000001-941C-474A-B47E-6B04FD0CDAB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4013,7 +4016,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,7 +4069,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4126,7 +4129,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-8980-42AA-9B48-5F99749BE7F4}"/>
+              <c16:uniqueId val="{00000003-7A0D-457D-AB5D-9457ADF0E3CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14136,17 +14139,4195 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453BCABE-285E-4317-A9E8-F4D8EAEF6939}" name="Tableau croisé dynamique7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Region" colHeaderCaption="pollution">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F50AC2A-A4D9-4E89-B36A-6E1EDB010CCA}" name="Tableau croisé dynamique6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="breeding" colHeaderCaption="species">
+  <location ref="M5:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="479">
+        <item x="184"/>
+        <item x="274"/>
+        <item x="246"/>
+        <item x="230"/>
+        <item x="339"/>
+        <item x="96"/>
+        <item x="240"/>
+        <item x="115"/>
+        <item x="359"/>
+        <item x="201"/>
+        <item x="170"/>
+        <item x="70"/>
+        <item x="389"/>
+        <item x="393"/>
+        <item x="460"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="149"/>
+        <item x="113"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="237"/>
+        <item x="58"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="148"/>
+        <item x="309"/>
+        <item x="363"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="421"/>
+        <item x="76"/>
+        <item x="364"/>
+        <item x="81"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="235"/>
+        <item x="122"/>
+        <item x="210"/>
+        <item x="136"/>
+        <item x="178"/>
+        <item x="353"/>
+        <item x="356"/>
+        <item x="330"/>
+        <item x="419"/>
+        <item x="365"/>
+        <item x="205"/>
+        <item x="279"/>
+        <item x="60"/>
+        <item x="381"/>
+        <item x="275"/>
+        <item x="368"/>
+        <item x="175"/>
+        <item x="197"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="273"/>
+        <item x="352"/>
+        <item x="447"/>
+        <item x="325"/>
+        <item x="8"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="370"/>
+        <item x="49"/>
+        <item x="316"/>
+        <item x="62"/>
+        <item x="159"/>
+        <item x="471"/>
+        <item x="207"/>
+        <item x="403"/>
+        <item x="371"/>
+        <item x="293"/>
+        <item x="433"/>
+        <item x="257"/>
+        <item x="271"/>
+        <item x="326"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="378"/>
+        <item x="110"/>
+        <item x="152"/>
+        <item x="397"/>
+        <item x="50"/>
+        <item x="477"/>
+        <item x="466"/>
+        <item x="396"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="231"/>
+        <item x="347"/>
+        <item x="375"/>
+        <item x="310"/>
+        <item x="65"/>
+        <item x="10"/>
+        <item x="294"/>
+        <item x="369"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="106"/>
+        <item x="226"/>
+        <item x="391"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="432"/>
+        <item x="354"/>
+        <item x="68"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="423"/>
+        <item x="109"/>
+        <item x="395"/>
+        <item x="71"/>
+        <item x="349"/>
+        <item x="415"/>
+        <item x="51"/>
+        <item x="141"/>
+        <item x="404"/>
+        <item x="119"/>
+        <item x="405"/>
+        <item x="374"/>
+        <item x="297"/>
+        <item x="265"/>
+        <item x="177"/>
+        <item x="42"/>
+        <item x="449"/>
+        <item x="176"/>
+        <item x="23"/>
+        <item x="228"/>
+        <item x="373"/>
+        <item x="313"/>
+        <item x="420"/>
+        <item x="61"/>
+        <item x="458"/>
+        <item x="223"/>
+        <item x="436"/>
+        <item x="154"/>
+        <item x="346"/>
+        <item x="212"/>
+        <item x="168"/>
+        <item x="462"/>
+        <item x="151"/>
+        <item x="169"/>
+        <item x="409"/>
+        <item x="17"/>
+        <item x="203"/>
+        <item x="214"/>
+        <item x="306"/>
+        <item x="173"/>
+        <item x="67"/>
+        <item x="464"/>
+        <item x="459"/>
+        <item x="232"/>
+        <item x="267"/>
+        <item x="362"/>
+        <item x="88"/>
+        <item x="183"/>
+        <item x="412"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="222"/>
+        <item x="284"/>
+        <item x="377"/>
+        <item x="54"/>
+        <item x="64"/>
+        <item x="307"/>
+        <item x="90"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="204"/>
+        <item x="406"/>
+        <item x="34"/>
+        <item x="158"/>
+        <item x="476"/>
+        <item x="26"/>
+        <item x="448"/>
+        <item x="430"/>
+        <item x="281"/>
+        <item x="337"/>
+        <item x="72"/>
+        <item x="161"/>
+        <item x="382"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="348"/>
+        <item x="4"/>
+        <item x="407"/>
+        <item x="312"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="304"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="69"/>
+        <item x="268"/>
+        <item x="332"/>
+        <item x="399"/>
+        <item x="145"/>
+        <item x="156"/>
+        <item x="385"/>
+        <item x="410"/>
+        <item x="470"/>
+        <item x="276"/>
+        <item x="213"/>
+        <item x="117"/>
+        <item x="253"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="386"/>
+        <item x="179"/>
+        <item x="19"/>
+        <item x="472"/>
+        <item x="336"/>
+        <item x="233"/>
+        <item x="248"/>
+        <item x="328"/>
+        <item x="318"/>
+        <item x="417"/>
+        <item x="116"/>
+        <item x="227"/>
+        <item x="334"/>
+        <item x="434"/>
+        <item x="263"/>
+        <item x="181"/>
+        <item x="473"/>
+        <item x="9"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="425"/>
+        <item x="416"/>
+        <item x="37"/>
+        <item x="259"/>
+        <item x="193"/>
+        <item x="308"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="252"/>
+        <item x="402"/>
+        <item x="211"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="155"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="311"/>
+        <item x="138"/>
+        <item x="269"/>
+        <item x="171"/>
+        <item x="270"/>
+        <item x="83"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="41"/>
+        <item x="439"/>
+        <item x="400"/>
+        <item x="219"/>
+        <item x="208"/>
+        <item x="221"/>
+        <item x="341"/>
+        <item x="469"/>
+        <item x="92"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="320"/>
+        <item x="244"/>
+        <item x="305"/>
+        <item x="392"/>
+        <item x="153"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="217"/>
+        <item x="157"/>
+        <item x="102"/>
+        <item x="220"/>
+        <item x="388"/>
+        <item x="414"/>
+        <item x="298"/>
+        <item x="124"/>
+        <item x="16"/>
+        <item x="355"/>
+        <item x="266"/>
+        <item x="435"/>
+        <item x="187"/>
+        <item x="340"/>
+        <item x="343"/>
+        <item x="165"/>
+        <item x="73"/>
+        <item x="443"/>
+        <item x="380"/>
+        <item x="333"/>
+        <item x="277"/>
+        <item x="225"/>
+        <item x="376"/>
+        <item x="133"/>
+        <item x="350"/>
+        <item x="131"/>
+        <item x="150"/>
+        <item x="302"/>
+        <item x="457"/>
+        <item x="411"/>
+        <item x="451"/>
+        <item x="295"/>
+        <item x="134"/>
+        <item x="128"/>
+        <item x="455"/>
+        <item x="63"/>
+        <item x="215"/>
+        <item x="360"/>
+        <item x="32"/>
+        <item x="299"/>
+        <item x="272"/>
+        <item x="198"/>
+        <item x="180"/>
+        <item x="0"/>
+        <item x="98"/>
+        <item x="315"/>
+        <item x="47"/>
+        <item x="160"/>
+        <item x="53"/>
+        <item x="241"/>
+        <item x="143"/>
+        <item x="475"/>
+        <item x="456"/>
+        <item x="21"/>
+        <item x="323"/>
+        <item x="260"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="301"/>
+        <item x="327"/>
+        <item x="342"/>
+        <item x="251"/>
+        <item x="194"/>
+        <item x="440"/>
+        <item x="286"/>
+        <item x="249"/>
+        <item x="103"/>
+        <item x="137"/>
+        <item x="314"/>
+        <item x="452"/>
+        <item x="258"/>
+        <item x="218"/>
+        <item x="55"/>
+        <item x="206"/>
+        <item x="28"/>
+        <item x="319"/>
+        <item x="474"/>
+        <item x="31"/>
+        <item x="280"/>
+        <item x="89"/>
+        <item x="200"/>
+        <item x="100"/>
+        <item x="290"/>
+        <item x="322"/>
+        <item x="422"/>
+        <item x="329"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="192"/>
+        <item x="418"/>
+        <item x="29"/>
+        <item x="261"/>
+        <item x="147"/>
+        <item x="361"/>
+        <item x="338"/>
+        <item x="463"/>
+        <item x="85"/>
+        <item x="324"/>
+        <item x="468"/>
+        <item x="394"/>
+        <item x="288"/>
+        <item x="127"/>
+        <item x="379"/>
+        <item x="358"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="144"/>
+        <item x="291"/>
+        <item x="408"/>
+        <item x="426"/>
+        <item x="39"/>
+        <item x="129"/>
+        <item x="441"/>
+        <item x="236"/>
+        <item x="444"/>
+        <item x="120"/>
+        <item x="250"/>
+        <item x="167"/>
+        <item x="30"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="289"/>
+        <item x="91"/>
+        <item x="461"/>
+        <item x="118"/>
+        <item x="413"/>
+        <item x="1"/>
+        <item x="372"/>
+        <item x="3"/>
+        <item x="254"/>
+        <item x="428"/>
+        <item x="366"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="238"/>
+        <item x="199"/>
+        <item x="453"/>
+        <item x="234"/>
+        <item x="401"/>
+        <item x="465"/>
+        <item x="12"/>
+        <item x="383"/>
+        <item x="2"/>
+        <item x="429"/>
+        <item x="202"/>
+        <item x="185"/>
+        <item x="162"/>
+        <item x="454"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="317"/>
+        <item x="13"/>
+        <item x="438"/>
+        <item x="7"/>
+        <item x="174"/>
+        <item x="243"/>
+        <item x="424"/>
+        <item x="224"/>
+        <item x="130"/>
+        <item x="15"/>
+        <item x="296"/>
+        <item x="140"/>
+        <item x="367"/>
+        <item x="351"/>
+        <item x="390"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="245"/>
+        <item x="387"/>
+        <item x="357"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="384"/>
+        <item x="190"/>
+        <item x="44"/>
+        <item x="285"/>
+        <item x="264"/>
+        <item x="282"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="446"/>
+        <item x="57"/>
+        <item x="345"/>
+        <item x="445"/>
+        <item x="121"/>
+        <item x="164"/>
+        <item x="467"/>
+        <item x="247"/>
+        <item x="398"/>
+        <item x="40"/>
+        <item x="427"/>
+        <item x="132"/>
+        <item x="87"/>
+        <item x="188"/>
+        <item x="442"/>
+        <item x="283"/>
+        <item x="52"/>
+        <item x="242"/>
+        <item x="321"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="425">
+        <item x="115"/>
+        <item x="218"/>
+        <item x="58"/>
+        <item x="130"/>
+        <item x="60"/>
+        <item x="120"/>
+        <item x="420"/>
+        <item x="283"/>
+        <item x="229"/>
+        <item x="349"/>
+        <item x="367"/>
+        <item x="262"/>
+        <item x="408"/>
+        <item x="174"/>
+        <item x="182"/>
+        <item x="157"/>
+        <item x="123"/>
+        <item x="339"/>
+        <item x="323"/>
+        <item x="348"/>
+        <item x="81"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="189"/>
+        <item x="79"/>
+        <item x="412"/>
+        <item x="121"/>
+        <item x="93"/>
+        <item x="240"/>
+        <item x="192"/>
+        <item x="152"/>
+        <item x="248"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="382"/>
+        <item x="119"/>
+        <item x="316"/>
+        <item x="241"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="354"/>
+        <item x="318"/>
+        <item x="221"/>
+        <item x="68"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="279"/>
+        <item x="128"/>
+        <item x="387"/>
+        <item x="383"/>
+        <item x="254"/>
+        <item x="309"/>
+        <item x="61"/>
+        <item x="208"/>
+        <item x="14"/>
+        <item x="139"/>
+        <item x="90"/>
+        <item x="224"/>
+        <item x="87"/>
+        <item x="410"/>
+        <item x="326"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="260"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="308"/>
+        <item x="297"/>
+        <item x="280"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="277"/>
+        <item x="204"/>
+        <item x="43"/>
+        <item x="340"/>
+        <item x="238"/>
+        <item x="236"/>
+        <item x="233"/>
+        <item x="415"/>
+        <item x="28"/>
+        <item x="116"/>
+        <item x="210"/>
+        <item x="89"/>
+        <item x="220"/>
+        <item x="272"/>
+        <item x="358"/>
+        <item x="278"/>
+        <item x="312"/>
+        <item x="162"/>
+        <item x="356"/>
+        <item x="414"/>
+        <item x="291"/>
+        <item x="216"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="411"/>
+        <item x="393"/>
+        <item x="376"/>
+        <item x="392"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="289"/>
+        <item x="19"/>
+        <item x="187"/>
+        <item x="144"/>
+        <item x="166"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="126"/>
+        <item x="178"/>
+        <item x="136"/>
+        <item x="186"/>
+        <item x="228"/>
+        <item x="372"/>
+        <item x="285"/>
+        <item x="132"/>
+        <item x="257"/>
+        <item x="268"/>
+        <item x="86"/>
+        <item x="62"/>
+        <item x="269"/>
+        <item x="321"/>
+        <item x="421"/>
+        <item x="293"/>
+        <item x="222"/>
+        <item x="183"/>
+        <item x="394"/>
+        <item x="351"/>
+        <item x="205"/>
+        <item x="129"/>
+        <item x="50"/>
+        <item x="313"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="401"/>
+        <item x="320"/>
+        <item x="373"/>
+        <item x="98"/>
+        <item x="250"/>
+        <item x="379"/>
+        <item x="225"/>
+        <item x="399"/>
+        <item x="247"/>
+        <item x="117"/>
+        <item x="140"/>
+        <item x="232"/>
+        <item x="300"/>
+        <item x="37"/>
+        <item x="418"/>
+        <item x="127"/>
+        <item x="389"/>
+        <item x="153"/>
+        <item x="355"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="381"/>
+        <item x="361"/>
+        <item x="112"/>
+        <item x="357"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="230"/>
+        <item x="295"/>
+        <item x="32"/>
+        <item x="341"/>
+        <item x="103"/>
+        <item x="267"/>
+        <item x="244"/>
+        <item x="405"/>
+        <item x="395"/>
+        <item x="397"/>
+        <item x="281"/>
+        <item x="94"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="171"/>
+        <item x="298"/>
+        <item x="213"/>
+        <item x="374"/>
+        <item x="131"/>
+        <item x="252"/>
+        <item x="345"/>
+        <item x="275"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="179"/>
+        <item x="343"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="100"/>
+        <item x="311"/>
+        <item x="40"/>
+        <item x="334"/>
+        <item x="168"/>
+        <item x="353"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="365"/>
+        <item x="380"/>
+        <item x="366"/>
+        <item x="167"/>
+        <item x="194"/>
+        <item x="163"/>
+        <item x="109"/>
+        <item x="67"/>
+        <item x="95"/>
+        <item x="165"/>
+        <item x="256"/>
+        <item x="7"/>
+        <item x="102"/>
+        <item x="282"/>
+        <item x="190"/>
+        <item x="402"/>
+        <item x="317"/>
+        <item x="106"/>
+        <item x="42"/>
+        <item x="352"/>
+        <item x="276"/>
+        <item x="198"/>
+        <item x="336"/>
+        <item x="84"/>
+        <item x="407"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="310"/>
+        <item x="196"/>
+        <item x="104"/>
+        <item x="22"/>
+        <item x="385"/>
+        <item x="423"/>
+        <item x="125"/>
+        <item x="416"/>
+        <item x="82"/>
+        <item x="145"/>
+        <item x="135"/>
+        <item x="294"/>
+        <item x="384"/>
+        <item x="342"/>
+        <item x="246"/>
+        <item x="164"/>
+        <item x="54"/>
+        <item x="391"/>
+        <item x="148"/>
+        <item x="377"/>
+        <item x="400"/>
+        <item x="368"/>
+        <item x="288"/>
+        <item x="35"/>
+        <item x="333"/>
+        <item x="329"/>
+        <item x="344"/>
+        <item x="328"/>
+        <item x="172"/>
+        <item x="48"/>
+        <item x="331"/>
+        <item x="363"/>
+        <item x="161"/>
+        <item x="378"/>
+        <item x="20"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="413"/>
+        <item x="96"/>
+        <item x="0"/>
+        <item x="77"/>
+        <item x="245"/>
+        <item x="97"/>
+        <item x="292"/>
+        <item x="388"/>
+        <item x="350"/>
+        <item x="370"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="107"/>
+        <item x="197"/>
+        <item x="386"/>
+        <item x="396"/>
+        <item x="80"/>
+        <item x="324"/>
+        <item x="243"/>
+        <item x="299"/>
+        <item x="5"/>
+        <item x="419"/>
+        <item x="417"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="404"/>
+        <item x="239"/>
+        <item x="273"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="302"/>
+        <item x="73"/>
+        <item x="270"/>
+        <item x="88"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="185"/>
+        <item x="108"/>
+        <item x="151"/>
+        <item x="346"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="173"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="219"/>
+        <item x="304"/>
+        <item x="70"/>
+        <item x="72"/>
+        <item x="266"/>
+        <item x="364"/>
+        <item x="25"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="403"/>
+        <item x="332"/>
+        <item x="337"/>
+        <item x="235"/>
+        <item x="65"/>
+        <item x="369"/>
+        <item x="91"/>
+        <item x="284"/>
+        <item x="143"/>
+        <item x="160"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="8"/>
+        <item x="226"/>
+        <item x="215"/>
+        <item x="249"/>
+        <item x="6"/>
+        <item x="319"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="375"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="231"/>
+        <item x="359"/>
+        <item x="44"/>
+        <item x="362"/>
+        <item x="45"/>
+        <item x="181"/>
+        <item x="133"/>
+        <item x="255"/>
+        <item x="264"/>
+        <item x="390"/>
+        <item x="176"/>
+        <item x="406"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="347"/>
+        <item x="111"/>
+        <item x="214"/>
+        <item x="211"/>
+        <item x="193"/>
+        <item x="147"/>
+        <item x="101"/>
+        <item x="175"/>
+        <item x="327"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="76"/>
+        <item x="149"/>
+        <item x="195"/>
+        <item x="306"/>
+        <item x="217"/>
+        <item x="263"/>
+        <item x="137"/>
+        <item x="286"/>
+        <item x="33"/>
+        <item x="207"/>
+        <item x="184"/>
+        <item x="118"/>
+        <item x="330"/>
+        <item x="315"/>
+        <item x="253"/>
+        <item x="237"/>
+        <item x="398"/>
+        <item x="36"/>
+        <item x="325"/>
+        <item x="305"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="69"/>
+        <item x="27"/>
+        <item x="360"/>
+        <item x="212"/>
+        <item x="64"/>
+        <item x="261"/>
+        <item x="265"/>
+        <item x="287"/>
+        <item x="59"/>
+        <item x="422"/>
+        <item x="301"/>
+        <item x="322"/>
+        <item x="75"/>
+        <item x="146"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="150"/>
+        <item x="242"/>
+        <item x="114"/>
+        <item x="191"/>
+        <item x="371"/>
+        <item x="169"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Species_Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="16" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{400B5A10-9DCA-4044-B460-84AF54F1464A}" name="Tableau croisé dynamique5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Pollution">
+  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="479">
+        <item x="184"/>
+        <item x="274"/>
+        <item x="246"/>
+        <item x="230"/>
+        <item x="339"/>
+        <item x="96"/>
+        <item x="240"/>
+        <item x="115"/>
+        <item x="359"/>
+        <item x="201"/>
+        <item x="170"/>
+        <item x="70"/>
+        <item x="389"/>
+        <item x="393"/>
+        <item x="460"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="149"/>
+        <item x="113"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="237"/>
+        <item x="58"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="148"/>
+        <item x="309"/>
+        <item x="363"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="421"/>
+        <item x="76"/>
+        <item x="364"/>
+        <item x="81"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="235"/>
+        <item x="122"/>
+        <item x="210"/>
+        <item x="136"/>
+        <item x="178"/>
+        <item x="353"/>
+        <item x="356"/>
+        <item x="330"/>
+        <item x="419"/>
+        <item x="365"/>
+        <item x="205"/>
+        <item x="279"/>
+        <item x="60"/>
+        <item x="381"/>
+        <item x="275"/>
+        <item x="368"/>
+        <item x="175"/>
+        <item x="197"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="273"/>
+        <item x="352"/>
+        <item x="447"/>
+        <item x="325"/>
+        <item x="8"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="370"/>
+        <item x="49"/>
+        <item x="316"/>
+        <item x="62"/>
+        <item x="159"/>
+        <item x="471"/>
+        <item x="207"/>
+        <item x="403"/>
+        <item x="371"/>
+        <item x="293"/>
+        <item x="433"/>
+        <item x="257"/>
+        <item x="271"/>
+        <item x="326"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="378"/>
+        <item x="110"/>
+        <item x="152"/>
+        <item x="397"/>
+        <item x="50"/>
+        <item x="477"/>
+        <item x="466"/>
+        <item x="396"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="231"/>
+        <item x="347"/>
+        <item x="375"/>
+        <item x="310"/>
+        <item x="65"/>
+        <item x="10"/>
+        <item x="294"/>
+        <item x="369"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="106"/>
+        <item x="226"/>
+        <item x="391"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="432"/>
+        <item x="354"/>
+        <item x="68"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="423"/>
+        <item x="109"/>
+        <item x="395"/>
+        <item x="71"/>
+        <item x="349"/>
+        <item x="415"/>
+        <item x="51"/>
+        <item x="141"/>
+        <item x="404"/>
+        <item x="119"/>
+        <item x="405"/>
+        <item x="374"/>
+        <item x="297"/>
+        <item x="265"/>
+        <item x="177"/>
+        <item x="42"/>
+        <item x="449"/>
+        <item x="176"/>
+        <item x="23"/>
+        <item x="228"/>
+        <item x="373"/>
+        <item x="313"/>
+        <item x="420"/>
+        <item x="61"/>
+        <item x="458"/>
+        <item x="223"/>
+        <item x="436"/>
+        <item x="154"/>
+        <item x="346"/>
+        <item x="212"/>
+        <item x="168"/>
+        <item x="462"/>
+        <item x="151"/>
+        <item x="169"/>
+        <item x="409"/>
+        <item x="17"/>
+        <item x="203"/>
+        <item x="214"/>
+        <item x="306"/>
+        <item x="173"/>
+        <item x="67"/>
+        <item x="464"/>
+        <item x="459"/>
+        <item x="232"/>
+        <item x="267"/>
+        <item x="362"/>
+        <item x="88"/>
+        <item x="183"/>
+        <item x="412"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="222"/>
+        <item x="284"/>
+        <item x="377"/>
+        <item x="54"/>
+        <item x="64"/>
+        <item x="307"/>
+        <item x="90"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="204"/>
+        <item x="406"/>
+        <item x="34"/>
+        <item x="158"/>
+        <item x="476"/>
+        <item x="26"/>
+        <item x="448"/>
+        <item x="430"/>
+        <item x="281"/>
+        <item x="337"/>
+        <item x="72"/>
+        <item x="161"/>
+        <item x="382"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="348"/>
+        <item x="4"/>
+        <item x="407"/>
+        <item x="312"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="304"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="69"/>
+        <item x="268"/>
+        <item x="332"/>
+        <item x="399"/>
+        <item x="145"/>
+        <item x="156"/>
+        <item x="385"/>
+        <item x="410"/>
+        <item x="470"/>
+        <item x="276"/>
+        <item x="213"/>
+        <item x="117"/>
+        <item x="253"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="386"/>
+        <item x="179"/>
+        <item x="19"/>
+        <item x="472"/>
+        <item x="336"/>
+        <item x="233"/>
+        <item x="248"/>
+        <item x="328"/>
+        <item x="318"/>
+        <item x="417"/>
+        <item x="116"/>
+        <item x="227"/>
+        <item x="334"/>
+        <item x="434"/>
+        <item x="263"/>
+        <item x="181"/>
+        <item x="473"/>
+        <item x="9"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="425"/>
+        <item x="416"/>
+        <item x="37"/>
+        <item x="259"/>
+        <item x="193"/>
+        <item x="308"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="252"/>
+        <item x="402"/>
+        <item x="211"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="155"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="311"/>
+        <item x="138"/>
+        <item x="269"/>
+        <item x="171"/>
+        <item x="270"/>
+        <item x="83"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="41"/>
+        <item x="439"/>
+        <item x="400"/>
+        <item x="219"/>
+        <item x="208"/>
+        <item x="221"/>
+        <item x="341"/>
+        <item x="469"/>
+        <item x="92"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="320"/>
+        <item x="244"/>
+        <item x="305"/>
+        <item x="392"/>
+        <item x="153"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="217"/>
+        <item x="157"/>
+        <item x="102"/>
+        <item x="220"/>
+        <item x="388"/>
+        <item x="414"/>
+        <item x="298"/>
+        <item x="124"/>
+        <item x="16"/>
+        <item x="355"/>
+        <item x="266"/>
+        <item x="435"/>
+        <item x="187"/>
+        <item x="340"/>
+        <item x="343"/>
+        <item x="165"/>
+        <item x="73"/>
+        <item x="443"/>
+        <item x="380"/>
+        <item x="333"/>
+        <item x="277"/>
+        <item x="225"/>
+        <item x="376"/>
+        <item x="133"/>
+        <item x="350"/>
+        <item x="131"/>
+        <item x="150"/>
+        <item x="302"/>
+        <item x="457"/>
+        <item x="411"/>
+        <item x="451"/>
+        <item x="295"/>
+        <item x="134"/>
+        <item x="128"/>
+        <item x="455"/>
+        <item x="63"/>
+        <item x="215"/>
+        <item x="360"/>
+        <item x="32"/>
+        <item x="299"/>
+        <item x="272"/>
+        <item x="198"/>
+        <item x="180"/>
+        <item x="0"/>
+        <item x="98"/>
+        <item x="315"/>
+        <item x="47"/>
+        <item x="160"/>
+        <item x="53"/>
+        <item x="241"/>
+        <item x="143"/>
+        <item x="475"/>
+        <item x="456"/>
+        <item x="21"/>
+        <item x="323"/>
+        <item x="260"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="301"/>
+        <item x="327"/>
+        <item x="342"/>
+        <item x="251"/>
+        <item x="194"/>
+        <item x="440"/>
+        <item x="286"/>
+        <item x="249"/>
+        <item x="103"/>
+        <item x="137"/>
+        <item x="314"/>
+        <item x="452"/>
+        <item x="258"/>
+        <item x="218"/>
+        <item x="55"/>
+        <item x="206"/>
+        <item x="28"/>
+        <item x="319"/>
+        <item x="474"/>
+        <item x="31"/>
+        <item x="280"/>
+        <item x="89"/>
+        <item x="200"/>
+        <item x="100"/>
+        <item x="290"/>
+        <item x="322"/>
+        <item x="422"/>
+        <item x="329"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="192"/>
+        <item x="418"/>
+        <item x="29"/>
+        <item x="261"/>
+        <item x="147"/>
+        <item x="361"/>
+        <item x="338"/>
+        <item x="463"/>
+        <item x="85"/>
+        <item x="324"/>
+        <item x="468"/>
+        <item x="394"/>
+        <item x="288"/>
+        <item x="127"/>
+        <item x="379"/>
+        <item x="358"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="144"/>
+        <item x="291"/>
+        <item x="408"/>
+        <item x="426"/>
+        <item x="39"/>
+        <item x="129"/>
+        <item x="441"/>
+        <item x="236"/>
+        <item x="444"/>
+        <item x="120"/>
+        <item x="250"/>
+        <item x="167"/>
+        <item x="30"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="289"/>
+        <item x="91"/>
+        <item x="461"/>
+        <item x="118"/>
+        <item x="413"/>
+        <item x="1"/>
+        <item x="372"/>
+        <item x="3"/>
+        <item x="254"/>
+        <item x="428"/>
+        <item x="366"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="238"/>
+        <item x="199"/>
+        <item x="453"/>
+        <item x="234"/>
+        <item x="401"/>
+        <item x="465"/>
+        <item x="12"/>
+        <item x="383"/>
+        <item x="2"/>
+        <item x="429"/>
+        <item x="202"/>
+        <item x="185"/>
+        <item x="162"/>
+        <item x="454"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="317"/>
+        <item x="13"/>
+        <item x="438"/>
+        <item x="7"/>
+        <item x="174"/>
+        <item x="243"/>
+        <item x="424"/>
+        <item x="224"/>
+        <item x="130"/>
+        <item x="15"/>
+        <item x="296"/>
+        <item x="140"/>
+        <item x="367"/>
+        <item x="351"/>
+        <item x="390"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="245"/>
+        <item x="387"/>
+        <item x="357"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="384"/>
+        <item x="190"/>
+        <item x="44"/>
+        <item x="285"/>
+        <item x="264"/>
+        <item x="282"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="446"/>
+        <item x="57"/>
+        <item x="345"/>
+        <item x="445"/>
+        <item x="121"/>
+        <item x="164"/>
+        <item x="467"/>
+        <item x="247"/>
+        <item x="398"/>
+        <item x="40"/>
+        <item x="427"/>
+        <item x="132"/>
+        <item x="87"/>
+        <item x="188"/>
+        <item x="442"/>
+        <item x="283"/>
+        <item x="52"/>
+        <item x="242"/>
+        <item x="321"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="425">
+        <item x="115"/>
+        <item x="218"/>
+        <item x="58"/>
+        <item x="130"/>
+        <item x="60"/>
+        <item x="120"/>
+        <item x="420"/>
+        <item x="283"/>
+        <item x="229"/>
+        <item x="349"/>
+        <item x="367"/>
+        <item x="262"/>
+        <item x="408"/>
+        <item x="174"/>
+        <item x="182"/>
+        <item x="157"/>
+        <item x="123"/>
+        <item x="339"/>
+        <item x="323"/>
+        <item x="348"/>
+        <item x="81"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="189"/>
+        <item x="79"/>
+        <item x="412"/>
+        <item x="121"/>
+        <item x="93"/>
+        <item x="240"/>
+        <item x="192"/>
+        <item x="152"/>
+        <item x="248"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="382"/>
+        <item x="119"/>
+        <item x="316"/>
+        <item x="241"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="354"/>
+        <item x="318"/>
+        <item x="221"/>
+        <item x="68"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="279"/>
+        <item x="128"/>
+        <item x="387"/>
+        <item x="383"/>
+        <item x="254"/>
+        <item x="309"/>
+        <item x="61"/>
+        <item x="208"/>
+        <item x="14"/>
+        <item x="139"/>
+        <item x="90"/>
+        <item x="224"/>
+        <item x="87"/>
+        <item x="410"/>
+        <item x="326"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="260"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="308"/>
+        <item x="297"/>
+        <item x="280"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="277"/>
+        <item x="204"/>
+        <item x="43"/>
+        <item x="340"/>
+        <item x="238"/>
+        <item x="236"/>
+        <item x="233"/>
+        <item x="415"/>
+        <item x="28"/>
+        <item x="116"/>
+        <item x="210"/>
+        <item x="89"/>
+        <item x="220"/>
+        <item x="272"/>
+        <item x="358"/>
+        <item x="278"/>
+        <item x="312"/>
+        <item x="162"/>
+        <item x="356"/>
+        <item x="414"/>
+        <item x="291"/>
+        <item x="216"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="411"/>
+        <item x="393"/>
+        <item x="376"/>
+        <item x="392"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="289"/>
+        <item x="19"/>
+        <item x="187"/>
+        <item x="144"/>
+        <item x="166"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="126"/>
+        <item x="178"/>
+        <item x="136"/>
+        <item x="186"/>
+        <item x="228"/>
+        <item x="372"/>
+        <item x="285"/>
+        <item x="132"/>
+        <item x="257"/>
+        <item x="268"/>
+        <item x="86"/>
+        <item x="62"/>
+        <item x="269"/>
+        <item x="321"/>
+        <item x="421"/>
+        <item x="293"/>
+        <item x="222"/>
+        <item x="183"/>
+        <item x="394"/>
+        <item x="351"/>
+        <item x="205"/>
+        <item x="129"/>
+        <item x="50"/>
+        <item x="313"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="401"/>
+        <item x="320"/>
+        <item x="373"/>
+        <item x="98"/>
+        <item x="250"/>
+        <item x="379"/>
+        <item x="225"/>
+        <item x="399"/>
+        <item x="247"/>
+        <item x="117"/>
+        <item x="140"/>
+        <item x="232"/>
+        <item x="300"/>
+        <item x="37"/>
+        <item x="418"/>
+        <item x="127"/>
+        <item x="389"/>
+        <item x="153"/>
+        <item x="355"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="381"/>
+        <item x="361"/>
+        <item x="112"/>
+        <item x="357"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="230"/>
+        <item x="295"/>
+        <item x="32"/>
+        <item x="341"/>
+        <item x="103"/>
+        <item x="267"/>
+        <item x="244"/>
+        <item x="405"/>
+        <item x="395"/>
+        <item x="397"/>
+        <item x="281"/>
+        <item x="94"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="171"/>
+        <item x="298"/>
+        <item x="213"/>
+        <item x="374"/>
+        <item x="131"/>
+        <item x="252"/>
+        <item x="345"/>
+        <item x="275"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="179"/>
+        <item x="343"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="100"/>
+        <item x="311"/>
+        <item x="40"/>
+        <item x="334"/>
+        <item x="168"/>
+        <item x="353"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="365"/>
+        <item x="380"/>
+        <item x="366"/>
+        <item x="167"/>
+        <item x="194"/>
+        <item x="163"/>
+        <item x="109"/>
+        <item x="67"/>
+        <item x="95"/>
+        <item x="165"/>
+        <item x="256"/>
+        <item x="7"/>
+        <item x="102"/>
+        <item x="282"/>
+        <item x="190"/>
+        <item x="402"/>
+        <item x="317"/>
+        <item x="106"/>
+        <item x="42"/>
+        <item x="352"/>
+        <item x="276"/>
+        <item x="198"/>
+        <item x="336"/>
+        <item x="84"/>
+        <item x="407"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="310"/>
+        <item x="196"/>
+        <item x="104"/>
+        <item x="22"/>
+        <item x="385"/>
+        <item x="423"/>
+        <item x="125"/>
+        <item x="416"/>
+        <item x="82"/>
+        <item x="145"/>
+        <item x="135"/>
+        <item x="294"/>
+        <item x="384"/>
+        <item x="342"/>
+        <item x="246"/>
+        <item x="164"/>
+        <item x="54"/>
+        <item x="391"/>
+        <item x="148"/>
+        <item x="377"/>
+        <item x="400"/>
+        <item x="368"/>
+        <item x="288"/>
+        <item x="35"/>
+        <item x="333"/>
+        <item x="329"/>
+        <item x="344"/>
+        <item x="328"/>
+        <item x="172"/>
+        <item x="48"/>
+        <item x="331"/>
+        <item x="363"/>
+        <item x="161"/>
+        <item x="378"/>
+        <item x="20"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="413"/>
+        <item x="96"/>
+        <item x="0"/>
+        <item x="77"/>
+        <item x="245"/>
+        <item x="97"/>
+        <item x="292"/>
+        <item x="388"/>
+        <item x="350"/>
+        <item x="370"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="107"/>
+        <item x="197"/>
+        <item x="386"/>
+        <item x="396"/>
+        <item x="80"/>
+        <item x="324"/>
+        <item x="243"/>
+        <item x="299"/>
+        <item x="5"/>
+        <item x="419"/>
+        <item x="417"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="404"/>
+        <item x="239"/>
+        <item x="273"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="302"/>
+        <item x="73"/>
+        <item x="270"/>
+        <item x="88"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="185"/>
+        <item x="108"/>
+        <item x="151"/>
+        <item x="346"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="173"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="219"/>
+        <item x="304"/>
+        <item x="70"/>
+        <item x="72"/>
+        <item x="266"/>
+        <item x="364"/>
+        <item x="25"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="403"/>
+        <item x="332"/>
+        <item x="337"/>
+        <item x="235"/>
+        <item x="65"/>
+        <item x="369"/>
+        <item x="91"/>
+        <item x="284"/>
+        <item x="143"/>
+        <item x="160"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="8"/>
+        <item x="226"/>
+        <item x="215"/>
+        <item x="249"/>
+        <item x="6"/>
+        <item x="319"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="375"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="231"/>
+        <item x="359"/>
+        <item x="44"/>
+        <item x="362"/>
+        <item x="45"/>
+        <item x="181"/>
+        <item x="133"/>
+        <item x="255"/>
+        <item x="264"/>
+        <item x="390"/>
+        <item x="176"/>
+        <item x="406"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="347"/>
+        <item x="111"/>
+        <item x="214"/>
+        <item x="211"/>
+        <item x="193"/>
+        <item x="147"/>
+        <item x="101"/>
+        <item x="175"/>
+        <item x="327"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="76"/>
+        <item x="149"/>
+        <item x="195"/>
+        <item x="306"/>
+        <item x="217"/>
+        <item x="263"/>
+        <item x="137"/>
+        <item x="286"/>
+        <item x="33"/>
+        <item x="207"/>
+        <item x="184"/>
+        <item x="118"/>
+        <item x="330"/>
+        <item x="315"/>
+        <item x="253"/>
+        <item x="237"/>
+        <item x="398"/>
+        <item x="36"/>
+        <item x="325"/>
+        <item x="305"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="69"/>
+        <item x="27"/>
+        <item x="360"/>
+        <item x="212"/>
+        <item x="64"/>
+        <item x="261"/>
+        <item x="265"/>
+        <item x="287"/>
+        <item x="59"/>
+        <item x="422"/>
+        <item x="301"/>
+        <item x="322"/>
+        <item x="75"/>
+        <item x="146"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="150"/>
+        <item x="242"/>
+        <item x="114"/>
+        <item x="191"/>
+        <item x="371"/>
+        <item x="169"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Overfishing_Risk" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35434A93-E946-4D88-96D0-150860630915}" name="Tableau croisé dynamique4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Overfishing">
+  <location ref="E5:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="479">
+        <item x="184"/>
+        <item x="274"/>
+        <item x="246"/>
+        <item x="230"/>
+        <item x="339"/>
+        <item x="96"/>
+        <item x="240"/>
+        <item x="115"/>
+        <item x="359"/>
+        <item x="201"/>
+        <item x="170"/>
+        <item x="70"/>
+        <item x="389"/>
+        <item x="393"/>
+        <item x="460"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="149"/>
+        <item x="113"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="237"/>
+        <item x="58"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="148"/>
+        <item x="309"/>
+        <item x="363"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="421"/>
+        <item x="76"/>
+        <item x="364"/>
+        <item x="81"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="235"/>
+        <item x="122"/>
+        <item x="210"/>
+        <item x="136"/>
+        <item x="178"/>
+        <item x="353"/>
+        <item x="356"/>
+        <item x="330"/>
+        <item x="419"/>
+        <item x="365"/>
+        <item x="205"/>
+        <item x="279"/>
+        <item x="60"/>
+        <item x="381"/>
+        <item x="275"/>
+        <item x="368"/>
+        <item x="175"/>
+        <item x="197"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="273"/>
+        <item x="352"/>
+        <item x="447"/>
+        <item x="325"/>
+        <item x="8"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="370"/>
+        <item x="49"/>
+        <item x="316"/>
+        <item x="62"/>
+        <item x="159"/>
+        <item x="471"/>
+        <item x="207"/>
+        <item x="403"/>
+        <item x="371"/>
+        <item x="293"/>
+        <item x="433"/>
+        <item x="257"/>
+        <item x="271"/>
+        <item x="326"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="378"/>
+        <item x="110"/>
+        <item x="152"/>
+        <item x="397"/>
+        <item x="50"/>
+        <item x="477"/>
+        <item x="466"/>
+        <item x="396"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="231"/>
+        <item x="347"/>
+        <item x="375"/>
+        <item x="310"/>
+        <item x="65"/>
+        <item x="10"/>
+        <item x="294"/>
+        <item x="369"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="106"/>
+        <item x="226"/>
+        <item x="391"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="432"/>
+        <item x="354"/>
+        <item x="68"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="423"/>
+        <item x="109"/>
+        <item x="395"/>
+        <item x="71"/>
+        <item x="349"/>
+        <item x="415"/>
+        <item x="51"/>
+        <item x="141"/>
+        <item x="404"/>
+        <item x="119"/>
+        <item x="405"/>
+        <item x="374"/>
+        <item x="297"/>
+        <item x="265"/>
+        <item x="177"/>
+        <item x="42"/>
+        <item x="449"/>
+        <item x="176"/>
+        <item x="23"/>
+        <item x="228"/>
+        <item x="373"/>
+        <item x="313"/>
+        <item x="420"/>
+        <item x="61"/>
+        <item x="458"/>
+        <item x="223"/>
+        <item x="436"/>
+        <item x="154"/>
+        <item x="346"/>
+        <item x="212"/>
+        <item x="168"/>
+        <item x="462"/>
+        <item x="151"/>
+        <item x="169"/>
+        <item x="409"/>
+        <item x="17"/>
+        <item x="203"/>
+        <item x="214"/>
+        <item x="306"/>
+        <item x="173"/>
+        <item x="67"/>
+        <item x="464"/>
+        <item x="459"/>
+        <item x="232"/>
+        <item x="267"/>
+        <item x="362"/>
+        <item x="88"/>
+        <item x="183"/>
+        <item x="412"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="222"/>
+        <item x="284"/>
+        <item x="377"/>
+        <item x="54"/>
+        <item x="64"/>
+        <item x="307"/>
+        <item x="90"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="204"/>
+        <item x="406"/>
+        <item x="34"/>
+        <item x="158"/>
+        <item x="476"/>
+        <item x="26"/>
+        <item x="448"/>
+        <item x="430"/>
+        <item x="281"/>
+        <item x="337"/>
+        <item x="72"/>
+        <item x="161"/>
+        <item x="382"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="348"/>
+        <item x="4"/>
+        <item x="407"/>
+        <item x="312"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="304"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="69"/>
+        <item x="268"/>
+        <item x="332"/>
+        <item x="399"/>
+        <item x="145"/>
+        <item x="156"/>
+        <item x="385"/>
+        <item x="410"/>
+        <item x="470"/>
+        <item x="276"/>
+        <item x="213"/>
+        <item x="117"/>
+        <item x="253"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="386"/>
+        <item x="179"/>
+        <item x="19"/>
+        <item x="472"/>
+        <item x="336"/>
+        <item x="233"/>
+        <item x="248"/>
+        <item x="328"/>
+        <item x="318"/>
+        <item x="417"/>
+        <item x="116"/>
+        <item x="227"/>
+        <item x="334"/>
+        <item x="434"/>
+        <item x="263"/>
+        <item x="181"/>
+        <item x="473"/>
+        <item x="9"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="425"/>
+        <item x="416"/>
+        <item x="37"/>
+        <item x="259"/>
+        <item x="193"/>
+        <item x="308"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="252"/>
+        <item x="402"/>
+        <item x="211"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="155"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="311"/>
+        <item x="138"/>
+        <item x="269"/>
+        <item x="171"/>
+        <item x="270"/>
+        <item x="83"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="41"/>
+        <item x="439"/>
+        <item x="400"/>
+        <item x="219"/>
+        <item x="208"/>
+        <item x="221"/>
+        <item x="341"/>
+        <item x="469"/>
+        <item x="92"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="320"/>
+        <item x="244"/>
+        <item x="305"/>
+        <item x="392"/>
+        <item x="153"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="217"/>
+        <item x="157"/>
+        <item x="102"/>
+        <item x="220"/>
+        <item x="388"/>
+        <item x="414"/>
+        <item x="298"/>
+        <item x="124"/>
+        <item x="16"/>
+        <item x="355"/>
+        <item x="266"/>
+        <item x="435"/>
+        <item x="187"/>
+        <item x="340"/>
+        <item x="343"/>
+        <item x="165"/>
+        <item x="73"/>
+        <item x="443"/>
+        <item x="380"/>
+        <item x="333"/>
+        <item x="277"/>
+        <item x="225"/>
+        <item x="376"/>
+        <item x="133"/>
+        <item x="350"/>
+        <item x="131"/>
+        <item x="150"/>
+        <item x="302"/>
+        <item x="457"/>
+        <item x="411"/>
+        <item x="451"/>
+        <item x="295"/>
+        <item x="134"/>
+        <item x="128"/>
+        <item x="455"/>
+        <item x="63"/>
+        <item x="215"/>
+        <item x="360"/>
+        <item x="32"/>
+        <item x="299"/>
+        <item x="272"/>
+        <item x="198"/>
+        <item x="180"/>
+        <item x="0"/>
+        <item x="98"/>
+        <item x="315"/>
+        <item x="47"/>
+        <item x="160"/>
+        <item x="53"/>
+        <item x="241"/>
+        <item x="143"/>
+        <item x="475"/>
+        <item x="456"/>
+        <item x="21"/>
+        <item x="323"/>
+        <item x="260"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="301"/>
+        <item x="327"/>
+        <item x="342"/>
+        <item x="251"/>
+        <item x="194"/>
+        <item x="440"/>
+        <item x="286"/>
+        <item x="249"/>
+        <item x="103"/>
+        <item x="137"/>
+        <item x="314"/>
+        <item x="452"/>
+        <item x="258"/>
+        <item x="218"/>
+        <item x="55"/>
+        <item x="206"/>
+        <item x="28"/>
+        <item x="319"/>
+        <item x="474"/>
+        <item x="31"/>
+        <item x="280"/>
+        <item x="89"/>
+        <item x="200"/>
+        <item x="100"/>
+        <item x="290"/>
+        <item x="322"/>
+        <item x="422"/>
+        <item x="329"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="192"/>
+        <item x="418"/>
+        <item x="29"/>
+        <item x="261"/>
+        <item x="147"/>
+        <item x="361"/>
+        <item x="338"/>
+        <item x="463"/>
+        <item x="85"/>
+        <item x="324"/>
+        <item x="468"/>
+        <item x="394"/>
+        <item x="288"/>
+        <item x="127"/>
+        <item x="379"/>
+        <item x="358"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="144"/>
+        <item x="291"/>
+        <item x="408"/>
+        <item x="426"/>
+        <item x="39"/>
+        <item x="129"/>
+        <item x="441"/>
+        <item x="236"/>
+        <item x="444"/>
+        <item x="120"/>
+        <item x="250"/>
+        <item x="167"/>
+        <item x="30"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="289"/>
+        <item x="91"/>
+        <item x="461"/>
+        <item x="118"/>
+        <item x="413"/>
+        <item x="1"/>
+        <item x="372"/>
+        <item x="3"/>
+        <item x="254"/>
+        <item x="428"/>
+        <item x="366"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="238"/>
+        <item x="199"/>
+        <item x="453"/>
+        <item x="234"/>
+        <item x="401"/>
+        <item x="465"/>
+        <item x="12"/>
+        <item x="383"/>
+        <item x="2"/>
+        <item x="429"/>
+        <item x="202"/>
+        <item x="185"/>
+        <item x="162"/>
+        <item x="454"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="317"/>
+        <item x="13"/>
+        <item x="438"/>
+        <item x="7"/>
+        <item x="174"/>
+        <item x="243"/>
+        <item x="424"/>
+        <item x="224"/>
+        <item x="130"/>
+        <item x="15"/>
+        <item x="296"/>
+        <item x="140"/>
+        <item x="367"/>
+        <item x="351"/>
+        <item x="390"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="245"/>
+        <item x="387"/>
+        <item x="357"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="384"/>
+        <item x="190"/>
+        <item x="44"/>
+        <item x="285"/>
+        <item x="264"/>
+        <item x="282"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="446"/>
+        <item x="57"/>
+        <item x="345"/>
+        <item x="445"/>
+        <item x="121"/>
+        <item x="164"/>
+        <item x="467"/>
+        <item x="247"/>
+        <item x="398"/>
+        <item x="40"/>
+        <item x="427"/>
+        <item x="132"/>
+        <item x="87"/>
+        <item x="188"/>
+        <item x="442"/>
+        <item x="283"/>
+        <item x="52"/>
+        <item x="242"/>
+        <item x="321"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="425">
+        <item x="115"/>
+        <item x="218"/>
+        <item x="58"/>
+        <item x="130"/>
+        <item x="60"/>
+        <item x="120"/>
+        <item x="420"/>
+        <item x="283"/>
+        <item x="229"/>
+        <item x="349"/>
+        <item x="367"/>
+        <item x="262"/>
+        <item x="408"/>
+        <item x="174"/>
+        <item x="182"/>
+        <item x="157"/>
+        <item x="123"/>
+        <item x="339"/>
+        <item x="323"/>
+        <item x="348"/>
+        <item x="81"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="189"/>
+        <item x="79"/>
+        <item x="412"/>
+        <item x="121"/>
+        <item x="93"/>
+        <item x="240"/>
+        <item x="192"/>
+        <item x="152"/>
+        <item x="248"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="382"/>
+        <item x="119"/>
+        <item x="316"/>
+        <item x="241"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="354"/>
+        <item x="318"/>
+        <item x="221"/>
+        <item x="68"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="279"/>
+        <item x="128"/>
+        <item x="387"/>
+        <item x="383"/>
+        <item x="254"/>
+        <item x="309"/>
+        <item x="61"/>
+        <item x="208"/>
+        <item x="14"/>
+        <item x="139"/>
+        <item x="90"/>
+        <item x="224"/>
+        <item x="87"/>
+        <item x="410"/>
+        <item x="326"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="260"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="308"/>
+        <item x="297"/>
+        <item x="280"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="277"/>
+        <item x="204"/>
+        <item x="43"/>
+        <item x="340"/>
+        <item x="238"/>
+        <item x="236"/>
+        <item x="233"/>
+        <item x="415"/>
+        <item x="28"/>
+        <item x="116"/>
+        <item x="210"/>
+        <item x="89"/>
+        <item x="220"/>
+        <item x="272"/>
+        <item x="358"/>
+        <item x="278"/>
+        <item x="312"/>
+        <item x="162"/>
+        <item x="356"/>
+        <item x="414"/>
+        <item x="291"/>
+        <item x="216"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="411"/>
+        <item x="393"/>
+        <item x="376"/>
+        <item x="392"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="289"/>
+        <item x="19"/>
+        <item x="187"/>
+        <item x="144"/>
+        <item x="166"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="126"/>
+        <item x="178"/>
+        <item x="136"/>
+        <item x="186"/>
+        <item x="228"/>
+        <item x="372"/>
+        <item x="285"/>
+        <item x="132"/>
+        <item x="257"/>
+        <item x="268"/>
+        <item x="86"/>
+        <item x="62"/>
+        <item x="269"/>
+        <item x="321"/>
+        <item x="421"/>
+        <item x="293"/>
+        <item x="222"/>
+        <item x="183"/>
+        <item x="394"/>
+        <item x="351"/>
+        <item x="205"/>
+        <item x="129"/>
+        <item x="50"/>
+        <item x="313"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="401"/>
+        <item x="320"/>
+        <item x="373"/>
+        <item x="98"/>
+        <item x="250"/>
+        <item x="379"/>
+        <item x="225"/>
+        <item x="399"/>
+        <item x="247"/>
+        <item x="117"/>
+        <item x="140"/>
+        <item x="232"/>
+        <item x="300"/>
+        <item x="37"/>
+        <item x="418"/>
+        <item x="127"/>
+        <item x="389"/>
+        <item x="153"/>
+        <item x="355"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="381"/>
+        <item x="361"/>
+        <item x="112"/>
+        <item x="357"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="230"/>
+        <item x="295"/>
+        <item x="32"/>
+        <item x="341"/>
+        <item x="103"/>
+        <item x="267"/>
+        <item x="244"/>
+        <item x="405"/>
+        <item x="395"/>
+        <item x="397"/>
+        <item x="281"/>
+        <item x="94"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="171"/>
+        <item x="298"/>
+        <item x="213"/>
+        <item x="374"/>
+        <item x="131"/>
+        <item x="252"/>
+        <item x="345"/>
+        <item x="275"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="179"/>
+        <item x="343"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="100"/>
+        <item x="311"/>
+        <item x="40"/>
+        <item x="334"/>
+        <item x="168"/>
+        <item x="353"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="365"/>
+        <item x="380"/>
+        <item x="366"/>
+        <item x="167"/>
+        <item x="194"/>
+        <item x="163"/>
+        <item x="109"/>
+        <item x="67"/>
+        <item x="95"/>
+        <item x="165"/>
+        <item x="256"/>
+        <item x="7"/>
+        <item x="102"/>
+        <item x="282"/>
+        <item x="190"/>
+        <item x="402"/>
+        <item x="317"/>
+        <item x="106"/>
+        <item x="42"/>
+        <item x="352"/>
+        <item x="276"/>
+        <item x="198"/>
+        <item x="336"/>
+        <item x="84"/>
+        <item x="407"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="310"/>
+        <item x="196"/>
+        <item x="104"/>
+        <item x="22"/>
+        <item x="385"/>
+        <item x="423"/>
+        <item x="125"/>
+        <item x="416"/>
+        <item x="82"/>
+        <item x="145"/>
+        <item x="135"/>
+        <item x="294"/>
+        <item x="384"/>
+        <item x="342"/>
+        <item x="246"/>
+        <item x="164"/>
+        <item x="54"/>
+        <item x="391"/>
+        <item x="148"/>
+        <item x="377"/>
+        <item x="400"/>
+        <item x="368"/>
+        <item x="288"/>
+        <item x="35"/>
+        <item x="333"/>
+        <item x="329"/>
+        <item x="344"/>
+        <item x="328"/>
+        <item x="172"/>
+        <item x="48"/>
+        <item x="331"/>
+        <item x="363"/>
+        <item x="161"/>
+        <item x="378"/>
+        <item x="20"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="413"/>
+        <item x="96"/>
+        <item x="0"/>
+        <item x="77"/>
+        <item x="245"/>
+        <item x="97"/>
+        <item x="292"/>
+        <item x="388"/>
+        <item x="350"/>
+        <item x="370"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="107"/>
+        <item x="197"/>
+        <item x="386"/>
+        <item x="396"/>
+        <item x="80"/>
+        <item x="324"/>
+        <item x="243"/>
+        <item x="299"/>
+        <item x="5"/>
+        <item x="419"/>
+        <item x="417"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="404"/>
+        <item x="239"/>
+        <item x="273"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="302"/>
+        <item x="73"/>
+        <item x="270"/>
+        <item x="88"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="185"/>
+        <item x="108"/>
+        <item x="151"/>
+        <item x="346"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="173"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="219"/>
+        <item x="304"/>
+        <item x="70"/>
+        <item x="72"/>
+        <item x="266"/>
+        <item x="364"/>
+        <item x="25"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="403"/>
+        <item x="332"/>
+        <item x="337"/>
+        <item x="235"/>
+        <item x="65"/>
+        <item x="369"/>
+        <item x="91"/>
+        <item x="284"/>
+        <item x="143"/>
+        <item x="160"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="8"/>
+        <item x="226"/>
+        <item x="215"/>
+        <item x="249"/>
+        <item x="6"/>
+        <item x="319"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="375"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="231"/>
+        <item x="359"/>
+        <item x="44"/>
+        <item x="362"/>
+        <item x="45"/>
+        <item x="181"/>
+        <item x="133"/>
+        <item x="255"/>
+        <item x="264"/>
+        <item x="390"/>
+        <item x="176"/>
+        <item x="406"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="347"/>
+        <item x="111"/>
+        <item x="214"/>
+        <item x="211"/>
+        <item x="193"/>
+        <item x="147"/>
+        <item x="101"/>
+        <item x="175"/>
+        <item x="327"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="76"/>
+        <item x="149"/>
+        <item x="195"/>
+        <item x="306"/>
+        <item x="217"/>
+        <item x="263"/>
+        <item x="137"/>
+        <item x="286"/>
+        <item x="33"/>
+        <item x="207"/>
+        <item x="184"/>
+        <item x="118"/>
+        <item x="330"/>
+        <item x="315"/>
+        <item x="253"/>
+        <item x="237"/>
+        <item x="398"/>
+        <item x="36"/>
+        <item x="325"/>
+        <item x="305"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="69"/>
+        <item x="27"/>
+        <item x="360"/>
+        <item x="212"/>
+        <item x="64"/>
+        <item x="261"/>
+        <item x="265"/>
+        <item x="287"/>
+        <item x="59"/>
+        <item x="422"/>
+        <item x="301"/>
+        <item x="322"/>
+        <item x="75"/>
+        <item x="146"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="150"/>
+        <item x="242"/>
+        <item x="114"/>
+        <item x="191"/>
+        <item x="371"/>
+        <item x="169"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Overfishing_Risk" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08DFE286-359C-4373-955E-AB5C3F6E86D7}" name="Tableau croisé dynamique3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="species">
+  <location ref="B5:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="479">
+        <item x="184"/>
+        <item x="274"/>
+        <item x="246"/>
+        <item x="230"/>
+        <item x="339"/>
+        <item x="96"/>
+        <item x="240"/>
+        <item x="115"/>
+        <item x="359"/>
+        <item x="201"/>
+        <item x="170"/>
+        <item x="70"/>
+        <item x="389"/>
+        <item x="393"/>
+        <item x="460"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="149"/>
+        <item x="113"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="237"/>
+        <item x="58"/>
+        <item x="195"/>
+        <item x="93"/>
+        <item x="148"/>
+        <item x="309"/>
+        <item x="363"/>
+        <item x="97"/>
+        <item x="48"/>
+        <item x="421"/>
+        <item x="76"/>
+        <item x="364"/>
+        <item x="81"/>
+        <item x="36"/>
+        <item x="186"/>
+        <item x="450"/>
+        <item x="262"/>
+        <item x="235"/>
+        <item x="122"/>
+        <item x="210"/>
+        <item x="136"/>
+        <item x="178"/>
+        <item x="353"/>
+        <item x="356"/>
+        <item x="330"/>
+        <item x="419"/>
+        <item x="365"/>
+        <item x="205"/>
+        <item x="279"/>
+        <item x="60"/>
+        <item x="381"/>
+        <item x="275"/>
+        <item x="368"/>
+        <item x="175"/>
+        <item x="197"/>
+        <item x="75"/>
+        <item x="95"/>
+        <item x="273"/>
+        <item x="352"/>
+        <item x="447"/>
+        <item x="325"/>
+        <item x="8"/>
+        <item x="196"/>
+        <item x="182"/>
+        <item x="84"/>
+        <item x="370"/>
+        <item x="49"/>
+        <item x="316"/>
+        <item x="62"/>
+        <item x="159"/>
+        <item x="471"/>
+        <item x="207"/>
+        <item x="403"/>
+        <item x="371"/>
+        <item x="293"/>
+        <item x="433"/>
+        <item x="257"/>
+        <item x="271"/>
+        <item x="326"/>
+        <item x="107"/>
+        <item x="255"/>
+        <item x="378"/>
+        <item x="110"/>
+        <item x="152"/>
+        <item x="397"/>
+        <item x="50"/>
+        <item x="477"/>
+        <item x="466"/>
+        <item x="396"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="231"/>
+        <item x="347"/>
+        <item x="375"/>
+        <item x="310"/>
+        <item x="65"/>
+        <item x="10"/>
+        <item x="294"/>
+        <item x="369"/>
+        <item x="191"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="106"/>
+        <item x="226"/>
+        <item x="391"/>
+        <item x="22"/>
+        <item x="108"/>
+        <item x="46"/>
+        <item x="25"/>
+        <item x="432"/>
+        <item x="354"/>
+        <item x="68"/>
+        <item x="66"/>
+        <item x="114"/>
+        <item x="74"/>
+        <item x="423"/>
+        <item x="109"/>
+        <item x="395"/>
+        <item x="71"/>
+        <item x="349"/>
+        <item x="415"/>
+        <item x="51"/>
+        <item x="141"/>
+        <item x="404"/>
+        <item x="119"/>
+        <item x="405"/>
+        <item x="374"/>
+        <item x="297"/>
+        <item x="265"/>
+        <item x="177"/>
+        <item x="42"/>
+        <item x="449"/>
+        <item x="176"/>
+        <item x="23"/>
+        <item x="228"/>
+        <item x="373"/>
+        <item x="313"/>
+        <item x="420"/>
+        <item x="61"/>
+        <item x="458"/>
+        <item x="223"/>
+        <item x="436"/>
+        <item x="154"/>
+        <item x="346"/>
+        <item x="212"/>
+        <item x="168"/>
+        <item x="462"/>
+        <item x="151"/>
+        <item x="169"/>
+        <item x="409"/>
+        <item x="17"/>
+        <item x="203"/>
+        <item x="214"/>
+        <item x="306"/>
+        <item x="173"/>
+        <item x="67"/>
+        <item x="464"/>
+        <item x="459"/>
+        <item x="232"/>
+        <item x="267"/>
+        <item x="362"/>
+        <item x="88"/>
+        <item x="183"/>
+        <item x="412"/>
+        <item x="105"/>
+        <item x="20"/>
+        <item x="222"/>
+        <item x="284"/>
+        <item x="377"/>
+        <item x="54"/>
+        <item x="64"/>
+        <item x="307"/>
+        <item x="90"/>
+        <item x="59"/>
+        <item x="6"/>
+        <item x="204"/>
+        <item x="406"/>
+        <item x="34"/>
+        <item x="158"/>
+        <item x="476"/>
+        <item x="26"/>
+        <item x="448"/>
+        <item x="430"/>
+        <item x="281"/>
+        <item x="337"/>
+        <item x="72"/>
+        <item x="161"/>
+        <item x="382"/>
+        <item x="78"/>
+        <item x="126"/>
+        <item x="348"/>
+        <item x="4"/>
+        <item x="407"/>
+        <item x="312"/>
+        <item x="24"/>
+        <item x="38"/>
+        <item x="304"/>
+        <item x="139"/>
+        <item x="300"/>
+        <item x="69"/>
+        <item x="268"/>
+        <item x="332"/>
+        <item x="399"/>
+        <item x="145"/>
+        <item x="156"/>
+        <item x="385"/>
+        <item x="410"/>
+        <item x="470"/>
+        <item x="276"/>
+        <item x="213"/>
+        <item x="117"/>
+        <item x="253"/>
+        <item x="35"/>
+        <item x="216"/>
+        <item x="125"/>
+        <item x="86"/>
+        <item x="386"/>
+        <item x="179"/>
+        <item x="19"/>
+        <item x="472"/>
+        <item x="336"/>
+        <item x="233"/>
+        <item x="248"/>
+        <item x="328"/>
+        <item x="318"/>
+        <item x="417"/>
+        <item x="116"/>
+        <item x="227"/>
+        <item x="334"/>
+        <item x="434"/>
+        <item x="263"/>
+        <item x="181"/>
+        <item x="473"/>
+        <item x="9"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="425"/>
+        <item x="416"/>
+        <item x="37"/>
+        <item x="259"/>
+        <item x="193"/>
+        <item x="308"/>
+        <item x="99"/>
+        <item x="172"/>
+        <item x="252"/>
+        <item x="402"/>
+        <item x="211"/>
+        <item x="331"/>
+        <item x="189"/>
+        <item x="155"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="311"/>
+        <item x="138"/>
+        <item x="269"/>
+        <item x="171"/>
+        <item x="270"/>
+        <item x="83"/>
+        <item x="431"/>
+        <item x="135"/>
+        <item x="41"/>
+        <item x="439"/>
+        <item x="400"/>
+        <item x="219"/>
+        <item x="208"/>
+        <item x="221"/>
+        <item x="341"/>
+        <item x="469"/>
+        <item x="92"/>
+        <item x="437"/>
+        <item x="27"/>
+        <item x="320"/>
+        <item x="244"/>
+        <item x="305"/>
+        <item x="392"/>
+        <item x="153"/>
+        <item x="79"/>
+        <item x="11"/>
+        <item x="217"/>
+        <item x="157"/>
+        <item x="102"/>
+        <item x="220"/>
+        <item x="388"/>
+        <item x="414"/>
+        <item x="298"/>
+        <item x="124"/>
+        <item x="16"/>
+        <item x="355"/>
+        <item x="266"/>
+        <item x="435"/>
+        <item x="187"/>
+        <item x="340"/>
+        <item x="343"/>
+        <item x="165"/>
+        <item x="73"/>
+        <item x="443"/>
+        <item x="380"/>
+        <item x="333"/>
+        <item x="277"/>
+        <item x="225"/>
+        <item x="376"/>
+        <item x="133"/>
+        <item x="350"/>
+        <item x="131"/>
+        <item x="150"/>
+        <item x="302"/>
+        <item x="457"/>
+        <item x="411"/>
+        <item x="451"/>
+        <item x="295"/>
+        <item x="134"/>
+        <item x="128"/>
+        <item x="455"/>
+        <item x="63"/>
+        <item x="215"/>
+        <item x="360"/>
+        <item x="32"/>
+        <item x="299"/>
+        <item x="272"/>
+        <item x="198"/>
+        <item x="180"/>
+        <item x="0"/>
+        <item x="98"/>
+        <item x="315"/>
+        <item x="47"/>
+        <item x="160"/>
+        <item x="53"/>
+        <item x="241"/>
+        <item x="143"/>
+        <item x="475"/>
+        <item x="456"/>
+        <item x="21"/>
+        <item x="323"/>
+        <item x="260"/>
+        <item x="18"/>
+        <item x="256"/>
+        <item x="301"/>
+        <item x="327"/>
+        <item x="342"/>
+        <item x="251"/>
+        <item x="194"/>
+        <item x="440"/>
+        <item x="286"/>
+        <item x="249"/>
+        <item x="103"/>
+        <item x="137"/>
+        <item x="314"/>
+        <item x="452"/>
+        <item x="258"/>
+        <item x="218"/>
+        <item x="55"/>
+        <item x="206"/>
+        <item x="28"/>
+        <item x="319"/>
+        <item x="474"/>
+        <item x="31"/>
+        <item x="280"/>
+        <item x="89"/>
+        <item x="200"/>
+        <item x="100"/>
+        <item x="290"/>
+        <item x="322"/>
+        <item x="422"/>
+        <item x="329"/>
+        <item x="112"/>
+        <item x="104"/>
+        <item x="192"/>
+        <item x="418"/>
+        <item x="29"/>
+        <item x="261"/>
+        <item x="147"/>
+        <item x="361"/>
+        <item x="338"/>
+        <item x="463"/>
+        <item x="85"/>
+        <item x="324"/>
+        <item x="468"/>
+        <item x="394"/>
+        <item x="288"/>
+        <item x="127"/>
+        <item x="379"/>
+        <item x="358"/>
+        <item x="123"/>
+        <item x="278"/>
+        <item x="144"/>
+        <item x="291"/>
+        <item x="408"/>
+        <item x="426"/>
+        <item x="39"/>
+        <item x="129"/>
+        <item x="441"/>
+        <item x="236"/>
+        <item x="444"/>
+        <item x="120"/>
+        <item x="250"/>
+        <item x="167"/>
+        <item x="30"/>
+        <item x="292"/>
+        <item x="344"/>
+        <item x="289"/>
+        <item x="91"/>
+        <item x="461"/>
+        <item x="118"/>
+        <item x="413"/>
+        <item x="1"/>
+        <item x="372"/>
+        <item x="3"/>
+        <item x="254"/>
+        <item x="428"/>
+        <item x="366"/>
+        <item x="209"/>
+        <item x="146"/>
+        <item x="238"/>
+        <item x="199"/>
+        <item x="453"/>
+        <item x="234"/>
+        <item x="401"/>
+        <item x="465"/>
+        <item x="12"/>
+        <item x="383"/>
+        <item x="2"/>
+        <item x="429"/>
+        <item x="202"/>
+        <item x="185"/>
+        <item x="162"/>
+        <item x="454"/>
+        <item x="82"/>
+        <item x="111"/>
+        <item x="317"/>
+        <item x="13"/>
+        <item x="438"/>
+        <item x="7"/>
+        <item x="174"/>
+        <item x="243"/>
+        <item x="424"/>
+        <item x="224"/>
+        <item x="130"/>
+        <item x="15"/>
+        <item x="296"/>
+        <item x="140"/>
+        <item x="367"/>
+        <item x="351"/>
+        <item x="390"/>
+        <item x="101"/>
+        <item x="56"/>
+        <item x="245"/>
+        <item x="387"/>
+        <item x="357"/>
+        <item x="45"/>
+        <item x="80"/>
+        <item x="384"/>
+        <item x="190"/>
+        <item x="44"/>
+        <item x="285"/>
+        <item x="264"/>
+        <item x="282"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="446"/>
+        <item x="57"/>
+        <item x="345"/>
+        <item x="445"/>
+        <item x="121"/>
+        <item x="164"/>
+        <item x="467"/>
+        <item x="247"/>
+        <item x="398"/>
+        <item x="40"/>
+        <item x="427"/>
+        <item x="132"/>
+        <item x="87"/>
+        <item x="188"/>
+        <item x="442"/>
+        <item x="283"/>
+        <item x="52"/>
+        <item x="242"/>
+        <item x="321"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="425">
+        <item x="115"/>
+        <item x="218"/>
+        <item x="58"/>
+        <item x="130"/>
+        <item x="60"/>
+        <item x="120"/>
+        <item x="420"/>
+        <item x="283"/>
+        <item x="229"/>
+        <item x="349"/>
+        <item x="367"/>
+        <item x="262"/>
+        <item x="408"/>
+        <item x="174"/>
+        <item x="182"/>
+        <item x="157"/>
+        <item x="123"/>
+        <item x="339"/>
+        <item x="323"/>
+        <item x="348"/>
+        <item x="81"/>
+        <item x="180"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="189"/>
+        <item x="79"/>
+        <item x="412"/>
+        <item x="121"/>
+        <item x="93"/>
+        <item x="240"/>
+        <item x="192"/>
+        <item x="152"/>
+        <item x="248"/>
+        <item x="10"/>
+        <item x="30"/>
+        <item x="382"/>
+        <item x="119"/>
+        <item x="316"/>
+        <item x="241"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="354"/>
+        <item x="318"/>
+        <item x="221"/>
+        <item x="68"/>
+        <item x="122"/>
+        <item x="29"/>
+        <item x="279"/>
+        <item x="128"/>
+        <item x="387"/>
+        <item x="383"/>
+        <item x="254"/>
+        <item x="309"/>
+        <item x="61"/>
+        <item x="208"/>
+        <item x="14"/>
+        <item x="139"/>
+        <item x="90"/>
+        <item x="224"/>
+        <item x="87"/>
+        <item x="410"/>
+        <item x="326"/>
+        <item x="141"/>
+        <item x="227"/>
+        <item x="260"/>
+        <item x="2"/>
+        <item x="39"/>
+        <item x="15"/>
+        <item x="308"/>
+        <item x="297"/>
+        <item x="280"/>
+        <item x="47"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="277"/>
+        <item x="204"/>
+        <item x="43"/>
+        <item x="340"/>
+        <item x="238"/>
+        <item x="236"/>
+        <item x="233"/>
+        <item x="415"/>
+        <item x="28"/>
+        <item x="116"/>
+        <item x="210"/>
+        <item x="89"/>
+        <item x="220"/>
+        <item x="272"/>
+        <item x="358"/>
+        <item x="278"/>
+        <item x="312"/>
+        <item x="162"/>
+        <item x="356"/>
+        <item x="414"/>
+        <item x="291"/>
+        <item x="216"/>
+        <item x="259"/>
+        <item x="154"/>
+        <item x="411"/>
+        <item x="393"/>
+        <item x="376"/>
+        <item x="392"/>
+        <item x="206"/>
+        <item x="202"/>
+        <item x="289"/>
+        <item x="19"/>
+        <item x="187"/>
+        <item x="144"/>
+        <item x="166"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="126"/>
+        <item x="178"/>
+        <item x="136"/>
+        <item x="186"/>
+        <item x="228"/>
+        <item x="372"/>
+        <item x="285"/>
+        <item x="132"/>
+        <item x="257"/>
+        <item x="268"/>
+        <item x="86"/>
+        <item x="62"/>
+        <item x="269"/>
+        <item x="321"/>
+        <item x="421"/>
+        <item x="293"/>
+        <item x="222"/>
+        <item x="183"/>
+        <item x="394"/>
+        <item x="351"/>
+        <item x="205"/>
+        <item x="129"/>
+        <item x="50"/>
+        <item x="313"/>
+        <item x="51"/>
+        <item x="26"/>
+        <item x="401"/>
+        <item x="320"/>
+        <item x="373"/>
+        <item x="98"/>
+        <item x="250"/>
+        <item x="379"/>
+        <item x="225"/>
+        <item x="399"/>
+        <item x="247"/>
+        <item x="117"/>
+        <item x="140"/>
+        <item x="232"/>
+        <item x="300"/>
+        <item x="37"/>
+        <item x="418"/>
+        <item x="127"/>
+        <item x="389"/>
+        <item x="153"/>
+        <item x="355"/>
+        <item x="24"/>
+        <item x="11"/>
+        <item x="52"/>
+        <item x="381"/>
+        <item x="361"/>
+        <item x="112"/>
+        <item x="357"/>
+        <item x="1"/>
+        <item x="110"/>
+        <item x="230"/>
+        <item x="295"/>
+        <item x="32"/>
+        <item x="341"/>
+        <item x="103"/>
+        <item x="267"/>
+        <item x="244"/>
+        <item x="405"/>
+        <item x="395"/>
+        <item x="397"/>
+        <item x="281"/>
+        <item x="94"/>
+        <item x="177"/>
+        <item x="55"/>
+        <item x="113"/>
+        <item x="171"/>
+        <item x="298"/>
+        <item x="213"/>
+        <item x="374"/>
+        <item x="131"/>
+        <item x="252"/>
+        <item x="345"/>
+        <item x="275"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="179"/>
+        <item x="343"/>
+        <item x="124"/>
+        <item x="338"/>
+        <item x="100"/>
+        <item x="311"/>
+        <item x="40"/>
+        <item x="334"/>
+        <item x="168"/>
+        <item x="353"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="365"/>
+        <item x="380"/>
+        <item x="366"/>
+        <item x="167"/>
+        <item x="194"/>
+        <item x="163"/>
+        <item x="109"/>
+        <item x="67"/>
+        <item x="95"/>
+        <item x="165"/>
+        <item x="256"/>
+        <item x="7"/>
+        <item x="102"/>
+        <item x="282"/>
+        <item x="190"/>
+        <item x="402"/>
+        <item x="317"/>
+        <item x="106"/>
+        <item x="42"/>
+        <item x="352"/>
+        <item x="276"/>
+        <item x="198"/>
+        <item x="336"/>
+        <item x="84"/>
+        <item x="407"/>
+        <item x="290"/>
+        <item x="223"/>
+        <item x="99"/>
+        <item x="274"/>
+        <item x="310"/>
+        <item x="196"/>
+        <item x="104"/>
+        <item x="22"/>
+        <item x="385"/>
+        <item x="423"/>
+        <item x="125"/>
+        <item x="416"/>
+        <item x="82"/>
+        <item x="145"/>
+        <item x="135"/>
+        <item x="294"/>
+        <item x="384"/>
+        <item x="342"/>
+        <item x="246"/>
+        <item x="164"/>
+        <item x="54"/>
+        <item x="391"/>
+        <item x="148"/>
+        <item x="377"/>
+        <item x="400"/>
+        <item x="368"/>
+        <item x="288"/>
+        <item x="35"/>
+        <item x="333"/>
+        <item x="329"/>
+        <item x="344"/>
+        <item x="328"/>
+        <item x="172"/>
+        <item x="48"/>
+        <item x="331"/>
+        <item x="363"/>
+        <item x="161"/>
+        <item x="378"/>
+        <item x="20"/>
+        <item x="74"/>
+        <item x="71"/>
+        <item x="413"/>
+        <item x="96"/>
+        <item x="0"/>
+        <item x="77"/>
+        <item x="245"/>
+        <item x="97"/>
+        <item x="292"/>
+        <item x="388"/>
+        <item x="350"/>
+        <item x="370"/>
+        <item x="303"/>
+        <item x="335"/>
+        <item x="107"/>
+        <item x="197"/>
+        <item x="386"/>
+        <item x="396"/>
+        <item x="80"/>
+        <item x="324"/>
+        <item x="243"/>
+        <item x="299"/>
+        <item x="5"/>
+        <item x="419"/>
+        <item x="417"/>
+        <item x="66"/>
+        <item x="4"/>
+        <item x="78"/>
+        <item x="188"/>
+        <item x="209"/>
+        <item x="53"/>
+        <item x="404"/>
+        <item x="239"/>
+        <item x="273"/>
+        <item x="134"/>
+        <item x="13"/>
+        <item x="34"/>
+        <item x="302"/>
+        <item x="73"/>
+        <item x="270"/>
+        <item x="88"/>
+        <item x="18"/>
+        <item x="200"/>
+        <item x="185"/>
+        <item x="108"/>
+        <item x="151"/>
+        <item x="346"/>
+        <item x="92"/>
+        <item x="271"/>
+        <item x="173"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="219"/>
+        <item x="304"/>
+        <item x="70"/>
+        <item x="72"/>
+        <item x="266"/>
+        <item x="364"/>
+        <item x="25"/>
+        <item x="258"/>
+        <item x="314"/>
+        <item x="403"/>
+        <item x="332"/>
+        <item x="337"/>
+        <item x="235"/>
+        <item x="65"/>
+        <item x="369"/>
+        <item x="91"/>
+        <item x="284"/>
+        <item x="143"/>
+        <item x="160"/>
+        <item x="105"/>
+        <item x="63"/>
+        <item x="8"/>
+        <item x="226"/>
+        <item x="215"/>
+        <item x="249"/>
+        <item x="6"/>
+        <item x="319"/>
+        <item x="159"/>
+        <item x="155"/>
+        <item x="375"/>
+        <item x="31"/>
+        <item x="23"/>
+        <item x="231"/>
+        <item x="359"/>
+        <item x="44"/>
+        <item x="362"/>
+        <item x="45"/>
+        <item x="181"/>
+        <item x="133"/>
+        <item x="255"/>
+        <item x="264"/>
+        <item x="390"/>
+        <item x="176"/>
+        <item x="406"/>
+        <item x="199"/>
+        <item x="201"/>
+        <item x="347"/>
+        <item x="111"/>
+        <item x="214"/>
+        <item x="211"/>
+        <item x="193"/>
+        <item x="147"/>
+        <item x="101"/>
+        <item x="175"/>
+        <item x="327"/>
+        <item x="170"/>
+        <item x="3"/>
+        <item x="76"/>
+        <item x="149"/>
+        <item x="195"/>
+        <item x="306"/>
+        <item x="217"/>
+        <item x="263"/>
+        <item x="137"/>
+        <item x="286"/>
+        <item x="33"/>
+        <item x="207"/>
+        <item x="184"/>
+        <item x="118"/>
+        <item x="330"/>
+        <item x="315"/>
+        <item x="253"/>
+        <item x="237"/>
+        <item x="398"/>
+        <item x="36"/>
+        <item x="325"/>
+        <item x="305"/>
+        <item x="38"/>
+        <item x="46"/>
+        <item x="142"/>
+        <item x="158"/>
+        <item x="69"/>
+        <item x="27"/>
+        <item x="360"/>
+        <item x="212"/>
+        <item x="64"/>
+        <item x="261"/>
+        <item x="265"/>
+        <item x="287"/>
+        <item x="59"/>
+        <item x="422"/>
+        <item x="301"/>
+        <item x="322"/>
+        <item x="75"/>
+        <item x="146"/>
+        <item x="296"/>
+        <item x="409"/>
+        <item x="150"/>
+        <item x="242"/>
+        <item x="114"/>
+        <item x="191"/>
+        <item x="371"/>
+        <item x="169"/>
+        <item x="83"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Moyenne de Average_Size(cm)" fld="5" subtotal="average" baseField="0" baseItem="5" numFmtId="1"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{453BCABE-285E-4317-A9E8-F4D8EAEF6939}" name="Tableau croisé dynamique7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20" rowHeaderCaption="Region" colHeaderCaption="pollution">
   <location ref="S5:W8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="9">
         <item h="1" x="2"/>
         <item h="1" x="3"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item h="1" x="0"/>
         <item h="1" x="5"/>
-        <item h="1" x="6"/>
+        <item x="6"/>
         <item h="1" x="7"/>
         <item h="1" x="1"/>
         <item t="default"/>
@@ -14172,8 +18353,8 @@
     <pivotField showAll="0">
       <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15210,4184 +19391,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F50AC2A-A4D9-4E89-B36A-6E1EDB010CCA}" name="Tableau croisé dynamique6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17" rowHeaderCaption="breeding" colHeaderCaption="species">
-  <location ref="M5:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="9">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="479">
-        <item x="184"/>
-        <item x="274"/>
-        <item x="246"/>
-        <item x="230"/>
-        <item x="339"/>
-        <item x="96"/>
-        <item x="240"/>
-        <item x="115"/>
-        <item x="359"/>
-        <item x="201"/>
-        <item x="170"/>
-        <item x="70"/>
-        <item x="389"/>
-        <item x="393"/>
-        <item x="460"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="149"/>
-        <item x="113"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="237"/>
-        <item x="58"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="148"/>
-        <item x="309"/>
-        <item x="363"/>
-        <item x="97"/>
-        <item x="48"/>
-        <item x="421"/>
-        <item x="76"/>
-        <item x="364"/>
-        <item x="81"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="450"/>
-        <item x="262"/>
-        <item x="235"/>
-        <item x="122"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="178"/>
-        <item x="353"/>
-        <item x="356"/>
-        <item x="330"/>
-        <item x="419"/>
-        <item x="365"/>
-        <item x="205"/>
-        <item x="279"/>
-        <item x="60"/>
-        <item x="381"/>
-        <item x="275"/>
-        <item x="368"/>
-        <item x="175"/>
-        <item x="197"/>
-        <item x="75"/>
-        <item x="95"/>
-        <item x="273"/>
-        <item x="352"/>
-        <item x="447"/>
-        <item x="325"/>
-        <item x="8"/>
-        <item x="196"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="370"/>
-        <item x="49"/>
-        <item x="316"/>
-        <item x="62"/>
-        <item x="159"/>
-        <item x="471"/>
-        <item x="207"/>
-        <item x="403"/>
-        <item x="371"/>
-        <item x="293"/>
-        <item x="433"/>
-        <item x="257"/>
-        <item x="271"/>
-        <item x="326"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="378"/>
-        <item x="110"/>
-        <item x="152"/>
-        <item x="397"/>
-        <item x="50"/>
-        <item x="477"/>
-        <item x="466"/>
-        <item x="396"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="231"/>
-        <item x="347"/>
-        <item x="375"/>
-        <item x="310"/>
-        <item x="65"/>
-        <item x="10"/>
-        <item x="294"/>
-        <item x="369"/>
-        <item x="191"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="106"/>
-        <item x="226"/>
-        <item x="391"/>
-        <item x="22"/>
-        <item x="108"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="432"/>
-        <item x="354"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="114"/>
-        <item x="74"/>
-        <item x="423"/>
-        <item x="109"/>
-        <item x="395"/>
-        <item x="71"/>
-        <item x="349"/>
-        <item x="415"/>
-        <item x="51"/>
-        <item x="141"/>
-        <item x="404"/>
-        <item x="119"/>
-        <item x="405"/>
-        <item x="374"/>
-        <item x="297"/>
-        <item x="265"/>
-        <item x="177"/>
-        <item x="42"/>
-        <item x="449"/>
-        <item x="176"/>
-        <item x="23"/>
-        <item x="228"/>
-        <item x="373"/>
-        <item x="313"/>
-        <item x="420"/>
-        <item x="61"/>
-        <item x="458"/>
-        <item x="223"/>
-        <item x="436"/>
-        <item x="154"/>
-        <item x="346"/>
-        <item x="212"/>
-        <item x="168"/>
-        <item x="462"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="409"/>
-        <item x="17"/>
-        <item x="203"/>
-        <item x="214"/>
-        <item x="306"/>
-        <item x="173"/>
-        <item x="67"/>
-        <item x="464"/>
-        <item x="459"/>
-        <item x="232"/>
-        <item x="267"/>
-        <item x="362"/>
-        <item x="88"/>
-        <item x="183"/>
-        <item x="412"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="222"/>
-        <item x="284"/>
-        <item x="377"/>
-        <item x="54"/>
-        <item x="64"/>
-        <item x="307"/>
-        <item x="90"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="204"/>
-        <item x="406"/>
-        <item x="34"/>
-        <item x="158"/>
-        <item x="476"/>
-        <item x="26"/>
-        <item x="448"/>
-        <item x="430"/>
-        <item x="281"/>
-        <item x="337"/>
-        <item x="72"/>
-        <item x="161"/>
-        <item x="382"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="348"/>
-        <item x="4"/>
-        <item x="407"/>
-        <item x="312"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="304"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="69"/>
-        <item x="268"/>
-        <item x="332"/>
-        <item x="399"/>
-        <item x="145"/>
-        <item x="156"/>
-        <item x="385"/>
-        <item x="410"/>
-        <item x="470"/>
-        <item x="276"/>
-        <item x="213"/>
-        <item x="117"/>
-        <item x="253"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="125"/>
-        <item x="86"/>
-        <item x="386"/>
-        <item x="179"/>
-        <item x="19"/>
-        <item x="472"/>
-        <item x="336"/>
-        <item x="233"/>
-        <item x="248"/>
-        <item x="328"/>
-        <item x="318"/>
-        <item x="417"/>
-        <item x="116"/>
-        <item x="227"/>
-        <item x="334"/>
-        <item x="434"/>
-        <item x="263"/>
-        <item x="181"/>
-        <item x="473"/>
-        <item x="9"/>
-        <item x="163"/>
-        <item x="142"/>
-        <item x="425"/>
-        <item x="416"/>
-        <item x="37"/>
-        <item x="259"/>
-        <item x="193"/>
-        <item x="308"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="252"/>
-        <item x="402"/>
-        <item x="211"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="155"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="311"/>
-        <item x="138"/>
-        <item x="269"/>
-        <item x="171"/>
-        <item x="270"/>
-        <item x="83"/>
-        <item x="431"/>
-        <item x="135"/>
-        <item x="41"/>
-        <item x="439"/>
-        <item x="400"/>
-        <item x="219"/>
-        <item x="208"/>
-        <item x="221"/>
-        <item x="341"/>
-        <item x="469"/>
-        <item x="92"/>
-        <item x="437"/>
-        <item x="27"/>
-        <item x="320"/>
-        <item x="244"/>
-        <item x="305"/>
-        <item x="392"/>
-        <item x="153"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="217"/>
-        <item x="157"/>
-        <item x="102"/>
-        <item x="220"/>
-        <item x="388"/>
-        <item x="414"/>
-        <item x="298"/>
-        <item x="124"/>
-        <item x="16"/>
-        <item x="355"/>
-        <item x="266"/>
-        <item x="435"/>
-        <item x="187"/>
-        <item x="340"/>
-        <item x="343"/>
-        <item x="165"/>
-        <item x="73"/>
-        <item x="443"/>
-        <item x="380"/>
-        <item x="333"/>
-        <item x="277"/>
-        <item x="225"/>
-        <item x="376"/>
-        <item x="133"/>
-        <item x="350"/>
-        <item x="131"/>
-        <item x="150"/>
-        <item x="302"/>
-        <item x="457"/>
-        <item x="411"/>
-        <item x="451"/>
-        <item x="295"/>
-        <item x="134"/>
-        <item x="128"/>
-        <item x="455"/>
-        <item x="63"/>
-        <item x="215"/>
-        <item x="360"/>
-        <item x="32"/>
-        <item x="299"/>
-        <item x="272"/>
-        <item x="198"/>
-        <item x="180"/>
-        <item x="0"/>
-        <item x="98"/>
-        <item x="315"/>
-        <item x="47"/>
-        <item x="160"/>
-        <item x="53"/>
-        <item x="241"/>
-        <item x="143"/>
-        <item x="475"/>
-        <item x="456"/>
-        <item x="21"/>
-        <item x="323"/>
-        <item x="260"/>
-        <item x="18"/>
-        <item x="256"/>
-        <item x="301"/>
-        <item x="327"/>
-        <item x="342"/>
-        <item x="251"/>
-        <item x="194"/>
-        <item x="440"/>
-        <item x="286"/>
-        <item x="249"/>
-        <item x="103"/>
-        <item x="137"/>
-        <item x="314"/>
-        <item x="452"/>
-        <item x="258"/>
-        <item x="218"/>
-        <item x="55"/>
-        <item x="206"/>
-        <item x="28"/>
-        <item x="319"/>
-        <item x="474"/>
-        <item x="31"/>
-        <item x="280"/>
-        <item x="89"/>
-        <item x="200"/>
-        <item x="100"/>
-        <item x="290"/>
-        <item x="322"/>
-        <item x="422"/>
-        <item x="329"/>
-        <item x="112"/>
-        <item x="104"/>
-        <item x="192"/>
-        <item x="418"/>
-        <item x="29"/>
-        <item x="261"/>
-        <item x="147"/>
-        <item x="361"/>
-        <item x="338"/>
-        <item x="463"/>
-        <item x="85"/>
-        <item x="324"/>
-        <item x="468"/>
-        <item x="394"/>
-        <item x="288"/>
-        <item x="127"/>
-        <item x="379"/>
-        <item x="358"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="144"/>
-        <item x="291"/>
-        <item x="408"/>
-        <item x="426"/>
-        <item x="39"/>
-        <item x="129"/>
-        <item x="441"/>
-        <item x="236"/>
-        <item x="444"/>
-        <item x="120"/>
-        <item x="250"/>
-        <item x="167"/>
-        <item x="30"/>
-        <item x="292"/>
-        <item x="344"/>
-        <item x="289"/>
-        <item x="91"/>
-        <item x="461"/>
-        <item x="118"/>
-        <item x="413"/>
-        <item x="1"/>
-        <item x="372"/>
-        <item x="3"/>
-        <item x="254"/>
-        <item x="428"/>
-        <item x="366"/>
-        <item x="209"/>
-        <item x="146"/>
-        <item x="238"/>
-        <item x="199"/>
-        <item x="453"/>
-        <item x="234"/>
-        <item x="401"/>
-        <item x="465"/>
-        <item x="12"/>
-        <item x="383"/>
-        <item x="2"/>
-        <item x="429"/>
-        <item x="202"/>
-        <item x="185"/>
-        <item x="162"/>
-        <item x="454"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="317"/>
-        <item x="13"/>
-        <item x="438"/>
-        <item x="7"/>
-        <item x="174"/>
-        <item x="243"/>
-        <item x="424"/>
-        <item x="224"/>
-        <item x="130"/>
-        <item x="15"/>
-        <item x="296"/>
-        <item x="140"/>
-        <item x="367"/>
-        <item x="351"/>
-        <item x="390"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="245"/>
-        <item x="387"/>
-        <item x="357"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="384"/>
-        <item x="190"/>
-        <item x="44"/>
-        <item x="285"/>
-        <item x="264"/>
-        <item x="282"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="446"/>
-        <item x="57"/>
-        <item x="345"/>
-        <item x="445"/>
-        <item x="121"/>
-        <item x="164"/>
-        <item x="467"/>
-        <item x="247"/>
-        <item x="398"/>
-        <item x="40"/>
-        <item x="427"/>
-        <item x="132"/>
-        <item x="87"/>
-        <item x="188"/>
-        <item x="442"/>
-        <item x="283"/>
-        <item x="52"/>
-        <item x="242"/>
-        <item x="321"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="425">
-        <item x="115"/>
-        <item x="218"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="60"/>
-        <item x="120"/>
-        <item x="420"/>
-        <item x="283"/>
-        <item x="229"/>
-        <item x="349"/>
-        <item x="367"/>
-        <item x="262"/>
-        <item x="408"/>
-        <item x="174"/>
-        <item x="182"/>
-        <item x="157"/>
-        <item x="123"/>
-        <item x="339"/>
-        <item x="323"/>
-        <item x="348"/>
-        <item x="81"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="189"/>
-        <item x="79"/>
-        <item x="412"/>
-        <item x="121"/>
-        <item x="93"/>
-        <item x="240"/>
-        <item x="192"/>
-        <item x="152"/>
-        <item x="248"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="382"/>
-        <item x="119"/>
-        <item x="316"/>
-        <item x="241"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="354"/>
-        <item x="318"/>
-        <item x="221"/>
-        <item x="68"/>
-        <item x="122"/>
-        <item x="29"/>
-        <item x="279"/>
-        <item x="128"/>
-        <item x="387"/>
-        <item x="383"/>
-        <item x="254"/>
-        <item x="309"/>
-        <item x="61"/>
-        <item x="208"/>
-        <item x="14"/>
-        <item x="139"/>
-        <item x="90"/>
-        <item x="224"/>
-        <item x="87"/>
-        <item x="410"/>
-        <item x="326"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="260"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="308"/>
-        <item x="297"/>
-        <item x="280"/>
-        <item x="47"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="277"/>
-        <item x="204"/>
-        <item x="43"/>
-        <item x="340"/>
-        <item x="238"/>
-        <item x="236"/>
-        <item x="233"/>
-        <item x="415"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="210"/>
-        <item x="89"/>
-        <item x="220"/>
-        <item x="272"/>
-        <item x="358"/>
-        <item x="278"/>
-        <item x="312"/>
-        <item x="162"/>
-        <item x="356"/>
-        <item x="414"/>
-        <item x="291"/>
-        <item x="216"/>
-        <item x="259"/>
-        <item x="154"/>
-        <item x="411"/>
-        <item x="393"/>
-        <item x="376"/>
-        <item x="392"/>
-        <item x="206"/>
-        <item x="202"/>
-        <item x="289"/>
-        <item x="19"/>
-        <item x="187"/>
-        <item x="144"/>
-        <item x="166"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="126"/>
-        <item x="178"/>
-        <item x="136"/>
-        <item x="186"/>
-        <item x="228"/>
-        <item x="372"/>
-        <item x="285"/>
-        <item x="132"/>
-        <item x="257"/>
-        <item x="268"/>
-        <item x="86"/>
-        <item x="62"/>
-        <item x="269"/>
-        <item x="321"/>
-        <item x="421"/>
-        <item x="293"/>
-        <item x="222"/>
-        <item x="183"/>
-        <item x="394"/>
-        <item x="351"/>
-        <item x="205"/>
-        <item x="129"/>
-        <item x="50"/>
-        <item x="313"/>
-        <item x="51"/>
-        <item x="26"/>
-        <item x="401"/>
-        <item x="320"/>
-        <item x="373"/>
-        <item x="98"/>
-        <item x="250"/>
-        <item x="379"/>
-        <item x="225"/>
-        <item x="399"/>
-        <item x="247"/>
-        <item x="117"/>
-        <item x="140"/>
-        <item x="232"/>
-        <item x="300"/>
-        <item x="37"/>
-        <item x="418"/>
-        <item x="127"/>
-        <item x="389"/>
-        <item x="153"/>
-        <item x="355"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="381"/>
-        <item x="361"/>
-        <item x="112"/>
-        <item x="357"/>
-        <item x="1"/>
-        <item x="110"/>
-        <item x="230"/>
-        <item x="295"/>
-        <item x="32"/>
-        <item x="341"/>
-        <item x="103"/>
-        <item x="267"/>
-        <item x="244"/>
-        <item x="405"/>
-        <item x="395"/>
-        <item x="397"/>
-        <item x="281"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="171"/>
-        <item x="298"/>
-        <item x="213"/>
-        <item x="374"/>
-        <item x="131"/>
-        <item x="252"/>
-        <item x="345"/>
-        <item x="275"/>
-        <item x="85"/>
-        <item x="49"/>
-        <item x="179"/>
-        <item x="343"/>
-        <item x="124"/>
-        <item x="338"/>
-        <item x="100"/>
-        <item x="311"/>
-        <item x="40"/>
-        <item x="334"/>
-        <item x="168"/>
-        <item x="353"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="365"/>
-        <item x="380"/>
-        <item x="366"/>
-        <item x="167"/>
-        <item x="194"/>
-        <item x="163"/>
-        <item x="109"/>
-        <item x="67"/>
-        <item x="95"/>
-        <item x="165"/>
-        <item x="256"/>
-        <item x="7"/>
-        <item x="102"/>
-        <item x="282"/>
-        <item x="190"/>
-        <item x="402"/>
-        <item x="317"/>
-        <item x="106"/>
-        <item x="42"/>
-        <item x="352"/>
-        <item x="276"/>
-        <item x="198"/>
-        <item x="336"/>
-        <item x="84"/>
-        <item x="407"/>
-        <item x="290"/>
-        <item x="223"/>
-        <item x="99"/>
-        <item x="274"/>
-        <item x="310"/>
-        <item x="196"/>
-        <item x="104"/>
-        <item x="22"/>
-        <item x="385"/>
-        <item x="423"/>
-        <item x="125"/>
-        <item x="416"/>
-        <item x="82"/>
-        <item x="145"/>
-        <item x="135"/>
-        <item x="294"/>
-        <item x="384"/>
-        <item x="342"/>
-        <item x="246"/>
-        <item x="164"/>
-        <item x="54"/>
-        <item x="391"/>
-        <item x="148"/>
-        <item x="377"/>
-        <item x="400"/>
-        <item x="368"/>
-        <item x="288"/>
-        <item x="35"/>
-        <item x="333"/>
-        <item x="329"/>
-        <item x="344"/>
-        <item x="328"/>
-        <item x="172"/>
-        <item x="48"/>
-        <item x="331"/>
-        <item x="363"/>
-        <item x="161"/>
-        <item x="378"/>
-        <item x="20"/>
-        <item x="74"/>
-        <item x="71"/>
-        <item x="413"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="77"/>
-        <item x="245"/>
-        <item x="97"/>
-        <item x="292"/>
-        <item x="388"/>
-        <item x="350"/>
-        <item x="370"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="107"/>
-        <item x="197"/>
-        <item x="386"/>
-        <item x="396"/>
-        <item x="80"/>
-        <item x="324"/>
-        <item x="243"/>
-        <item x="299"/>
-        <item x="5"/>
-        <item x="419"/>
-        <item x="417"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="404"/>
-        <item x="239"/>
-        <item x="273"/>
-        <item x="134"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="302"/>
-        <item x="73"/>
-        <item x="270"/>
-        <item x="88"/>
-        <item x="18"/>
-        <item x="200"/>
-        <item x="185"/>
-        <item x="108"/>
-        <item x="151"/>
-        <item x="346"/>
-        <item x="92"/>
-        <item x="271"/>
-        <item x="173"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="219"/>
-        <item x="304"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="266"/>
-        <item x="364"/>
-        <item x="25"/>
-        <item x="258"/>
-        <item x="314"/>
-        <item x="403"/>
-        <item x="332"/>
-        <item x="337"/>
-        <item x="235"/>
-        <item x="65"/>
-        <item x="369"/>
-        <item x="91"/>
-        <item x="284"/>
-        <item x="143"/>
-        <item x="160"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="8"/>
-        <item x="226"/>
-        <item x="215"/>
-        <item x="249"/>
-        <item x="6"/>
-        <item x="319"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="375"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="231"/>
-        <item x="359"/>
-        <item x="44"/>
-        <item x="362"/>
-        <item x="45"/>
-        <item x="181"/>
-        <item x="133"/>
-        <item x="255"/>
-        <item x="264"/>
-        <item x="390"/>
-        <item x="176"/>
-        <item x="406"/>
-        <item x="199"/>
-        <item x="201"/>
-        <item x="347"/>
-        <item x="111"/>
-        <item x="214"/>
-        <item x="211"/>
-        <item x="193"/>
-        <item x="147"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="327"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="76"/>
-        <item x="149"/>
-        <item x="195"/>
-        <item x="306"/>
-        <item x="217"/>
-        <item x="263"/>
-        <item x="137"/>
-        <item x="286"/>
-        <item x="33"/>
-        <item x="207"/>
-        <item x="184"/>
-        <item x="118"/>
-        <item x="330"/>
-        <item x="315"/>
-        <item x="253"/>
-        <item x="237"/>
-        <item x="398"/>
-        <item x="36"/>
-        <item x="325"/>
-        <item x="305"/>
-        <item x="38"/>
-        <item x="46"/>
-        <item x="142"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="27"/>
-        <item x="360"/>
-        <item x="212"/>
-        <item x="64"/>
-        <item x="261"/>
-        <item x="265"/>
-        <item x="287"/>
-        <item x="59"/>
-        <item x="422"/>
-        <item x="301"/>
-        <item x="322"/>
-        <item x="75"/>
-        <item x="146"/>
-        <item x="296"/>
-        <item x="409"/>
-        <item x="150"/>
-        <item x="242"/>
-        <item x="114"/>
-        <item x="191"/>
-        <item x="371"/>
-        <item x="169"/>
-        <item x="83"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Species_Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="16" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{400B5A10-9DCA-4044-B460-84AF54F1464A}" name="Tableau croisé dynamique5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" rowHeaderCaption="Pollution">
-  <location ref="H5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="9">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="479">
-        <item x="184"/>
-        <item x="274"/>
-        <item x="246"/>
-        <item x="230"/>
-        <item x="339"/>
-        <item x="96"/>
-        <item x="240"/>
-        <item x="115"/>
-        <item x="359"/>
-        <item x="201"/>
-        <item x="170"/>
-        <item x="70"/>
-        <item x="389"/>
-        <item x="393"/>
-        <item x="460"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="149"/>
-        <item x="113"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="237"/>
-        <item x="58"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="148"/>
-        <item x="309"/>
-        <item x="363"/>
-        <item x="97"/>
-        <item x="48"/>
-        <item x="421"/>
-        <item x="76"/>
-        <item x="364"/>
-        <item x="81"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="450"/>
-        <item x="262"/>
-        <item x="235"/>
-        <item x="122"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="178"/>
-        <item x="353"/>
-        <item x="356"/>
-        <item x="330"/>
-        <item x="419"/>
-        <item x="365"/>
-        <item x="205"/>
-        <item x="279"/>
-        <item x="60"/>
-        <item x="381"/>
-        <item x="275"/>
-        <item x="368"/>
-        <item x="175"/>
-        <item x="197"/>
-        <item x="75"/>
-        <item x="95"/>
-        <item x="273"/>
-        <item x="352"/>
-        <item x="447"/>
-        <item x="325"/>
-        <item x="8"/>
-        <item x="196"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="370"/>
-        <item x="49"/>
-        <item x="316"/>
-        <item x="62"/>
-        <item x="159"/>
-        <item x="471"/>
-        <item x="207"/>
-        <item x="403"/>
-        <item x="371"/>
-        <item x="293"/>
-        <item x="433"/>
-        <item x="257"/>
-        <item x="271"/>
-        <item x="326"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="378"/>
-        <item x="110"/>
-        <item x="152"/>
-        <item x="397"/>
-        <item x="50"/>
-        <item x="477"/>
-        <item x="466"/>
-        <item x="396"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="231"/>
-        <item x="347"/>
-        <item x="375"/>
-        <item x="310"/>
-        <item x="65"/>
-        <item x="10"/>
-        <item x="294"/>
-        <item x="369"/>
-        <item x="191"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="106"/>
-        <item x="226"/>
-        <item x="391"/>
-        <item x="22"/>
-        <item x="108"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="432"/>
-        <item x="354"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="114"/>
-        <item x="74"/>
-        <item x="423"/>
-        <item x="109"/>
-        <item x="395"/>
-        <item x="71"/>
-        <item x="349"/>
-        <item x="415"/>
-        <item x="51"/>
-        <item x="141"/>
-        <item x="404"/>
-        <item x="119"/>
-        <item x="405"/>
-        <item x="374"/>
-        <item x="297"/>
-        <item x="265"/>
-        <item x="177"/>
-        <item x="42"/>
-        <item x="449"/>
-        <item x="176"/>
-        <item x="23"/>
-        <item x="228"/>
-        <item x="373"/>
-        <item x="313"/>
-        <item x="420"/>
-        <item x="61"/>
-        <item x="458"/>
-        <item x="223"/>
-        <item x="436"/>
-        <item x="154"/>
-        <item x="346"/>
-        <item x="212"/>
-        <item x="168"/>
-        <item x="462"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="409"/>
-        <item x="17"/>
-        <item x="203"/>
-        <item x="214"/>
-        <item x="306"/>
-        <item x="173"/>
-        <item x="67"/>
-        <item x="464"/>
-        <item x="459"/>
-        <item x="232"/>
-        <item x="267"/>
-        <item x="362"/>
-        <item x="88"/>
-        <item x="183"/>
-        <item x="412"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="222"/>
-        <item x="284"/>
-        <item x="377"/>
-        <item x="54"/>
-        <item x="64"/>
-        <item x="307"/>
-        <item x="90"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="204"/>
-        <item x="406"/>
-        <item x="34"/>
-        <item x="158"/>
-        <item x="476"/>
-        <item x="26"/>
-        <item x="448"/>
-        <item x="430"/>
-        <item x="281"/>
-        <item x="337"/>
-        <item x="72"/>
-        <item x="161"/>
-        <item x="382"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="348"/>
-        <item x="4"/>
-        <item x="407"/>
-        <item x="312"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="304"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="69"/>
-        <item x="268"/>
-        <item x="332"/>
-        <item x="399"/>
-        <item x="145"/>
-        <item x="156"/>
-        <item x="385"/>
-        <item x="410"/>
-        <item x="470"/>
-        <item x="276"/>
-        <item x="213"/>
-        <item x="117"/>
-        <item x="253"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="125"/>
-        <item x="86"/>
-        <item x="386"/>
-        <item x="179"/>
-        <item x="19"/>
-        <item x="472"/>
-        <item x="336"/>
-        <item x="233"/>
-        <item x="248"/>
-        <item x="328"/>
-        <item x="318"/>
-        <item x="417"/>
-        <item x="116"/>
-        <item x="227"/>
-        <item x="334"/>
-        <item x="434"/>
-        <item x="263"/>
-        <item x="181"/>
-        <item x="473"/>
-        <item x="9"/>
-        <item x="163"/>
-        <item x="142"/>
-        <item x="425"/>
-        <item x="416"/>
-        <item x="37"/>
-        <item x="259"/>
-        <item x="193"/>
-        <item x="308"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="252"/>
-        <item x="402"/>
-        <item x="211"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="155"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="311"/>
-        <item x="138"/>
-        <item x="269"/>
-        <item x="171"/>
-        <item x="270"/>
-        <item x="83"/>
-        <item x="431"/>
-        <item x="135"/>
-        <item x="41"/>
-        <item x="439"/>
-        <item x="400"/>
-        <item x="219"/>
-        <item x="208"/>
-        <item x="221"/>
-        <item x="341"/>
-        <item x="469"/>
-        <item x="92"/>
-        <item x="437"/>
-        <item x="27"/>
-        <item x="320"/>
-        <item x="244"/>
-        <item x="305"/>
-        <item x="392"/>
-        <item x="153"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="217"/>
-        <item x="157"/>
-        <item x="102"/>
-        <item x="220"/>
-        <item x="388"/>
-        <item x="414"/>
-        <item x="298"/>
-        <item x="124"/>
-        <item x="16"/>
-        <item x="355"/>
-        <item x="266"/>
-        <item x="435"/>
-        <item x="187"/>
-        <item x="340"/>
-        <item x="343"/>
-        <item x="165"/>
-        <item x="73"/>
-        <item x="443"/>
-        <item x="380"/>
-        <item x="333"/>
-        <item x="277"/>
-        <item x="225"/>
-        <item x="376"/>
-        <item x="133"/>
-        <item x="350"/>
-        <item x="131"/>
-        <item x="150"/>
-        <item x="302"/>
-        <item x="457"/>
-        <item x="411"/>
-        <item x="451"/>
-        <item x="295"/>
-        <item x="134"/>
-        <item x="128"/>
-        <item x="455"/>
-        <item x="63"/>
-        <item x="215"/>
-        <item x="360"/>
-        <item x="32"/>
-        <item x="299"/>
-        <item x="272"/>
-        <item x="198"/>
-        <item x="180"/>
-        <item x="0"/>
-        <item x="98"/>
-        <item x="315"/>
-        <item x="47"/>
-        <item x="160"/>
-        <item x="53"/>
-        <item x="241"/>
-        <item x="143"/>
-        <item x="475"/>
-        <item x="456"/>
-        <item x="21"/>
-        <item x="323"/>
-        <item x="260"/>
-        <item x="18"/>
-        <item x="256"/>
-        <item x="301"/>
-        <item x="327"/>
-        <item x="342"/>
-        <item x="251"/>
-        <item x="194"/>
-        <item x="440"/>
-        <item x="286"/>
-        <item x="249"/>
-        <item x="103"/>
-        <item x="137"/>
-        <item x="314"/>
-        <item x="452"/>
-        <item x="258"/>
-        <item x="218"/>
-        <item x="55"/>
-        <item x="206"/>
-        <item x="28"/>
-        <item x="319"/>
-        <item x="474"/>
-        <item x="31"/>
-        <item x="280"/>
-        <item x="89"/>
-        <item x="200"/>
-        <item x="100"/>
-        <item x="290"/>
-        <item x="322"/>
-        <item x="422"/>
-        <item x="329"/>
-        <item x="112"/>
-        <item x="104"/>
-        <item x="192"/>
-        <item x="418"/>
-        <item x="29"/>
-        <item x="261"/>
-        <item x="147"/>
-        <item x="361"/>
-        <item x="338"/>
-        <item x="463"/>
-        <item x="85"/>
-        <item x="324"/>
-        <item x="468"/>
-        <item x="394"/>
-        <item x="288"/>
-        <item x="127"/>
-        <item x="379"/>
-        <item x="358"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="144"/>
-        <item x="291"/>
-        <item x="408"/>
-        <item x="426"/>
-        <item x="39"/>
-        <item x="129"/>
-        <item x="441"/>
-        <item x="236"/>
-        <item x="444"/>
-        <item x="120"/>
-        <item x="250"/>
-        <item x="167"/>
-        <item x="30"/>
-        <item x="292"/>
-        <item x="344"/>
-        <item x="289"/>
-        <item x="91"/>
-        <item x="461"/>
-        <item x="118"/>
-        <item x="413"/>
-        <item x="1"/>
-        <item x="372"/>
-        <item x="3"/>
-        <item x="254"/>
-        <item x="428"/>
-        <item x="366"/>
-        <item x="209"/>
-        <item x="146"/>
-        <item x="238"/>
-        <item x="199"/>
-        <item x="453"/>
-        <item x="234"/>
-        <item x="401"/>
-        <item x="465"/>
-        <item x="12"/>
-        <item x="383"/>
-        <item x="2"/>
-        <item x="429"/>
-        <item x="202"/>
-        <item x="185"/>
-        <item x="162"/>
-        <item x="454"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="317"/>
-        <item x="13"/>
-        <item x="438"/>
-        <item x="7"/>
-        <item x="174"/>
-        <item x="243"/>
-        <item x="424"/>
-        <item x="224"/>
-        <item x="130"/>
-        <item x="15"/>
-        <item x="296"/>
-        <item x="140"/>
-        <item x="367"/>
-        <item x="351"/>
-        <item x="390"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="245"/>
-        <item x="387"/>
-        <item x="357"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="384"/>
-        <item x="190"/>
-        <item x="44"/>
-        <item x="285"/>
-        <item x="264"/>
-        <item x="282"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="446"/>
-        <item x="57"/>
-        <item x="345"/>
-        <item x="445"/>
-        <item x="121"/>
-        <item x="164"/>
-        <item x="467"/>
-        <item x="247"/>
-        <item x="398"/>
-        <item x="40"/>
-        <item x="427"/>
-        <item x="132"/>
-        <item x="87"/>
-        <item x="188"/>
-        <item x="442"/>
-        <item x="283"/>
-        <item x="52"/>
-        <item x="242"/>
-        <item x="321"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="425">
-        <item x="115"/>
-        <item x="218"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="60"/>
-        <item x="120"/>
-        <item x="420"/>
-        <item x="283"/>
-        <item x="229"/>
-        <item x="349"/>
-        <item x="367"/>
-        <item x="262"/>
-        <item x="408"/>
-        <item x="174"/>
-        <item x="182"/>
-        <item x="157"/>
-        <item x="123"/>
-        <item x="339"/>
-        <item x="323"/>
-        <item x="348"/>
-        <item x="81"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="189"/>
-        <item x="79"/>
-        <item x="412"/>
-        <item x="121"/>
-        <item x="93"/>
-        <item x="240"/>
-        <item x="192"/>
-        <item x="152"/>
-        <item x="248"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="382"/>
-        <item x="119"/>
-        <item x="316"/>
-        <item x="241"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="354"/>
-        <item x="318"/>
-        <item x="221"/>
-        <item x="68"/>
-        <item x="122"/>
-        <item x="29"/>
-        <item x="279"/>
-        <item x="128"/>
-        <item x="387"/>
-        <item x="383"/>
-        <item x="254"/>
-        <item x="309"/>
-        <item x="61"/>
-        <item x="208"/>
-        <item x="14"/>
-        <item x="139"/>
-        <item x="90"/>
-        <item x="224"/>
-        <item x="87"/>
-        <item x="410"/>
-        <item x="326"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="260"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="308"/>
-        <item x="297"/>
-        <item x="280"/>
-        <item x="47"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="277"/>
-        <item x="204"/>
-        <item x="43"/>
-        <item x="340"/>
-        <item x="238"/>
-        <item x="236"/>
-        <item x="233"/>
-        <item x="415"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="210"/>
-        <item x="89"/>
-        <item x="220"/>
-        <item x="272"/>
-        <item x="358"/>
-        <item x="278"/>
-        <item x="312"/>
-        <item x="162"/>
-        <item x="356"/>
-        <item x="414"/>
-        <item x="291"/>
-        <item x="216"/>
-        <item x="259"/>
-        <item x="154"/>
-        <item x="411"/>
-        <item x="393"/>
-        <item x="376"/>
-        <item x="392"/>
-        <item x="206"/>
-        <item x="202"/>
-        <item x="289"/>
-        <item x="19"/>
-        <item x="187"/>
-        <item x="144"/>
-        <item x="166"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="126"/>
-        <item x="178"/>
-        <item x="136"/>
-        <item x="186"/>
-        <item x="228"/>
-        <item x="372"/>
-        <item x="285"/>
-        <item x="132"/>
-        <item x="257"/>
-        <item x="268"/>
-        <item x="86"/>
-        <item x="62"/>
-        <item x="269"/>
-        <item x="321"/>
-        <item x="421"/>
-        <item x="293"/>
-        <item x="222"/>
-        <item x="183"/>
-        <item x="394"/>
-        <item x="351"/>
-        <item x="205"/>
-        <item x="129"/>
-        <item x="50"/>
-        <item x="313"/>
-        <item x="51"/>
-        <item x="26"/>
-        <item x="401"/>
-        <item x="320"/>
-        <item x="373"/>
-        <item x="98"/>
-        <item x="250"/>
-        <item x="379"/>
-        <item x="225"/>
-        <item x="399"/>
-        <item x="247"/>
-        <item x="117"/>
-        <item x="140"/>
-        <item x="232"/>
-        <item x="300"/>
-        <item x="37"/>
-        <item x="418"/>
-        <item x="127"/>
-        <item x="389"/>
-        <item x="153"/>
-        <item x="355"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="381"/>
-        <item x="361"/>
-        <item x="112"/>
-        <item x="357"/>
-        <item x="1"/>
-        <item x="110"/>
-        <item x="230"/>
-        <item x="295"/>
-        <item x="32"/>
-        <item x="341"/>
-        <item x="103"/>
-        <item x="267"/>
-        <item x="244"/>
-        <item x="405"/>
-        <item x="395"/>
-        <item x="397"/>
-        <item x="281"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="171"/>
-        <item x="298"/>
-        <item x="213"/>
-        <item x="374"/>
-        <item x="131"/>
-        <item x="252"/>
-        <item x="345"/>
-        <item x="275"/>
-        <item x="85"/>
-        <item x="49"/>
-        <item x="179"/>
-        <item x="343"/>
-        <item x="124"/>
-        <item x="338"/>
-        <item x="100"/>
-        <item x="311"/>
-        <item x="40"/>
-        <item x="334"/>
-        <item x="168"/>
-        <item x="353"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="365"/>
-        <item x="380"/>
-        <item x="366"/>
-        <item x="167"/>
-        <item x="194"/>
-        <item x="163"/>
-        <item x="109"/>
-        <item x="67"/>
-        <item x="95"/>
-        <item x="165"/>
-        <item x="256"/>
-        <item x="7"/>
-        <item x="102"/>
-        <item x="282"/>
-        <item x="190"/>
-        <item x="402"/>
-        <item x="317"/>
-        <item x="106"/>
-        <item x="42"/>
-        <item x="352"/>
-        <item x="276"/>
-        <item x="198"/>
-        <item x="336"/>
-        <item x="84"/>
-        <item x="407"/>
-        <item x="290"/>
-        <item x="223"/>
-        <item x="99"/>
-        <item x="274"/>
-        <item x="310"/>
-        <item x="196"/>
-        <item x="104"/>
-        <item x="22"/>
-        <item x="385"/>
-        <item x="423"/>
-        <item x="125"/>
-        <item x="416"/>
-        <item x="82"/>
-        <item x="145"/>
-        <item x="135"/>
-        <item x="294"/>
-        <item x="384"/>
-        <item x="342"/>
-        <item x="246"/>
-        <item x="164"/>
-        <item x="54"/>
-        <item x="391"/>
-        <item x="148"/>
-        <item x="377"/>
-        <item x="400"/>
-        <item x="368"/>
-        <item x="288"/>
-        <item x="35"/>
-        <item x="333"/>
-        <item x="329"/>
-        <item x="344"/>
-        <item x="328"/>
-        <item x="172"/>
-        <item x="48"/>
-        <item x="331"/>
-        <item x="363"/>
-        <item x="161"/>
-        <item x="378"/>
-        <item x="20"/>
-        <item x="74"/>
-        <item x="71"/>
-        <item x="413"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="77"/>
-        <item x="245"/>
-        <item x="97"/>
-        <item x="292"/>
-        <item x="388"/>
-        <item x="350"/>
-        <item x="370"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="107"/>
-        <item x="197"/>
-        <item x="386"/>
-        <item x="396"/>
-        <item x="80"/>
-        <item x="324"/>
-        <item x="243"/>
-        <item x="299"/>
-        <item x="5"/>
-        <item x="419"/>
-        <item x="417"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="404"/>
-        <item x="239"/>
-        <item x="273"/>
-        <item x="134"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="302"/>
-        <item x="73"/>
-        <item x="270"/>
-        <item x="88"/>
-        <item x="18"/>
-        <item x="200"/>
-        <item x="185"/>
-        <item x="108"/>
-        <item x="151"/>
-        <item x="346"/>
-        <item x="92"/>
-        <item x="271"/>
-        <item x="173"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="219"/>
-        <item x="304"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="266"/>
-        <item x="364"/>
-        <item x="25"/>
-        <item x="258"/>
-        <item x="314"/>
-        <item x="403"/>
-        <item x="332"/>
-        <item x="337"/>
-        <item x="235"/>
-        <item x="65"/>
-        <item x="369"/>
-        <item x="91"/>
-        <item x="284"/>
-        <item x="143"/>
-        <item x="160"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="8"/>
-        <item x="226"/>
-        <item x="215"/>
-        <item x="249"/>
-        <item x="6"/>
-        <item x="319"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="375"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="231"/>
-        <item x="359"/>
-        <item x="44"/>
-        <item x="362"/>
-        <item x="45"/>
-        <item x="181"/>
-        <item x="133"/>
-        <item x="255"/>
-        <item x="264"/>
-        <item x="390"/>
-        <item x="176"/>
-        <item x="406"/>
-        <item x="199"/>
-        <item x="201"/>
-        <item x="347"/>
-        <item x="111"/>
-        <item x="214"/>
-        <item x="211"/>
-        <item x="193"/>
-        <item x="147"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="327"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="76"/>
-        <item x="149"/>
-        <item x="195"/>
-        <item x="306"/>
-        <item x="217"/>
-        <item x="263"/>
-        <item x="137"/>
-        <item x="286"/>
-        <item x="33"/>
-        <item x="207"/>
-        <item x="184"/>
-        <item x="118"/>
-        <item x="330"/>
-        <item x="315"/>
-        <item x="253"/>
-        <item x="237"/>
-        <item x="398"/>
-        <item x="36"/>
-        <item x="325"/>
-        <item x="305"/>
-        <item x="38"/>
-        <item x="46"/>
-        <item x="142"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="27"/>
-        <item x="360"/>
-        <item x="212"/>
-        <item x="64"/>
-        <item x="261"/>
-        <item x="265"/>
-        <item x="287"/>
-        <item x="59"/>
-        <item x="422"/>
-        <item x="301"/>
-        <item x="322"/>
-        <item x="75"/>
-        <item x="146"/>
-        <item x="296"/>
-        <item x="409"/>
-        <item x="150"/>
-        <item x="242"/>
-        <item x="114"/>
-        <item x="191"/>
-        <item x="371"/>
-        <item x="169"/>
-        <item x="83"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Overfishing_Risk" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="12" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{35434A93-E946-4D88-96D0-150860630915}" name="Tableau croisé dynamique4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Overfishing">
-  <location ref="E5:F8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="9">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="479">
-        <item x="184"/>
-        <item x="274"/>
-        <item x="246"/>
-        <item x="230"/>
-        <item x="339"/>
-        <item x="96"/>
-        <item x="240"/>
-        <item x="115"/>
-        <item x="359"/>
-        <item x="201"/>
-        <item x="170"/>
-        <item x="70"/>
-        <item x="389"/>
-        <item x="393"/>
-        <item x="460"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="149"/>
-        <item x="113"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="237"/>
-        <item x="58"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="148"/>
-        <item x="309"/>
-        <item x="363"/>
-        <item x="97"/>
-        <item x="48"/>
-        <item x="421"/>
-        <item x="76"/>
-        <item x="364"/>
-        <item x="81"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="450"/>
-        <item x="262"/>
-        <item x="235"/>
-        <item x="122"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="178"/>
-        <item x="353"/>
-        <item x="356"/>
-        <item x="330"/>
-        <item x="419"/>
-        <item x="365"/>
-        <item x="205"/>
-        <item x="279"/>
-        <item x="60"/>
-        <item x="381"/>
-        <item x="275"/>
-        <item x="368"/>
-        <item x="175"/>
-        <item x="197"/>
-        <item x="75"/>
-        <item x="95"/>
-        <item x="273"/>
-        <item x="352"/>
-        <item x="447"/>
-        <item x="325"/>
-        <item x="8"/>
-        <item x="196"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="370"/>
-        <item x="49"/>
-        <item x="316"/>
-        <item x="62"/>
-        <item x="159"/>
-        <item x="471"/>
-        <item x="207"/>
-        <item x="403"/>
-        <item x="371"/>
-        <item x="293"/>
-        <item x="433"/>
-        <item x="257"/>
-        <item x="271"/>
-        <item x="326"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="378"/>
-        <item x="110"/>
-        <item x="152"/>
-        <item x="397"/>
-        <item x="50"/>
-        <item x="477"/>
-        <item x="466"/>
-        <item x="396"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="231"/>
-        <item x="347"/>
-        <item x="375"/>
-        <item x="310"/>
-        <item x="65"/>
-        <item x="10"/>
-        <item x="294"/>
-        <item x="369"/>
-        <item x="191"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="106"/>
-        <item x="226"/>
-        <item x="391"/>
-        <item x="22"/>
-        <item x="108"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="432"/>
-        <item x="354"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="114"/>
-        <item x="74"/>
-        <item x="423"/>
-        <item x="109"/>
-        <item x="395"/>
-        <item x="71"/>
-        <item x="349"/>
-        <item x="415"/>
-        <item x="51"/>
-        <item x="141"/>
-        <item x="404"/>
-        <item x="119"/>
-        <item x="405"/>
-        <item x="374"/>
-        <item x="297"/>
-        <item x="265"/>
-        <item x="177"/>
-        <item x="42"/>
-        <item x="449"/>
-        <item x="176"/>
-        <item x="23"/>
-        <item x="228"/>
-        <item x="373"/>
-        <item x="313"/>
-        <item x="420"/>
-        <item x="61"/>
-        <item x="458"/>
-        <item x="223"/>
-        <item x="436"/>
-        <item x="154"/>
-        <item x="346"/>
-        <item x="212"/>
-        <item x="168"/>
-        <item x="462"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="409"/>
-        <item x="17"/>
-        <item x="203"/>
-        <item x="214"/>
-        <item x="306"/>
-        <item x="173"/>
-        <item x="67"/>
-        <item x="464"/>
-        <item x="459"/>
-        <item x="232"/>
-        <item x="267"/>
-        <item x="362"/>
-        <item x="88"/>
-        <item x="183"/>
-        <item x="412"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="222"/>
-        <item x="284"/>
-        <item x="377"/>
-        <item x="54"/>
-        <item x="64"/>
-        <item x="307"/>
-        <item x="90"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="204"/>
-        <item x="406"/>
-        <item x="34"/>
-        <item x="158"/>
-        <item x="476"/>
-        <item x="26"/>
-        <item x="448"/>
-        <item x="430"/>
-        <item x="281"/>
-        <item x="337"/>
-        <item x="72"/>
-        <item x="161"/>
-        <item x="382"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="348"/>
-        <item x="4"/>
-        <item x="407"/>
-        <item x="312"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="304"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="69"/>
-        <item x="268"/>
-        <item x="332"/>
-        <item x="399"/>
-        <item x="145"/>
-        <item x="156"/>
-        <item x="385"/>
-        <item x="410"/>
-        <item x="470"/>
-        <item x="276"/>
-        <item x="213"/>
-        <item x="117"/>
-        <item x="253"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="125"/>
-        <item x="86"/>
-        <item x="386"/>
-        <item x="179"/>
-        <item x="19"/>
-        <item x="472"/>
-        <item x="336"/>
-        <item x="233"/>
-        <item x="248"/>
-        <item x="328"/>
-        <item x="318"/>
-        <item x="417"/>
-        <item x="116"/>
-        <item x="227"/>
-        <item x="334"/>
-        <item x="434"/>
-        <item x="263"/>
-        <item x="181"/>
-        <item x="473"/>
-        <item x="9"/>
-        <item x="163"/>
-        <item x="142"/>
-        <item x="425"/>
-        <item x="416"/>
-        <item x="37"/>
-        <item x="259"/>
-        <item x="193"/>
-        <item x="308"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="252"/>
-        <item x="402"/>
-        <item x="211"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="155"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="311"/>
-        <item x="138"/>
-        <item x="269"/>
-        <item x="171"/>
-        <item x="270"/>
-        <item x="83"/>
-        <item x="431"/>
-        <item x="135"/>
-        <item x="41"/>
-        <item x="439"/>
-        <item x="400"/>
-        <item x="219"/>
-        <item x="208"/>
-        <item x="221"/>
-        <item x="341"/>
-        <item x="469"/>
-        <item x="92"/>
-        <item x="437"/>
-        <item x="27"/>
-        <item x="320"/>
-        <item x="244"/>
-        <item x="305"/>
-        <item x="392"/>
-        <item x="153"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="217"/>
-        <item x="157"/>
-        <item x="102"/>
-        <item x="220"/>
-        <item x="388"/>
-        <item x="414"/>
-        <item x="298"/>
-        <item x="124"/>
-        <item x="16"/>
-        <item x="355"/>
-        <item x="266"/>
-        <item x="435"/>
-        <item x="187"/>
-        <item x="340"/>
-        <item x="343"/>
-        <item x="165"/>
-        <item x="73"/>
-        <item x="443"/>
-        <item x="380"/>
-        <item x="333"/>
-        <item x="277"/>
-        <item x="225"/>
-        <item x="376"/>
-        <item x="133"/>
-        <item x="350"/>
-        <item x="131"/>
-        <item x="150"/>
-        <item x="302"/>
-        <item x="457"/>
-        <item x="411"/>
-        <item x="451"/>
-        <item x="295"/>
-        <item x="134"/>
-        <item x="128"/>
-        <item x="455"/>
-        <item x="63"/>
-        <item x="215"/>
-        <item x="360"/>
-        <item x="32"/>
-        <item x="299"/>
-        <item x="272"/>
-        <item x="198"/>
-        <item x="180"/>
-        <item x="0"/>
-        <item x="98"/>
-        <item x="315"/>
-        <item x="47"/>
-        <item x="160"/>
-        <item x="53"/>
-        <item x="241"/>
-        <item x="143"/>
-        <item x="475"/>
-        <item x="456"/>
-        <item x="21"/>
-        <item x="323"/>
-        <item x="260"/>
-        <item x="18"/>
-        <item x="256"/>
-        <item x="301"/>
-        <item x="327"/>
-        <item x="342"/>
-        <item x="251"/>
-        <item x="194"/>
-        <item x="440"/>
-        <item x="286"/>
-        <item x="249"/>
-        <item x="103"/>
-        <item x="137"/>
-        <item x="314"/>
-        <item x="452"/>
-        <item x="258"/>
-        <item x="218"/>
-        <item x="55"/>
-        <item x="206"/>
-        <item x="28"/>
-        <item x="319"/>
-        <item x="474"/>
-        <item x="31"/>
-        <item x="280"/>
-        <item x="89"/>
-        <item x="200"/>
-        <item x="100"/>
-        <item x="290"/>
-        <item x="322"/>
-        <item x="422"/>
-        <item x="329"/>
-        <item x="112"/>
-        <item x="104"/>
-        <item x="192"/>
-        <item x="418"/>
-        <item x="29"/>
-        <item x="261"/>
-        <item x="147"/>
-        <item x="361"/>
-        <item x="338"/>
-        <item x="463"/>
-        <item x="85"/>
-        <item x="324"/>
-        <item x="468"/>
-        <item x="394"/>
-        <item x="288"/>
-        <item x="127"/>
-        <item x="379"/>
-        <item x="358"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="144"/>
-        <item x="291"/>
-        <item x="408"/>
-        <item x="426"/>
-        <item x="39"/>
-        <item x="129"/>
-        <item x="441"/>
-        <item x="236"/>
-        <item x="444"/>
-        <item x="120"/>
-        <item x="250"/>
-        <item x="167"/>
-        <item x="30"/>
-        <item x="292"/>
-        <item x="344"/>
-        <item x="289"/>
-        <item x="91"/>
-        <item x="461"/>
-        <item x="118"/>
-        <item x="413"/>
-        <item x="1"/>
-        <item x="372"/>
-        <item x="3"/>
-        <item x="254"/>
-        <item x="428"/>
-        <item x="366"/>
-        <item x="209"/>
-        <item x="146"/>
-        <item x="238"/>
-        <item x="199"/>
-        <item x="453"/>
-        <item x="234"/>
-        <item x="401"/>
-        <item x="465"/>
-        <item x="12"/>
-        <item x="383"/>
-        <item x="2"/>
-        <item x="429"/>
-        <item x="202"/>
-        <item x="185"/>
-        <item x="162"/>
-        <item x="454"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="317"/>
-        <item x="13"/>
-        <item x="438"/>
-        <item x="7"/>
-        <item x="174"/>
-        <item x="243"/>
-        <item x="424"/>
-        <item x="224"/>
-        <item x="130"/>
-        <item x="15"/>
-        <item x="296"/>
-        <item x="140"/>
-        <item x="367"/>
-        <item x="351"/>
-        <item x="390"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="245"/>
-        <item x="387"/>
-        <item x="357"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="384"/>
-        <item x="190"/>
-        <item x="44"/>
-        <item x="285"/>
-        <item x="264"/>
-        <item x="282"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="446"/>
-        <item x="57"/>
-        <item x="345"/>
-        <item x="445"/>
-        <item x="121"/>
-        <item x="164"/>
-        <item x="467"/>
-        <item x="247"/>
-        <item x="398"/>
-        <item x="40"/>
-        <item x="427"/>
-        <item x="132"/>
-        <item x="87"/>
-        <item x="188"/>
-        <item x="442"/>
-        <item x="283"/>
-        <item x="52"/>
-        <item x="242"/>
-        <item x="321"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="425">
-        <item x="115"/>
-        <item x="218"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="60"/>
-        <item x="120"/>
-        <item x="420"/>
-        <item x="283"/>
-        <item x="229"/>
-        <item x="349"/>
-        <item x="367"/>
-        <item x="262"/>
-        <item x="408"/>
-        <item x="174"/>
-        <item x="182"/>
-        <item x="157"/>
-        <item x="123"/>
-        <item x="339"/>
-        <item x="323"/>
-        <item x="348"/>
-        <item x="81"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="189"/>
-        <item x="79"/>
-        <item x="412"/>
-        <item x="121"/>
-        <item x="93"/>
-        <item x="240"/>
-        <item x="192"/>
-        <item x="152"/>
-        <item x="248"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="382"/>
-        <item x="119"/>
-        <item x="316"/>
-        <item x="241"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="354"/>
-        <item x="318"/>
-        <item x="221"/>
-        <item x="68"/>
-        <item x="122"/>
-        <item x="29"/>
-        <item x="279"/>
-        <item x="128"/>
-        <item x="387"/>
-        <item x="383"/>
-        <item x="254"/>
-        <item x="309"/>
-        <item x="61"/>
-        <item x="208"/>
-        <item x="14"/>
-        <item x="139"/>
-        <item x="90"/>
-        <item x="224"/>
-        <item x="87"/>
-        <item x="410"/>
-        <item x="326"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="260"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="308"/>
-        <item x="297"/>
-        <item x="280"/>
-        <item x="47"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="277"/>
-        <item x="204"/>
-        <item x="43"/>
-        <item x="340"/>
-        <item x="238"/>
-        <item x="236"/>
-        <item x="233"/>
-        <item x="415"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="210"/>
-        <item x="89"/>
-        <item x="220"/>
-        <item x="272"/>
-        <item x="358"/>
-        <item x="278"/>
-        <item x="312"/>
-        <item x="162"/>
-        <item x="356"/>
-        <item x="414"/>
-        <item x="291"/>
-        <item x="216"/>
-        <item x="259"/>
-        <item x="154"/>
-        <item x="411"/>
-        <item x="393"/>
-        <item x="376"/>
-        <item x="392"/>
-        <item x="206"/>
-        <item x="202"/>
-        <item x="289"/>
-        <item x="19"/>
-        <item x="187"/>
-        <item x="144"/>
-        <item x="166"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="126"/>
-        <item x="178"/>
-        <item x="136"/>
-        <item x="186"/>
-        <item x="228"/>
-        <item x="372"/>
-        <item x="285"/>
-        <item x="132"/>
-        <item x="257"/>
-        <item x="268"/>
-        <item x="86"/>
-        <item x="62"/>
-        <item x="269"/>
-        <item x="321"/>
-        <item x="421"/>
-        <item x="293"/>
-        <item x="222"/>
-        <item x="183"/>
-        <item x="394"/>
-        <item x="351"/>
-        <item x="205"/>
-        <item x="129"/>
-        <item x="50"/>
-        <item x="313"/>
-        <item x="51"/>
-        <item x="26"/>
-        <item x="401"/>
-        <item x="320"/>
-        <item x="373"/>
-        <item x="98"/>
-        <item x="250"/>
-        <item x="379"/>
-        <item x="225"/>
-        <item x="399"/>
-        <item x="247"/>
-        <item x="117"/>
-        <item x="140"/>
-        <item x="232"/>
-        <item x="300"/>
-        <item x="37"/>
-        <item x="418"/>
-        <item x="127"/>
-        <item x="389"/>
-        <item x="153"/>
-        <item x="355"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="381"/>
-        <item x="361"/>
-        <item x="112"/>
-        <item x="357"/>
-        <item x="1"/>
-        <item x="110"/>
-        <item x="230"/>
-        <item x="295"/>
-        <item x="32"/>
-        <item x="341"/>
-        <item x="103"/>
-        <item x="267"/>
-        <item x="244"/>
-        <item x="405"/>
-        <item x="395"/>
-        <item x="397"/>
-        <item x="281"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="171"/>
-        <item x="298"/>
-        <item x="213"/>
-        <item x="374"/>
-        <item x="131"/>
-        <item x="252"/>
-        <item x="345"/>
-        <item x="275"/>
-        <item x="85"/>
-        <item x="49"/>
-        <item x="179"/>
-        <item x="343"/>
-        <item x="124"/>
-        <item x="338"/>
-        <item x="100"/>
-        <item x="311"/>
-        <item x="40"/>
-        <item x="334"/>
-        <item x="168"/>
-        <item x="353"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="365"/>
-        <item x="380"/>
-        <item x="366"/>
-        <item x="167"/>
-        <item x="194"/>
-        <item x="163"/>
-        <item x="109"/>
-        <item x="67"/>
-        <item x="95"/>
-        <item x="165"/>
-        <item x="256"/>
-        <item x="7"/>
-        <item x="102"/>
-        <item x="282"/>
-        <item x="190"/>
-        <item x="402"/>
-        <item x="317"/>
-        <item x="106"/>
-        <item x="42"/>
-        <item x="352"/>
-        <item x="276"/>
-        <item x="198"/>
-        <item x="336"/>
-        <item x="84"/>
-        <item x="407"/>
-        <item x="290"/>
-        <item x="223"/>
-        <item x="99"/>
-        <item x="274"/>
-        <item x="310"/>
-        <item x="196"/>
-        <item x="104"/>
-        <item x="22"/>
-        <item x="385"/>
-        <item x="423"/>
-        <item x="125"/>
-        <item x="416"/>
-        <item x="82"/>
-        <item x="145"/>
-        <item x="135"/>
-        <item x="294"/>
-        <item x="384"/>
-        <item x="342"/>
-        <item x="246"/>
-        <item x="164"/>
-        <item x="54"/>
-        <item x="391"/>
-        <item x="148"/>
-        <item x="377"/>
-        <item x="400"/>
-        <item x="368"/>
-        <item x="288"/>
-        <item x="35"/>
-        <item x="333"/>
-        <item x="329"/>
-        <item x="344"/>
-        <item x="328"/>
-        <item x="172"/>
-        <item x="48"/>
-        <item x="331"/>
-        <item x="363"/>
-        <item x="161"/>
-        <item x="378"/>
-        <item x="20"/>
-        <item x="74"/>
-        <item x="71"/>
-        <item x="413"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="77"/>
-        <item x="245"/>
-        <item x="97"/>
-        <item x="292"/>
-        <item x="388"/>
-        <item x="350"/>
-        <item x="370"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="107"/>
-        <item x="197"/>
-        <item x="386"/>
-        <item x="396"/>
-        <item x="80"/>
-        <item x="324"/>
-        <item x="243"/>
-        <item x="299"/>
-        <item x="5"/>
-        <item x="419"/>
-        <item x="417"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="404"/>
-        <item x="239"/>
-        <item x="273"/>
-        <item x="134"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="302"/>
-        <item x="73"/>
-        <item x="270"/>
-        <item x="88"/>
-        <item x="18"/>
-        <item x="200"/>
-        <item x="185"/>
-        <item x="108"/>
-        <item x="151"/>
-        <item x="346"/>
-        <item x="92"/>
-        <item x="271"/>
-        <item x="173"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="219"/>
-        <item x="304"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="266"/>
-        <item x="364"/>
-        <item x="25"/>
-        <item x="258"/>
-        <item x="314"/>
-        <item x="403"/>
-        <item x="332"/>
-        <item x="337"/>
-        <item x="235"/>
-        <item x="65"/>
-        <item x="369"/>
-        <item x="91"/>
-        <item x="284"/>
-        <item x="143"/>
-        <item x="160"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="8"/>
-        <item x="226"/>
-        <item x="215"/>
-        <item x="249"/>
-        <item x="6"/>
-        <item x="319"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="375"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="231"/>
-        <item x="359"/>
-        <item x="44"/>
-        <item x="362"/>
-        <item x="45"/>
-        <item x="181"/>
-        <item x="133"/>
-        <item x="255"/>
-        <item x="264"/>
-        <item x="390"/>
-        <item x="176"/>
-        <item x="406"/>
-        <item x="199"/>
-        <item x="201"/>
-        <item x="347"/>
-        <item x="111"/>
-        <item x="214"/>
-        <item x="211"/>
-        <item x="193"/>
-        <item x="147"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="327"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="76"/>
-        <item x="149"/>
-        <item x="195"/>
-        <item x="306"/>
-        <item x="217"/>
-        <item x="263"/>
-        <item x="137"/>
-        <item x="286"/>
-        <item x="33"/>
-        <item x="207"/>
-        <item x="184"/>
-        <item x="118"/>
-        <item x="330"/>
-        <item x="315"/>
-        <item x="253"/>
-        <item x="237"/>
-        <item x="398"/>
-        <item x="36"/>
-        <item x="325"/>
-        <item x="305"/>
-        <item x="38"/>
-        <item x="46"/>
-        <item x="142"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="27"/>
-        <item x="360"/>
-        <item x="212"/>
-        <item x="64"/>
-        <item x="261"/>
-        <item x="265"/>
-        <item x="287"/>
-        <item x="59"/>
-        <item x="422"/>
-        <item x="301"/>
-        <item x="322"/>
-        <item x="75"/>
-        <item x="146"/>
-        <item x="296"/>
-        <item x="409"/>
-        <item x="150"/>
-        <item x="242"/>
-        <item x="114"/>
-        <item x="191"/>
-        <item x="371"/>
-        <item x="169"/>
-        <item x="83"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Nombre de Overfishing_Risk" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="8" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08DFE286-359C-4373-955E-AB5C3F6E86D7}" name="Tableau croisé dynamique3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="species">
-  <location ref="B5:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="479">
-        <item x="184"/>
-        <item x="274"/>
-        <item x="246"/>
-        <item x="230"/>
-        <item x="339"/>
-        <item x="96"/>
-        <item x="240"/>
-        <item x="115"/>
-        <item x="359"/>
-        <item x="201"/>
-        <item x="170"/>
-        <item x="70"/>
-        <item x="389"/>
-        <item x="393"/>
-        <item x="460"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="149"/>
-        <item x="113"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="237"/>
-        <item x="58"/>
-        <item x="195"/>
-        <item x="93"/>
-        <item x="148"/>
-        <item x="309"/>
-        <item x="363"/>
-        <item x="97"/>
-        <item x="48"/>
-        <item x="421"/>
-        <item x="76"/>
-        <item x="364"/>
-        <item x="81"/>
-        <item x="36"/>
-        <item x="186"/>
-        <item x="450"/>
-        <item x="262"/>
-        <item x="235"/>
-        <item x="122"/>
-        <item x="210"/>
-        <item x="136"/>
-        <item x="178"/>
-        <item x="353"/>
-        <item x="356"/>
-        <item x="330"/>
-        <item x="419"/>
-        <item x="365"/>
-        <item x="205"/>
-        <item x="279"/>
-        <item x="60"/>
-        <item x="381"/>
-        <item x="275"/>
-        <item x="368"/>
-        <item x="175"/>
-        <item x="197"/>
-        <item x="75"/>
-        <item x="95"/>
-        <item x="273"/>
-        <item x="352"/>
-        <item x="447"/>
-        <item x="325"/>
-        <item x="8"/>
-        <item x="196"/>
-        <item x="182"/>
-        <item x="84"/>
-        <item x="370"/>
-        <item x="49"/>
-        <item x="316"/>
-        <item x="62"/>
-        <item x="159"/>
-        <item x="471"/>
-        <item x="207"/>
-        <item x="403"/>
-        <item x="371"/>
-        <item x="293"/>
-        <item x="433"/>
-        <item x="257"/>
-        <item x="271"/>
-        <item x="326"/>
-        <item x="107"/>
-        <item x="255"/>
-        <item x="378"/>
-        <item x="110"/>
-        <item x="152"/>
-        <item x="397"/>
-        <item x="50"/>
-        <item x="477"/>
-        <item x="466"/>
-        <item x="396"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="231"/>
-        <item x="347"/>
-        <item x="375"/>
-        <item x="310"/>
-        <item x="65"/>
-        <item x="10"/>
-        <item x="294"/>
-        <item x="369"/>
-        <item x="191"/>
-        <item x="14"/>
-        <item x="33"/>
-        <item x="106"/>
-        <item x="226"/>
-        <item x="391"/>
-        <item x="22"/>
-        <item x="108"/>
-        <item x="46"/>
-        <item x="25"/>
-        <item x="432"/>
-        <item x="354"/>
-        <item x="68"/>
-        <item x="66"/>
-        <item x="114"/>
-        <item x="74"/>
-        <item x="423"/>
-        <item x="109"/>
-        <item x="395"/>
-        <item x="71"/>
-        <item x="349"/>
-        <item x="415"/>
-        <item x="51"/>
-        <item x="141"/>
-        <item x="404"/>
-        <item x="119"/>
-        <item x="405"/>
-        <item x="374"/>
-        <item x="297"/>
-        <item x="265"/>
-        <item x="177"/>
-        <item x="42"/>
-        <item x="449"/>
-        <item x="176"/>
-        <item x="23"/>
-        <item x="228"/>
-        <item x="373"/>
-        <item x="313"/>
-        <item x="420"/>
-        <item x="61"/>
-        <item x="458"/>
-        <item x="223"/>
-        <item x="436"/>
-        <item x="154"/>
-        <item x="346"/>
-        <item x="212"/>
-        <item x="168"/>
-        <item x="462"/>
-        <item x="151"/>
-        <item x="169"/>
-        <item x="409"/>
-        <item x="17"/>
-        <item x="203"/>
-        <item x="214"/>
-        <item x="306"/>
-        <item x="173"/>
-        <item x="67"/>
-        <item x="464"/>
-        <item x="459"/>
-        <item x="232"/>
-        <item x="267"/>
-        <item x="362"/>
-        <item x="88"/>
-        <item x="183"/>
-        <item x="412"/>
-        <item x="105"/>
-        <item x="20"/>
-        <item x="222"/>
-        <item x="284"/>
-        <item x="377"/>
-        <item x="54"/>
-        <item x="64"/>
-        <item x="307"/>
-        <item x="90"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="204"/>
-        <item x="406"/>
-        <item x="34"/>
-        <item x="158"/>
-        <item x="476"/>
-        <item x="26"/>
-        <item x="448"/>
-        <item x="430"/>
-        <item x="281"/>
-        <item x="337"/>
-        <item x="72"/>
-        <item x="161"/>
-        <item x="382"/>
-        <item x="78"/>
-        <item x="126"/>
-        <item x="348"/>
-        <item x="4"/>
-        <item x="407"/>
-        <item x="312"/>
-        <item x="24"/>
-        <item x="38"/>
-        <item x="304"/>
-        <item x="139"/>
-        <item x="300"/>
-        <item x="69"/>
-        <item x="268"/>
-        <item x="332"/>
-        <item x="399"/>
-        <item x="145"/>
-        <item x="156"/>
-        <item x="385"/>
-        <item x="410"/>
-        <item x="470"/>
-        <item x="276"/>
-        <item x="213"/>
-        <item x="117"/>
-        <item x="253"/>
-        <item x="35"/>
-        <item x="216"/>
-        <item x="125"/>
-        <item x="86"/>
-        <item x="386"/>
-        <item x="179"/>
-        <item x="19"/>
-        <item x="472"/>
-        <item x="336"/>
-        <item x="233"/>
-        <item x="248"/>
-        <item x="328"/>
-        <item x="318"/>
-        <item x="417"/>
-        <item x="116"/>
-        <item x="227"/>
-        <item x="334"/>
-        <item x="434"/>
-        <item x="263"/>
-        <item x="181"/>
-        <item x="473"/>
-        <item x="9"/>
-        <item x="163"/>
-        <item x="142"/>
-        <item x="425"/>
-        <item x="416"/>
-        <item x="37"/>
-        <item x="259"/>
-        <item x="193"/>
-        <item x="308"/>
-        <item x="99"/>
-        <item x="172"/>
-        <item x="252"/>
-        <item x="402"/>
-        <item x="211"/>
-        <item x="331"/>
-        <item x="189"/>
-        <item x="155"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="311"/>
-        <item x="138"/>
-        <item x="269"/>
-        <item x="171"/>
-        <item x="270"/>
-        <item x="83"/>
-        <item x="431"/>
-        <item x="135"/>
-        <item x="41"/>
-        <item x="439"/>
-        <item x="400"/>
-        <item x="219"/>
-        <item x="208"/>
-        <item x="221"/>
-        <item x="341"/>
-        <item x="469"/>
-        <item x="92"/>
-        <item x="437"/>
-        <item x="27"/>
-        <item x="320"/>
-        <item x="244"/>
-        <item x="305"/>
-        <item x="392"/>
-        <item x="153"/>
-        <item x="79"/>
-        <item x="11"/>
-        <item x="217"/>
-        <item x="157"/>
-        <item x="102"/>
-        <item x="220"/>
-        <item x="388"/>
-        <item x="414"/>
-        <item x="298"/>
-        <item x="124"/>
-        <item x="16"/>
-        <item x="355"/>
-        <item x="266"/>
-        <item x="435"/>
-        <item x="187"/>
-        <item x="340"/>
-        <item x="343"/>
-        <item x="165"/>
-        <item x="73"/>
-        <item x="443"/>
-        <item x="380"/>
-        <item x="333"/>
-        <item x="277"/>
-        <item x="225"/>
-        <item x="376"/>
-        <item x="133"/>
-        <item x="350"/>
-        <item x="131"/>
-        <item x="150"/>
-        <item x="302"/>
-        <item x="457"/>
-        <item x="411"/>
-        <item x="451"/>
-        <item x="295"/>
-        <item x="134"/>
-        <item x="128"/>
-        <item x="455"/>
-        <item x="63"/>
-        <item x="215"/>
-        <item x="360"/>
-        <item x="32"/>
-        <item x="299"/>
-        <item x="272"/>
-        <item x="198"/>
-        <item x="180"/>
-        <item x="0"/>
-        <item x="98"/>
-        <item x="315"/>
-        <item x="47"/>
-        <item x="160"/>
-        <item x="53"/>
-        <item x="241"/>
-        <item x="143"/>
-        <item x="475"/>
-        <item x="456"/>
-        <item x="21"/>
-        <item x="323"/>
-        <item x="260"/>
-        <item x="18"/>
-        <item x="256"/>
-        <item x="301"/>
-        <item x="327"/>
-        <item x="342"/>
-        <item x="251"/>
-        <item x="194"/>
-        <item x="440"/>
-        <item x="286"/>
-        <item x="249"/>
-        <item x="103"/>
-        <item x="137"/>
-        <item x="314"/>
-        <item x="452"/>
-        <item x="258"/>
-        <item x="218"/>
-        <item x="55"/>
-        <item x="206"/>
-        <item x="28"/>
-        <item x="319"/>
-        <item x="474"/>
-        <item x="31"/>
-        <item x="280"/>
-        <item x="89"/>
-        <item x="200"/>
-        <item x="100"/>
-        <item x="290"/>
-        <item x="322"/>
-        <item x="422"/>
-        <item x="329"/>
-        <item x="112"/>
-        <item x="104"/>
-        <item x="192"/>
-        <item x="418"/>
-        <item x="29"/>
-        <item x="261"/>
-        <item x="147"/>
-        <item x="361"/>
-        <item x="338"/>
-        <item x="463"/>
-        <item x="85"/>
-        <item x="324"/>
-        <item x="468"/>
-        <item x="394"/>
-        <item x="288"/>
-        <item x="127"/>
-        <item x="379"/>
-        <item x="358"/>
-        <item x="123"/>
-        <item x="278"/>
-        <item x="144"/>
-        <item x="291"/>
-        <item x="408"/>
-        <item x="426"/>
-        <item x="39"/>
-        <item x="129"/>
-        <item x="441"/>
-        <item x="236"/>
-        <item x="444"/>
-        <item x="120"/>
-        <item x="250"/>
-        <item x="167"/>
-        <item x="30"/>
-        <item x="292"/>
-        <item x="344"/>
-        <item x="289"/>
-        <item x="91"/>
-        <item x="461"/>
-        <item x="118"/>
-        <item x="413"/>
-        <item x="1"/>
-        <item x="372"/>
-        <item x="3"/>
-        <item x="254"/>
-        <item x="428"/>
-        <item x="366"/>
-        <item x="209"/>
-        <item x="146"/>
-        <item x="238"/>
-        <item x="199"/>
-        <item x="453"/>
-        <item x="234"/>
-        <item x="401"/>
-        <item x="465"/>
-        <item x="12"/>
-        <item x="383"/>
-        <item x="2"/>
-        <item x="429"/>
-        <item x="202"/>
-        <item x="185"/>
-        <item x="162"/>
-        <item x="454"/>
-        <item x="82"/>
-        <item x="111"/>
-        <item x="317"/>
-        <item x="13"/>
-        <item x="438"/>
-        <item x="7"/>
-        <item x="174"/>
-        <item x="243"/>
-        <item x="424"/>
-        <item x="224"/>
-        <item x="130"/>
-        <item x="15"/>
-        <item x="296"/>
-        <item x="140"/>
-        <item x="367"/>
-        <item x="351"/>
-        <item x="390"/>
-        <item x="101"/>
-        <item x="56"/>
-        <item x="245"/>
-        <item x="387"/>
-        <item x="357"/>
-        <item x="45"/>
-        <item x="80"/>
-        <item x="384"/>
-        <item x="190"/>
-        <item x="44"/>
-        <item x="285"/>
-        <item x="264"/>
-        <item x="282"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="446"/>
-        <item x="57"/>
-        <item x="345"/>
-        <item x="445"/>
-        <item x="121"/>
-        <item x="164"/>
-        <item x="467"/>
-        <item x="247"/>
-        <item x="398"/>
-        <item x="40"/>
-        <item x="427"/>
-        <item x="132"/>
-        <item x="87"/>
-        <item x="188"/>
-        <item x="442"/>
-        <item x="283"/>
-        <item x="52"/>
-        <item x="242"/>
-        <item x="321"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="425">
-        <item x="115"/>
-        <item x="218"/>
-        <item x="58"/>
-        <item x="130"/>
-        <item x="60"/>
-        <item x="120"/>
-        <item x="420"/>
-        <item x="283"/>
-        <item x="229"/>
-        <item x="349"/>
-        <item x="367"/>
-        <item x="262"/>
-        <item x="408"/>
-        <item x="174"/>
-        <item x="182"/>
-        <item x="157"/>
-        <item x="123"/>
-        <item x="339"/>
-        <item x="323"/>
-        <item x="348"/>
-        <item x="81"/>
-        <item x="180"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="189"/>
-        <item x="79"/>
-        <item x="412"/>
-        <item x="121"/>
-        <item x="93"/>
-        <item x="240"/>
-        <item x="192"/>
-        <item x="152"/>
-        <item x="248"/>
-        <item x="10"/>
-        <item x="30"/>
-        <item x="382"/>
-        <item x="119"/>
-        <item x="316"/>
-        <item x="241"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="354"/>
-        <item x="318"/>
-        <item x="221"/>
-        <item x="68"/>
-        <item x="122"/>
-        <item x="29"/>
-        <item x="279"/>
-        <item x="128"/>
-        <item x="387"/>
-        <item x="383"/>
-        <item x="254"/>
-        <item x="309"/>
-        <item x="61"/>
-        <item x="208"/>
-        <item x="14"/>
-        <item x="139"/>
-        <item x="90"/>
-        <item x="224"/>
-        <item x="87"/>
-        <item x="410"/>
-        <item x="326"/>
-        <item x="141"/>
-        <item x="227"/>
-        <item x="260"/>
-        <item x="2"/>
-        <item x="39"/>
-        <item x="15"/>
-        <item x="308"/>
-        <item x="297"/>
-        <item x="280"/>
-        <item x="47"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="277"/>
-        <item x="204"/>
-        <item x="43"/>
-        <item x="340"/>
-        <item x="238"/>
-        <item x="236"/>
-        <item x="233"/>
-        <item x="415"/>
-        <item x="28"/>
-        <item x="116"/>
-        <item x="210"/>
-        <item x="89"/>
-        <item x="220"/>
-        <item x="272"/>
-        <item x="358"/>
-        <item x="278"/>
-        <item x="312"/>
-        <item x="162"/>
-        <item x="356"/>
-        <item x="414"/>
-        <item x="291"/>
-        <item x="216"/>
-        <item x="259"/>
-        <item x="154"/>
-        <item x="411"/>
-        <item x="393"/>
-        <item x="376"/>
-        <item x="392"/>
-        <item x="206"/>
-        <item x="202"/>
-        <item x="289"/>
-        <item x="19"/>
-        <item x="187"/>
-        <item x="144"/>
-        <item x="166"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="126"/>
-        <item x="178"/>
-        <item x="136"/>
-        <item x="186"/>
-        <item x="228"/>
-        <item x="372"/>
-        <item x="285"/>
-        <item x="132"/>
-        <item x="257"/>
-        <item x="268"/>
-        <item x="86"/>
-        <item x="62"/>
-        <item x="269"/>
-        <item x="321"/>
-        <item x="421"/>
-        <item x="293"/>
-        <item x="222"/>
-        <item x="183"/>
-        <item x="394"/>
-        <item x="351"/>
-        <item x="205"/>
-        <item x="129"/>
-        <item x="50"/>
-        <item x="313"/>
-        <item x="51"/>
-        <item x="26"/>
-        <item x="401"/>
-        <item x="320"/>
-        <item x="373"/>
-        <item x="98"/>
-        <item x="250"/>
-        <item x="379"/>
-        <item x="225"/>
-        <item x="399"/>
-        <item x="247"/>
-        <item x="117"/>
-        <item x="140"/>
-        <item x="232"/>
-        <item x="300"/>
-        <item x="37"/>
-        <item x="418"/>
-        <item x="127"/>
-        <item x="389"/>
-        <item x="153"/>
-        <item x="355"/>
-        <item x="24"/>
-        <item x="11"/>
-        <item x="52"/>
-        <item x="381"/>
-        <item x="361"/>
-        <item x="112"/>
-        <item x="357"/>
-        <item x="1"/>
-        <item x="110"/>
-        <item x="230"/>
-        <item x="295"/>
-        <item x="32"/>
-        <item x="341"/>
-        <item x="103"/>
-        <item x="267"/>
-        <item x="244"/>
-        <item x="405"/>
-        <item x="395"/>
-        <item x="397"/>
-        <item x="281"/>
-        <item x="94"/>
-        <item x="177"/>
-        <item x="55"/>
-        <item x="113"/>
-        <item x="171"/>
-        <item x="298"/>
-        <item x="213"/>
-        <item x="374"/>
-        <item x="131"/>
-        <item x="252"/>
-        <item x="345"/>
-        <item x="275"/>
-        <item x="85"/>
-        <item x="49"/>
-        <item x="179"/>
-        <item x="343"/>
-        <item x="124"/>
-        <item x="338"/>
-        <item x="100"/>
-        <item x="311"/>
-        <item x="40"/>
-        <item x="334"/>
-        <item x="168"/>
-        <item x="353"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="365"/>
-        <item x="380"/>
-        <item x="366"/>
-        <item x="167"/>
-        <item x="194"/>
-        <item x="163"/>
-        <item x="109"/>
-        <item x="67"/>
-        <item x="95"/>
-        <item x="165"/>
-        <item x="256"/>
-        <item x="7"/>
-        <item x="102"/>
-        <item x="282"/>
-        <item x="190"/>
-        <item x="402"/>
-        <item x="317"/>
-        <item x="106"/>
-        <item x="42"/>
-        <item x="352"/>
-        <item x="276"/>
-        <item x="198"/>
-        <item x="336"/>
-        <item x="84"/>
-        <item x="407"/>
-        <item x="290"/>
-        <item x="223"/>
-        <item x="99"/>
-        <item x="274"/>
-        <item x="310"/>
-        <item x="196"/>
-        <item x="104"/>
-        <item x="22"/>
-        <item x="385"/>
-        <item x="423"/>
-        <item x="125"/>
-        <item x="416"/>
-        <item x="82"/>
-        <item x="145"/>
-        <item x="135"/>
-        <item x="294"/>
-        <item x="384"/>
-        <item x="342"/>
-        <item x="246"/>
-        <item x="164"/>
-        <item x="54"/>
-        <item x="391"/>
-        <item x="148"/>
-        <item x="377"/>
-        <item x="400"/>
-        <item x="368"/>
-        <item x="288"/>
-        <item x="35"/>
-        <item x="333"/>
-        <item x="329"/>
-        <item x="344"/>
-        <item x="328"/>
-        <item x="172"/>
-        <item x="48"/>
-        <item x="331"/>
-        <item x="363"/>
-        <item x="161"/>
-        <item x="378"/>
-        <item x="20"/>
-        <item x="74"/>
-        <item x="71"/>
-        <item x="413"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="77"/>
-        <item x="245"/>
-        <item x="97"/>
-        <item x="292"/>
-        <item x="388"/>
-        <item x="350"/>
-        <item x="370"/>
-        <item x="303"/>
-        <item x="335"/>
-        <item x="107"/>
-        <item x="197"/>
-        <item x="386"/>
-        <item x="396"/>
-        <item x="80"/>
-        <item x="324"/>
-        <item x="243"/>
-        <item x="299"/>
-        <item x="5"/>
-        <item x="419"/>
-        <item x="417"/>
-        <item x="66"/>
-        <item x="4"/>
-        <item x="78"/>
-        <item x="188"/>
-        <item x="209"/>
-        <item x="53"/>
-        <item x="404"/>
-        <item x="239"/>
-        <item x="273"/>
-        <item x="134"/>
-        <item x="13"/>
-        <item x="34"/>
-        <item x="302"/>
-        <item x="73"/>
-        <item x="270"/>
-        <item x="88"/>
-        <item x="18"/>
-        <item x="200"/>
-        <item x="185"/>
-        <item x="108"/>
-        <item x="151"/>
-        <item x="346"/>
-        <item x="92"/>
-        <item x="271"/>
-        <item x="173"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="219"/>
-        <item x="304"/>
-        <item x="70"/>
-        <item x="72"/>
-        <item x="266"/>
-        <item x="364"/>
-        <item x="25"/>
-        <item x="258"/>
-        <item x="314"/>
-        <item x="403"/>
-        <item x="332"/>
-        <item x="337"/>
-        <item x="235"/>
-        <item x="65"/>
-        <item x="369"/>
-        <item x="91"/>
-        <item x="284"/>
-        <item x="143"/>
-        <item x="160"/>
-        <item x="105"/>
-        <item x="63"/>
-        <item x="8"/>
-        <item x="226"/>
-        <item x="215"/>
-        <item x="249"/>
-        <item x="6"/>
-        <item x="319"/>
-        <item x="159"/>
-        <item x="155"/>
-        <item x="375"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="231"/>
-        <item x="359"/>
-        <item x="44"/>
-        <item x="362"/>
-        <item x="45"/>
-        <item x="181"/>
-        <item x="133"/>
-        <item x="255"/>
-        <item x="264"/>
-        <item x="390"/>
-        <item x="176"/>
-        <item x="406"/>
-        <item x="199"/>
-        <item x="201"/>
-        <item x="347"/>
-        <item x="111"/>
-        <item x="214"/>
-        <item x="211"/>
-        <item x="193"/>
-        <item x="147"/>
-        <item x="101"/>
-        <item x="175"/>
-        <item x="327"/>
-        <item x="170"/>
-        <item x="3"/>
-        <item x="76"/>
-        <item x="149"/>
-        <item x="195"/>
-        <item x="306"/>
-        <item x="217"/>
-        <item x="263"/>
-        <item x="137"/>
-        <item x="286"/>
-        <item x="33"/>
-        <item x="207"/>
-        <item x="184"/>
-        <item x="118"/>
-        <item x="330"/>
-        <item x="315"/>
-        <item x="253"/>
-        <item x="237"/>
-        <item x="398"/>
-        <item x="36"/>
-        <item x="325"/>
-        <item x="305"/>
-        <item x="38"/>
-        <item x="46"/>
-        <item x="142"/>
-        <item x="158"/>
-        <item x="69"/>
-        <item x="27"/>
-        <item x="360"/>
-        <item x="212"/>
-        <item x="64"/>
-        <item x="261"/>
-        <item x="265"/>
-        <item x="287"/>
-        <item x="59"/>
-        <item x="422"/>
-        <item x="301"/>
-        <item x="322"/>
-        <item x="75"/>
-        <item x="146"/>
-        <item x="296"/>
-        <item x="409"/>
-        <item x="150"/>
-        <item x="242"/>
-        <item x="114"/>
-        <item x="191"/>
-        <item x="371"/>
-        <item x="169"/>
-        <item x="83"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Moyenne de Average_Size(cm)" fld="5" subtotal="average" baseField="0" baseItem="5" numFmtId="1"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Segment_Species_Name" xr10:uid="{DB425433-3BFC-4BBA-BC96-7B8392E65BFB}" sourceName="Species_Name">
   <pivotTables>
@@ -19402,10 +19405,10 @@
       <items count="8">
         <i x="2"/>
         <i x="3"/>
-        <i x="4" s="1"/>
+        <i x="4"/>
         <i x="0"/>
         <i x="5"/>
-        <i x="6"/>
+        <i x="6" s="1"/>
         <i x="7"/>
         <i x="1"/>
       </items>
@@ -19470,8 +19473,8 @@
     <tabular pivotCacheId="2143251508">
       <items count="3">
         <i x="1"/>
-        <i x="0"/>
-        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="2"/>
       </items>
     </tabular>
   </data>
@@ -34586,15 +34589,15 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="13">
-        <v>61.911666666666662</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="12">
+        <v>58.42833333333332</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -34644,55 +34647,55 @@
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="13">
-        <v>61.911666666666662</v>
+      <c r="C7" s="12">
+        <v>58.42833333333332</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="13">
         <v>1</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="12">
+        <v>30</v>
+      </c>
+      <c r="N7" s="13">
         <v>2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="13">
         <v>1</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="13">
         <v>3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="13">
         <v>6</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="13">
+        <v>3</v>
+      </c>
+      <c r="U7" s="13">
         <v>1</v>
       </c>
-      <c r="U7" s="12">
-        <v>3</v>
-      </c>
-      <c r="V7" s="12">
+      <c r="V7" s="13">
         <v>2</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="13">
         <v>6</v>
       </c>
     </row>
@@ -34700,47 +34703,47 @@
       <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>6</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12">
-        <v>3</v>
-      </c>
-      <c r="K8" s="12">
-        <v>3</v>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="13">
         <v>2</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="13">
         <v>1</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P8" s="13">
         <v>3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="13">
         <v>6</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="12">
+      <c r="T8" s="13">
+        <v>3</v>
+      </c>
+      <c r="U8" s="13">
         <v>1</v>
       </c>
-      <c r="U8" s="12">
-        <v>3</v>
-      </c>
-      <c r="V8" s="12">
+      <c r="V8" s="13">
         <v>2</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="13">
         <v>6</v>
       </c>
     </row>
@@ -34748,25 +34751,27 @@
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
-        <v>1</v>
+      <c r="J9" s="13">
+        <v>2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.35">
       <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="13">
         <v>2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="13">
         <v>4</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>6</v>
       </c>
     </row>
@@ -34974,14 +34979,14 @@
       </c>
       <c r="G3" s="8">
         <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5,"Water_Pollution_Level","Low")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5),0)</f>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K3" s="9">
         <f>IFERROR(GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5,"Water_Pollution_Level","Medium")/GETPIVOTDATA("Overfishing_Risk",CALCULS!$H$5),0)</f>
-        <v>0.5</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>44</v>
@@ -34995,7 +35000,7 @@
       </c>
       <c r="S3" s="10">
         <f>AVERAGE(CALCULS!C6:C13)</f>
-        <v>61.911666666666662</v>
+        <v>58.42833333333332</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>45</v>
